--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B8A4B00-AA6A-4848-919B-900BAC378255}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F317D1-C842-4B90-846A-1985823FB218}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -301,16 +301,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$24</c:f>
+              <c:f>main!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -360,6 +363,9 @@
                   <c:v>74.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>75.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -656,10 +662,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -710,16 +716,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$22</c:f>
+              <c:f>main!$C$6:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -770,6 +779,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,10 +821,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -863,16 +875,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$22</c:f>
+              <c:f>main!$E$6:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -962,10 +977,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1016,16 +1031,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$22</c:f>
+              <c:f>main!$G$6:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1115,10 +1133,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1169,16 +1187,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$22</c:f>
+              <c:f>main!$H$6:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1217,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,10 +1558,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1588,16 +1612,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$22</c:f>
+              <c:f>main!$C$6:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1648,6 +1675,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,10 +1963,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1987,16 +2017,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$22</c:f>
+              <c:f>main!$E$6:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2335,10 +2368,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2389,16 +2422,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$22</c:f>
+              <c:f>main!$G$6:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3078,7 +3114,7 @@
           <c:x val="6.6933029157768886E-2"/>
           <c:y val="0.12621552267342281"/>
           <c:w val="0.90288133458109276"/>
-          <c:h val="0.55139757335197281"/>
+          <c:h val="0.51299249437747918"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3130,10 +3166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3184,16 +3220,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$22</c:f>
+              <c:f>main!$I$6:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3207,6 +3246,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3268,10 +3310,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3322,16 +3364,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$22</c:f>
+              <c:f>main!$J$6:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3381,6 +3426,9 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -3460,6 +3508,7 @@
         <c:axId val="1554416912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3522,6 +3571,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29990103447148708"/>
+          <c:y val="0.88546992005349912"/>
+          <c:w val="0.40019771600807208"/>
+          <c:h val="9.2584320532504344E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3681,12 +3740,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$22</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3737,16 +3811,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$22</c:f>
+              <c:f>main!$K$6:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3787,6 +3864,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -8699,13 +8779,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K22" totalsRowShown="0">
-  <autoFilter ref="A5:K22" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K23" totalsRowShown="0">
+  <autoFilter ref="A5:K23" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9042,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9090,32 +9166,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B56)</f>
-        <v>73.947058823529403</v>
+        <f>AVERAGE(B6:B57)</f>
+        <v>74.038888888888877</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C56)</f>
-        <v>10.676470588235293</v>
+        <f>AVERAGE(C6:C57)</f>
+        <v>10.422222222222222</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D56)</f>
+        <f>AVERAGE(D6:D57)</f>
         <v>9.75</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E56)</f>
+        <f>AVERAGE(E6:E57)</f>
         <v>14.664705882352942</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F56)</f>
+        <f>AVERAGE(F6:F57)</f>
         <v>10.62</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G56)</f>
+        <f>AVERAGE(G6:G57)</f>
         <v>14.464705882352943</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H56)</f>
-        <v>9.2692307692307683</v>
+        <f>AVERAGE(H6:H57)</f>
+        <v>9.0071428571428562</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9123,31 +9199,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B63)</f>
+        <f>MAX(B6:B64)</f>
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C63)</f>
+        <f>MIN(C6:C64)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D63)</f>
+        <f>MIN(D6:D64)</f>
         <v>7.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E63)</f>
+        <f>MIN(E6:E64)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F63)</f>
+        <f>MIN(F6:F64)</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G63)</f>
+        <f>MIN(G6:G64)</f>
         <v>9</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H63)</f>
+        <f>MIN(H6:H64)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -9646,15 +9722,39 @@
       <c r="G22">
         <v>9</v>
       </c>
+      <c r="H22">
+        <v>5.6</v>
+      </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B23">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C23">
+        <v>6.1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
     </row>
     <row r="56" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD56" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F317D1-C842-4B90-846A-1985823FB218}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7225963-1A84-44F1-A5C5-E395ED389BC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -195,7 +195,7 @@
           <c:x val="7.2025371828521437E-2"/>
           <c:y val="0.13467592592592592"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.65650153105861764"/>
+          <c:h val="0.74150148805761262"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -310,10 +310,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$25</c:f>
+              <c:f>main!$B$6:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -439,6 +439,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="328063424"/>
@@ -570,7 +572,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -583,8 +585,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>BloodGlucose Readings</a:t>
+              <a:rPr lang="en-ZA" sz="1800"/>
+              <a:t>All BloodGlucose Readings</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -602,7 +604,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -625,10 +627,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.13967588454279223"/>
+          <c:x val="7.2027590872798544E-2"/>
+          <c:y val="9.907218736145687E-2"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.5597647366785008"/>
+          <c:h val="0.76853195443849542"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -938,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1313,6 +1318,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="326523408"/>
@@ -1395,7 +1402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1509,7 +1516,7 @@
           <c:x val="6.9247594050743655E-2"/>
           <c:y val="0.12541666666666668"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.67039041994750648"/>
+          <c:h val="0.75066817579456024"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1750,6 +1757,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="337892496"/>
@@ -1912,9 +1921,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.12078703703703704"/>
+          <c:y val="0.15898953549174366"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.67039041994750648"/>
+          <c:h val="0.71495958934087089"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2080,6 +2089,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,7 +2331,7 @@
           <c:x val="6.6469816272965873E-2"/>
           <c:y val="0.13004629629629633"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.66113116068824729"/>
+          <c:h val="0.76807255889130344"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2557,6 +2569,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="337913136"/>
@@ -2682,374 +2696,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.12541666666666668"/>
-          <c:w val="0.90297462817147855"/>
-          <c:h val="0.66576079031787694"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BedTime (21:45)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="7"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$9:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45466</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45472</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45473</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45477</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$H$9:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02BE-4DE8-BA36-700F3B6FF2F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1277479264"/>
-        <c:axId val="1277477824"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1277479264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1277477824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1277477824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1277479264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3112,9 +2758,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6933029157768886E-2"/>
-          <c:y val="0.12621552267342281"/>
+          <c:y val="0.11890665929996908"/>
           <c:w val="0.90288133458109276"/>
-          <c:h val="0.51299249437747918"/>
+          <c:h val="0.70272904702333772"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3503,6 +3149,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1554416912"/>
@@ -3575,8 +3223,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29990103447148708"/>
-          <c:y val="0.88546992005349912"/>
+          <c:x val="0.2999010102645836"/>
+          <c:y val="0.89973168451069485"/>
           <c:w val="0.40019771600807208"/>
           <c:h val="9.2584320532504344E-2"/>
         </c:manualLayout>
@@ -3610,6 +3258,410 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8161854768153979E-2"/>
+          <c:y val="0.16496703147002773"/>
+          <c:w val="0.90128258967629049"/>
+          <c:h val="0.72027273830033955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$K$6:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C649-45F5-BEEA-F47A3F90B107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1534605728"/>
+        <c:axId val="1534606208"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1534605728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45465"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534606208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1534606208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534605728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3705,10 +3757,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.8161854768153979E-2"/>
-          <c:y val="0.13362472956805116"/>
-          <c:w val="0.90128258967629049"/>
-          <c:h val="0.62615076421269544"/>
+          <c:x val="6.6469816272965873E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90297462817147855"/>
+          <c:h val="0.7629246864975211"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3719,11 +3771,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$K$5</c:f>
+              <c:f>main!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sleep</c:v>
+                  <c:v>BedTime (21:45)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3731,7 +3783,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3820,54 +3875,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$23</c:f>
+              <c:f>main!$H$6:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,7 +3927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C649-45F5-BEEA-F47A3F90B107}"/>
+              <c16:uniqueId val="{00000000-425D-4F0B-8A9F-C2AE16ECA305}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3888,14 +3940,14 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1534605728"/>
-        <c:axId val="1534606208"/>
+        <c:axId val="1875528799"/>
+        <c:axId val="1875530239"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1534605728"/>
+        <c:axId val="1875528799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="45465"/>
+          <c:min val="45466"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3936,17 +3988,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534606208"/>
+        <c:crossAx val="1875530239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1534606208"/>
+        <c:axId val="1875530239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3995,7 +4048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534605728"/>
+        <c:crossAx val="1875528799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6952,7 +7005,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7060,11 +7113,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7075,11 +7123,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7111,9 +7154,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7468,7 +7508,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7576,6 +7616,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7586,6 +7631,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7617,6 +7667,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8491,15 +8544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>60959</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8529,13 +8582,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>68578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8570,8 +8623,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8599,15 +8652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>367554</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8635,15 +8688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>401844</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94802</xdr:rowOff>
+      <xdr:colOff>348057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>56031</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8670,23 +8723,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>94128</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>372035</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147917</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF81B0F-585A-93F8-C5E8-12C4AC2F3C8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEC9DFF-4659-25E6-0E06-9242E0B7CFF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8706,23 +8759,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>132566</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94465</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49305</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEC9DFF-4659-25E6-0E06-9242E0B7CFF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75CDEC-90B2-356A-898F-D5D665EFEAA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8743,22 +8796,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>49305</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>354105</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129987</xdr:rowOff>
+      <xdr:colOff>372035</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75CDEC-90B2-356A-898F-D5D665EFEAA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C842D71B-4ADF-5DD2-6DC4-9128290658F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8777,6 +8830,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9116,10 +9173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ37" sqref="AJ37"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9166,31 +9223,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B57)</f>
+        <f>AVERAGE(B6:B54)</f>
         <v>74.038888888888877</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C57)</f>
+        <f>AVERAGE(C6:C54)</f>
         <v>10.422222222222222</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D57)</f>
-        <v>9.75</v>
+        <f>AVERAGE(D6:D54)</f>
+        <v>9.0916666666666668</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E57)</f>
-        <v>14.664705882352942</v>
+        <f>AVERAGE(E6:E54)</f>
+        <v>14.238888888888889</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F57)</f>
+        <f>AVERAGE(F6:F54)</f>
         <v>10.62</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G57)</f>
+        <f>AVERAGE(G6:G54)</f>
         <v>14.464705882352943</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H57)</f>
+        <f>AVERAGE(H6:H54)</f>
         <v>9.0071428571428562</v>
       </c>
     </row>
@@ -9199,31 +9256,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B64)</f>
+        <f>MAX(B6:B61)</f>
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C64)</f>
+        <f t="shared" ref="C3:H3" si="0">MIN(C6:C61)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D64)</f>
-        <v>7.8</v>
+        <f t="shared" si="0"/>
+        <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E64)</f>
-        <v>8.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F64)</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G64)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H64)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
@@ -9745,7 +9802,12 @@
       <c r="C23">
         <v>6.1</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
       <c r="I23">
         <v>8</v>
       </c>
@@ -9753,11 +9815,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="56" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD56" t="s">
+    <row r="52" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD52" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7225963-1A84-44F1-A5C5-E395ED389BC2}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD42E8-0957-406F-88A4-93C576B1B562}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -304,16 +304,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$23</c:f>
+              <c:f>main!$B$6:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -367,6 +370,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,10 +670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -721,16 +727,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$23</c:f>
+              <c:f>main!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -784,6 +793,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,10 +835,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -880,16 +892,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$23</c:f>
+              <c:f>main!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -982,10 +997,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1039,16 +1054,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$23</c:f>
+              <c:f>main!$G$6:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1099,6 +1117,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,10 +1159,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1195,16 +1216,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$23</c:f>
+              <c:f>main!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1246,6 +1270,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,10 +1592,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1622,16 +1649,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$23</c:f>
+              <c:f>main!$C$6:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1685,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,10 +2005,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2029,16 +2062,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$23</c:f>
+              <c:f>main!$E$6:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2380,10 +2416,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2437,16 +2473,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$23</c:f>
+              <c:f>main!$G$6:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2497,6 +2536,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,10 +2854,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2869,16 +2911,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$23</c:f>
+              <c:f>main!$I$6:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2956,10 +3001,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3013,16 +3058,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$23</c:f>
+              <c:f>main!$J$6:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3410,10 +3458,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3467,16 +3515,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$23</c:f>
+              <c:f>main!$K$6:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3520,6 +3571,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3812,10 +3866,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$23</c:f>
+              <c:f>main!$A$6:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3869,16 +3923,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$23</c:f>
+              <c:f>main!$H$6:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -3920,6 +3977,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8832,13 +8892,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K23" totalsRowShown="0">
-  <autoFilter ref="A5:K23" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K24" totalsRowShown="0">
+  <autoFilter ref="A5:K24" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9175,8 +9231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9223,32 +9279,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B54)</f>
-        <v>74.038888888888877</v>
+        <f>AVERAGE(B6:B55)</f>
+        <v>74.089473684210517</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C54)</f>
-        <v>10.422222222222222</v>
+        <f>AVERAGE(C6:C55)</f>
+        <v>10.268421052631579</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D54)</f>
+        <f>AVERAGE(D6:D55)</f>
         <v>9.0916666666666668</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E54)</f>
+        <f>AVERAGE(E6:E55)</f>
         <v>14.238888888888889</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F54)</f>
-        <v>10.62</v>
+        <f>AVERAGE(F6:F55)</f>
+        <v>10.299999999999999</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G54)</f>
-        <v>14.464705882352943</v>
+        <f>AVERAGE(G6:G55)</f>
+        <v>14.100000000000001</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H54)</f>
-        <v>9.0071428571428562</v>
+        <f>AVERAGE(H6:H55)</f>
+        <v>8.8666666666666654</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9256,31 +9312,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B61)</f>
+        <f>MAX(B6:B62)</f>
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="0">MIN(C6:C61)</f>
+        <f>MIN(C6:C62)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>MIN(D6:D62)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>MIN(E6:E62)</f>
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <f>MIN(F6:F62)</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>MIN(G6:G62)</f>
+        <v>7.9</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>MIN(H6:H62)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -9808,12 +9864,36 @@
       <c r="E23">
         <v>7</v>
       </c>
+      <c r="F23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G23">
+        <v>7.9</v>
+      </c>
+      <c r="H23">
+        <v>6.9</v>
+      </c>
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23">
         <v>12</v>
       </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD52" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD42E8-0957-406F-88A4-93C576B1B562}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAC55CE-51EC-4C47-9BA3-499194584FDF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -8892,6 +8892,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K24" totalsRowShown="0">
   <autoFilter ref="A5:K24" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -9231,8 +9235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9279,31 +9283,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B55)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B55)</f>
         <v>74.089473684210517</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C55)</f>
+        <f t="shared" si="0"/>
         <v>10.268421052631579</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D55)</f>
-        <v>9.0916666666666668</v>
+        <f t="shared" si="0"/>
+        <v>8.75</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E55)</f>
+        <f t="shared" si="0"/>
         <v>14.238888888888889</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F55)</f>
+        <f t="shared" si="0"/>
         <v>10.299999999999999</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G55)</f>
+        <f t="shared" si="0"/>
         <v>14.100000000000001</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H55)</f>
+        <f t="shared" si="0"/>
         <v>8.8666666666666654</v>
       </c>
     </row>
@@ -9316,27 +9320,27 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C62)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C62)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D62)</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E62)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F62)</f>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G62)</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H62)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
@@ -9893,7 +9897,9 @@
       <c r="C24">
         <v>7.5</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD52" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAC55CE-51EC-4C47-9BA3-499194584FDF}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF30E85-D4A2-42F4-9B67-74FBD63EAF48}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -307,16 +307,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$24</c:f>
+              <c:f>main!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -373,6 +376,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +642,7 @@
           <c:x val="7.2027590872798544E-2"/>
           <c:y val="9.907218736145687E-2"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.76853195443849542"/>
+          <c:h val="0.76546780884349053"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -670,10 +676,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -730,16 +736,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$24</c:f>
+              <c:f>main!$C$6:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -796,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,10 +847,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -895,16 +907,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$24</c:f>
+              <c:f>main!$E$6:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -958,6 +973,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,10 +1015,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1057,16 +1075,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$24</c:f>
+              <c:f>main!$G$6:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1120,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,10 +1183,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1219,16 +1243,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$24</c:f>
+              <c:f>main!$H$6:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1592,10 +1619,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1652,16 +1679,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$24</c:f>
+              <c:f>main!$C$6:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1718,6 +1748,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,8 +1986,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.15898953549174366"/>
+          <c:x val="5.7789168831709599E-2"/>
+          <c:y val="0.15898940991797661"/>
           <c:w val="0.90297462817147855"/>
           <c:h val="0.71495958934087089"/>
         </c:manualLayout>
@@ -2005,10 +2038,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2065,16 +2098,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$24</c:f>
+              <c:f>main!$E$6:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2128,6 +2164,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,10 +2455,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2476,16 +2515,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$24</c:f>
+              <c:f>main!$G$6:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2539,6 +2581,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2847,7 @@
           <c:x val="6.6933029157768886E-2"/>
           <c:y val="0.11890665929996908"/>
           <c:w val="0.90288133458109276"/>
-          <c:h val="0.70272904702333772"/>
+          <c:h val="0.77600505276632792"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2854,10 +2899,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2914,16 +2959,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$24</c:f>
+              <c:f>main!$I$6:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2941,6 +2989,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,10 +3055,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3061,16 +3115,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$24</c:f>
+              <c:f>main!$J$6:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3124,6 +3181,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,8 +3334,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2999010102645836"/>
-          <c:y val="0.89973168451069485"/>
+          <c:x val="7.8013529438643883E-2"/>
+          <c:y val="0.63105343408093961"/>
           <c:w val="0.40019771600807208"/>
           <c:h val="9.2584320532504344E-2"/>
         </c:manualLayout>
@@ -3458,10 +3521,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3518,16 +3581,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$24</c:f>
+              <c:f>main!$K$6:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3575,6 +3641,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,10 +3935,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$24</c:f>
+              <c:f>main!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3926,16 +3995,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$24</c:f>
+              <c:f>main!$H$6:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -8604,15 +8676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>60959</xdr:colOff>
+      <xdr:colOff>123712</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>376516</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:colOff>439269</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8640,15 +8712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>80682</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68578</xdr:rowOff>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>322729</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8678,13 +8750,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>14790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8712,15 +8784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>367554</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:colOff>412375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:colOff>98610</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8748,15 +8820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>348057</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>32049</xdr:rowOff>
+      <xdr:colOff>374951</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8785,14 +8857,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8820,15 +8892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>49305</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:colOff>121021</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8856,15 +8928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>372035</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>94129</xdr:rowOff>
+      <xdr:colOff>416859</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8892,13 +8964,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K24" totalsRowShown="0">
-  <autoFilter ref="A5:K24" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K25" totalsRowShown="0">
+  <autoFilter ref="A5:K25" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9236,7 +9304,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9283,31 +9351,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B55)</f>
-        <v>74.089473684210517</v>
+        <f>AVERAGE(B6:B56)</f>
+        <v>74.16</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.268421052631579</v>
+        <f>AVERAGE(C6:C56)</f>
+        <v>10.095000000000001</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D56)</f>
         <v>8.75</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>14.238888888888889</v>
+        <f>AVERAGE(E6:E56)</f>
+        <v>14.005263157894738</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.299999999999999</v>
+        <f>AVERAGE(F6:F56)</f>
+        <v>10.185714285714285</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>14.100000000000001</v>
+        <f>AVERAGE(G6:G56)</f>
+        <v>13.800000000000002</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H56)</f>
         <v>8.8666666666666654</v>
       </c>
     </row>
@@ -9316,31 +9384,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B62)</f>
+        <f>MAX(B6:B63)</f>
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C62)</f>
+        <f>MIN(C6:C63)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D63)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E63)</f>
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F63)</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G63)</f>
         <v>7.9</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H63)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -9899,6 +9967,42 @@
       </c>
       <c r="D24" s="2">
         <v>6.7</v>
+      </c>
+      <c r="E24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>9.5</v>
+      </c>
+      <c r="G24">
+        <v>8.4</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B25">
+        <v>75.5</v>
+      </c>
+      <c r="C25">
+        <v>6.8</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF30E85-D4A2-42F4-9B67-74FBD63EAF48}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979EEDF4-DDFF-49A4-B741-D5D10E2F16D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -977,6 +977,9 @@
                 <c:pt idx="18">
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1145,6 +1148,9 @@
                 <c:pt idx="18">
                   <c:v>8.4</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1300,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,9 +1577,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.9247594050743655E-2"/>
-          <c:y val="0.12541666666666668"/>
+          <c:y val="0.14909185982782341"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.75066817579456024"/>
+          <c:h val="0.72699309876851603"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2168,6 +2177,9 @@
                 <c:pt idx="18">
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2404,9 +2416,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.13004629629629633"/>
+          <c:y val="0.13834445466465026"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.76807255889130344"/>
+          <c:h val="0.75646067364363345"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2584,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,9 +2860,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6933029157768886E-2"/>
-          <c:y val="0.11890665929996908"/>
+          <c:y val="0.15345964025110234"/>
           <c:w val="0.90288133458109276"/>
-          <c:h val="0.77600505276632792"/>
+          <c:h val="0.74145201866761945"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3881,9 +3896,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.13004629629629633"/>
+          <c:y val="0.15901680255526221"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.7629246864975211"/>
+          <c:h val="0.7339539908635051"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4052,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8684,7 +8702,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>439269</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>62754</xdr:rowOff>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8750,13 +8768,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14790</xdr:rowOff>
+      <xdr:rowOff>14791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8786,7 +8804,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>412375</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
@@ -8864,7 +8882,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8892,15 +8910,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>121021</xdr:colOff>
+      <xdr:colOff>138950</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>385482</xdr:colOff>
+      <xdr:colOff>403411</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>116540</xdr:rowOff>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9303,8 +9321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL23" sqref="AL23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9351,32 +9369,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B56)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B56)</f>
         <v>74.16</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C56)</f>
+        <f t="shared" si="0"/>
         <v>10.095000000000001</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D56)</f>
-        <v>8.75</v>
+        <f t="shared" si="0"/>
+        <v>8.4937500000000004</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E56)</f>
-        <v>14.005263157894738</v>
+        <f t="shared" si="0"/>
+        <v>13.725</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F56)</f>
-        <v>10.185714285714285</v>
+        <f t="shared" si="0"/>
+        <v>10.225</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G56)</f>
-        <v>13.800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>13.560000000000002</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H56)</f>
-        <v>8.8666666666666654</v>
+        <f t="shared" si="0"/>
+        <v>8.6374999999999975</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9388,28 +9406,28 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C63)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C63)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D63)</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E63)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F63)</f>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G63)</f>
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H63)</f>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -9977,6 +9995,9 @@
       <c r="G24">
         <v>8.4</v>
       </c>
+      <c r="H24">
+        <v>5.2</v>
+      </c>
       <c r="I24">
         <v>8</v>
       </c>
@@ -9997,7 +10018,18 @@
       <c r="C25">
         <v>6.8</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E25">
+        <v>8.4</v>
+      </c>
+      <c r="F25">
+        <v>10.5</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
       <c r="I25">
         <v>10</v>
       </c>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979EEDF4-DDFF-49A4-B741-D5D10E2F16D2}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8EB25D-34D8-4DF7-8A08-92ADBB60380F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -310,16 +310,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$25</c:f>
+              <c:f>main!$B$6:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -379,6 +382,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,10 +682,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -739,16 +745,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$25</c:f>
+              <c:f>main!$C$6:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -808,6 +817,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,10 +859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -910,16 +922,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$25</c:f>
+              <c:f>main!$E$6:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1018,10 +1033,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1081,16 +1096,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$25</c:f>
+              <c:f>main!$G$6:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1189,10 +1207,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1252,16 +1270,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$25</c:f>
+              <c:f>main!$H$6:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1309,6 +1330,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,10 +1652,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1691,16 +1715,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$25</c:f>
+              <c:f>main!$C$6:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1760,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,10 +2077,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2110,16 +2140,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$25</c:f>
+              <c:f>main!$E$6:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2467,10 +2500,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2530,16 +2563,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$25</c:f>
+              <c:f>main!$G$6:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2914,10 +2950,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2977,16 +3013,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$25</c:f>
+              <c:f>main!$I$6:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3009,6 +3048,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3070,10 +3112,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3133,16 +3175,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$25</c:f>
+              <c:f>main!$J$6:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3201,6 +3246,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3536,10 +3584,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3599,16 +3647,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$25</c:f>
+              <c:f>main!$K$6:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3658,6 +3709,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -3950,10 +4004,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$25</c:f>
+              <c:f>main!$A$6:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4013,16 +4067,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$25</c:f>
+              <c:f>main!$H$6:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4070,6 +4127,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,8 +9043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K25" totalsRowShown="0">
-  <autoFilter ref="A5:K25" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K26" totalsRowShown="0">
+  <autoFilter ref="A5:K26" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9322,7 +9382,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9369,32 +9429,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B56)</f>
-        <v>74.16</v>
+        <f>AVERAGE(B6:B57)</f>
+        <v>74.238095238095227</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.095000000000001</v>
+        <f>AVERAGE(C6:C57)</f>
+        <v>9.8714285714285719</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D57)</f>
         <v>8.4937500000000004</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E57)</f>
         <v>13.725</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F57)</f>
         <v>10.225</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6:G57)</f>
         <v>13.560000000000002</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6374999999999975</v>
+        <f>AVERAGE(H6:H57)</f>
+        <v>8.470588235294116</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9402,31 +9462,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B63)</f>
-        <v>75.599999999999994</v>
+        <f>MAX(B6:B64)</f>
+        <v>75.8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C63)</f>
+        <f>MIN(C6:C64)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D64)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E64)</f>
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F64)</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G64)</f>
         <v>7.9</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H64)</f>
         <v>5.2</v>
       </c>
     </row>
@@ -10030,10 +10090,34 @@
       <c r="G25">
         <v>9</v>
       </c>
+      <c r="H25">
+        <v>5.8</v>
+      </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B26">
+        <v>75.8</v>
+      </c>
+      <c r="C26">
+        <v>5.4</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
         <v>10</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8EB25D-34D8-4DF7-8A08-92ADBB60380F}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDCC0E1-4548-473C-B1BF-47E18B567E8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -995,6 +995,9 @@
                 <c:pt idx="19">
                   <c:v>8.4</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1168,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,6 +2219,9 @@
                 <c:pt idx="19">
                   <c:v>8.4</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2635,6 +2644,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9382,7 +9394,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9429,31 +9441,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B57)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B57)</f>
         <v>74.238095238095227</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C57)</f>
+        <f t="shared" si="0"/>
         <v>9.8714285714285719</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D57)</f>
-        <v>8.4937500000000004</v>
+        <f t="shared" si="0"/>
+        <v>8.3833333333333329</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E57)</f>
-        <v>13.725</v>
+        <f t="shared" si="0"/>
+        <v>13.323809523809524</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F57)</f>
-        <v>10.225</v>
+        <f t="shared" si="0"/>
+        <v>10.122222222222222</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G57)</f>
-        <v>13.560000000000002</v>
+        <f t="shared" si="0"/>
+        <v>13.147619047619049</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H57)</f>
+        <f t="shared" si="0"/>
         <v>8.470588235294116</v>
       </c>
     </row>
@@ -9466,27 +9478,27 @@
         <v>75.8</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C64)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C64)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D64)</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E64)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>5.3</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F64)</f>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G64)</f>
-        <v>7.9</v>
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H64)</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
     </row>
@@ -10113,7 +10125,18 @@
       <c r="C26">
         <v>5.4</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E26">
+        <v>5.3</v>
+      </c>
+      <c r="F26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G26">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="I26">
         <v>10</v>
       </c>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDCC0E1-4548-473C-B1BF-47E18B567E8F}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086F36CC-41F1-428A-84B7-7CBDD9143946}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -313,16 +313,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$26</c:f>
+              <c:f>main!$B$6:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -385,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,10 +688,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -748,16 +754,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$26</c:f>
+              <c:f>main!$C$6:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -820,6 +829,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,10 +871,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -925,16 +937,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$26</c:f>
+              <c:f>main!$E$6:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -997,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,10 +1054,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1102,16 +1120,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$26</c:f>
+              <c:f>main!$G$6:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1213,10 +1234,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1279,16 +1300,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$26</c:f>
+              <c:f>main!$H$6:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1658,10 +1682,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1724,16 +1748,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$26</c:f>
+              <c:f>main!$C$6:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1796,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,10 +2113,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2149,16 +2179,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$26</c:f>
+              <c:f>main!$E$6:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2221,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,10 +2545,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2575,16 +2611,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$26</c:f>
+              <c:f>main!$G$6:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2962,10 +3001,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3028,16 +3067,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$26</c:f>
+              <c:f>main!$I$6:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3063,6 +3105,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3124,10 +3169,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3190,16 +3235,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$26</c:f>
+              <c:f>main!$J$6:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3261,6 +3309,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3596,10 +3647,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3662,16 +3713,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$26</c:f>
+              <c:f>main!$K$6:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3725,6 +3779,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,10 +4073,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$26</c:f>
+              <c:f>main!$A$6:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4082,16 +4139,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$26</c:f>
+              <c:f>main!$H$6:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -8804,7 +8864,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68579</xdr:rowOff>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -9054,9 +9114,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K26" totalsRowShown="0">
-  <autoFilter ref="A5:K26" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K27" totalsRowShown="0">
+  <autoFilter ref="A5:K27" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9394,7 +9458,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9441,31 +9505,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B57)</f>
-        <v>74.238095238095227</v>
+        <f>AVERAGE(B6:B58)</f>
+        <v>74.295454545454533</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8714285714285719</v>
+        <f>AVERAGE(C6:C58)</f>
+        <v>9.7363636363636363</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3833333333333329</v>
+        <f>AVERAGE(D6:D58)</f>
+        <v>8.2850000000000001</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>13.323809523809524</v>
+        <f>AVERAGE(E6:E58)</f>
+        <v>12.922727272727274</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F58)</f>
         <v>10.122222222222222</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6:G58)</f>
         <v>13.147619047619049</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H58)</f>
         <v>8.470588235294116</v>
       </c>
     </row>
@@ -9474,31 +9538,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B64)</f>
+        <f>MAX(B6:B65)</f>
         <v>75.8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C64)</f>
+        <f>MIN(C6:C65)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D65)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>5.3</v>
+        <f>MIN(E6:E65)</f>
+        <v>4.5</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F65)</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G65)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H65)</f>
         <v>5.2</v>
       </c>
     </row>
@@ -10141,6 +10205,32 @@
         <v>10</v>
       </c>
       <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B27">
+        <v>75.5</v>
+      </c>
+      <c r="C27">
+        <v>6.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E27">
+        <v>4.5</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
         <v>10</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086F36CC-41F1-428A-84B7-7CBDD9143946}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF9999C-70DD-4B0D-A912-E04C58A58611}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -316,16 +316,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$27</c:f>
+              <c:f>main!$B$6:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -390,6 +396,12 @@
                   <c:v>75.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -688,10 +700,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -757,16 +769,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$27</c:f>
+              <c:f>main!$C$6:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -832,6 +850,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,10 +895,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -940,16 +964,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$27</c:f>
+              <c:f>main!$E$6:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1015,6 +1045,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,10 +1087,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1123,16 +1156,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$27</c:f>
+              <c:f>main!$G$6:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1195,6 +1234,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,10 +1279,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1303,16 +1348,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$27</c:f>
+              <c:f>main!$H$6:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1363,6 +1414,15 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,10 +1742,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1751,16 +1811,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$27</c:f>
+              <c:f>main!$C$6:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1826,6 +1892,12 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,10 +2185,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2182,16 +2254,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$27</c:f>
+              <c:f>main!$E$6:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2257,6 +2335,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,10 +2626,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2614,16 +2695,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$27</c:f>
+              <c:f>main!$G$6:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2686,6 +2773,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,10 +3094,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3070,16 +3163,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$27</c:f>
+              <c:f>main!$I$6:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3108,6 +3207,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3169,10 +3271,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3238,16 +3340,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$27</c:f>
+              <c:f>main!$J$6:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3312,6 +3420,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3647,10 +3758,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3716,16 +3827,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$27</c:f>
+              <c:f>main!$K$6:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3782,6 +3899,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,10 +4196,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$27</c:f>
+              <c:f>main!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4142,16 +4265,22 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$27</c:f>
+              <c:f>main!$H$6:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4202,6 +4331,15 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9114,13 +9252,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K27" totalsRowShown="0">
-  <autoFilter ref="A5:K27" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K29" totalsRowShown="0">
+  <autoFilter ref="A5:K29" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9458,7 +9592,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9505,32 +9639,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B58)</f>
-        <v>74.295454545454533</v>
+        <f>AVERAGE(B6:B60)</f>
+        <v>74.399999999999991</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C58)</f>
-        <v>9.7363636363636363</v>
+        <f>AVERAGE(C6:C60)</f>
+        <v>9.4791666666666679</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D58)</f>
-        <v>8.2850000000000001</v>
+        <f>AVERAGE(D6:D60)</f>
+        <v>8.2772727272727291</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E58)</f>
-        <v>12.922727272727274</v>
+        <f>AVERAGE(E6:E60)</f>
+        <v>12.717391304347826</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F58)</f>
-        <v>10.122222222222222</v>
+        <f>AVERAGE(F6:F60)</f>
+        <v>10.009090909090908</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G58)</f>
-        <v>13.147619047619049</v>
+        <f>AVERAGE(G6:G60)</f>
+        <v>12.6</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H58)</f>
-        <v>8.470588235294116</v>
+        <f>AVERAGE(H6:H60)</f>
+        <v>8.34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9538,31 +9672,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B65)</f>
+        <f>MAX(B6:B67)</f>
         <v>75.8</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C65)</f>
+        <f>MIN(C6:C67)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D65)</f>
+        <f>MIN(D6:D67)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E65)</f>
+        <f>MIN(E6:E67)</f>
         <v>4.5</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F65)</f>
+        <f>MIN(F6:F67)</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G65)</f>
+        <f>MIN(G6:G67)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H65)</f>
+        <f>MIN(H6:H67)</f>
         <v>5.2</v>
       </c>
     </row>
@@ -10201,6 +10335,9 @@
       <c r="G26">
         <v>4.9000000000000004</v>
       </c>
+      <c r="H26">
+        <v>7.7</v>
+      </c>
       <c r="I26">
         <v>10</v>
       </c>
@@ -10227,12 +10364,71 @@
       <c r="E27">
         <v>4.5</v>
       </c>
+      <c r="F27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H27">
+        <v>6.8</v>
+      </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
         <v>10</v>
       </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B28">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C28">
+        <v>5.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G28">
+        <v>5.4</v>
+      </c>
+      <c r="H28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B29">
+        <v>75.5</v>
+      </c>
+      <c r="C29">
+        <v>7.5</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD52" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF9999C-70DD-4B0D-A912-E04C58A58611}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E990EC84-2F29-4582-B1B1-603B132DCA61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -1048,6 +1048,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,6 +2342,9 @@
                 <c:pt idx="22">
                   <c:v>8.1999999999999993</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3212,6 +3218,9 @@
                 <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3423,6 +3432,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -9591,8 +9603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9639,31 +9651,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B60)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B60)</f>
         <v>74.399999999999991</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C60)</f>
+        <f t="shared" si="0"/>
         <v>9.4791666666666679</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D60)</f>
-        <v>8.2772727272727291</v>
+        <f t="shared" si="0"/>
+        <v>8.1125000000000007</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E60)</f>
-        <v>12.717391304347826</v>
+        <f t="shared" si="0"/>
+        <v>12.370833333333332</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F60)</f>
-        <v>10.009090909090908</v>
+        <f t="shared" si="0"/>
+        <v>9.6916666666666664</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G60)</f>
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H60)</f>
+        <f t="shared" si="0"/>
         <v>8.34</v>
       </c>
     </row>
@@ -9676,27 +9688,27 @@
         <v>75.8</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C67)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C67)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D67)</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E67)</f>
-        <v>4.5</v>
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F67)</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>6.2</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G67)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H67)</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
     </row>
@@ -10428,7 +10440,21 @@
       <c r="C29">
         <v>7.5</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F29">
+        <v>6.2</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD52" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E990EC84-2F29-4582-B1B1-603B132DCA61}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4E9305-F92F-43D5-9FA1-BB7F7BE4A911}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -193,9 +193,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.2025371828521437E-2"/>
-          <c:y val="0.13467592592592592"/>
+          <c:y val="0.15231060688463238"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.74150148805761262"/>
+          <c:h val="0.72386672856611889"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -322,16 +322,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$29</c:f>
+              <c:f>main!$B$6:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -403,6 +406,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,10 +706,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -775,16 +781,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$29</c:f>
+              <c:f>main!$C$6:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -856,6 +865,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,10 +907,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -970,16 +982,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$29</c:f>
+              <c:f>main!$E$6:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1090,10 +1105,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1165,16 +1180,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$29</c:f>
+              <c:f>main!$G$6:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1243,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,10 +1303,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1357,16 +1378,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$29</c:f>
+              <c:f>main!$H$6:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1426,6 +1450,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,10 +1772,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1820,16 +1847,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$29</c:f>
+              <c:f>main!$C$6:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1901,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,10 +2221,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2263,16 +2296,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$29</c:f>
+              <c:f>main!$E$6:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2632,10 +2668,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2707,16 +2743,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$29</c:f>
+              <c:f>main!$G$6:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2785,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,10 +3142,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3175,16 +3217,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$29</c:f>
+              <c:f>main!$I$6:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3219,6 +3264,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3280,10 +3328,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3355,16 +3403,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$29</c:f>
+              <c:f>main!$J$6:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3435,6 +3486,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3770,10 +3824,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3845,16 +3899,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$29</c:f>
+              <c:f>main!$K$6:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3916,6 +3973,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4154,9 +4214,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.15901680255526221"/>
+          <c:y val="0.14163437687197547"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.7339539908635051"/>
+          <c:h val="0.75133641654679184"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4208,10 +4268,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$29</c:f>
+              <c:f>main!$A$6:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4283,16 +4343,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$29</c:f>
+              <c:f>main!$H$6:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4352,6 +4415,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9264,9 +9330,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K29" totalsRowShown="0">
-  <autoFilter ref="A5:K29" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K30" totalsRowShown="0">
+  <autoFilter ref="A5:K30" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9603,8 +9673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9651,32 +9721,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B60)</f>
-        <v>74.399999999999991</v>
+        <f>AVERAGE(B6:B61)</f>
+        <v>74.475999999999985</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4791666666666679</v>
+        <f>AVERAGE(C6:C61)</f>
+        <v>9.3360000000000021</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D61)</f>
         <v>8.1125000000000007</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E61)</f>
         <v>12.370833333333332</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F61)</f>
         <v>9.6916666666666664</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>12.6</v>
+        <f>AVERAGE(G6:G61)</f>
+        <v>12.383333333333333</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.34</v>
+        <f>AVERAGE(H6:H61)</f>
+        <v>8.1619047619047613</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9684,32 +9754,32 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B67)</f>
-        <v>75.8</v>
+        <f>MAX(B6:B68)</f>
+        <v>76.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C67)</f>
+        <f>MIN(C6:C68)</f>
         <v>5.4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D68)</f>
         <v>5.8</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E68)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F68)</f>
         <v>6.2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G68)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
+        <f>MIN(H6:H68)</f>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10449,10 +10519,37 @@
       <c r="F29">
         <v>6.2</v>
       </c>
+      <c r="G29">
+        <v>7.4</v>
+      </c>
+      <c r="H29">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B30">
+        <v>76.3</v>
+      </c>
+      <c r="C30">
+        <v>5.9</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
         <v>10</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4E9305-F92F-43D5-9FA1-BB7F7BE4A911}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD909130-2108-44B9-BE36-9D3ED858E0F0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -325,16 +325,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$30</c:f>
+              <c:f>main!$B$6:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -409,6 +412,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,10 +712,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -784,16 +790,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$30</c:f>
+              <c:f>main!$C$6:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -868,6 +877,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,10 +919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -985,16 +997,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$30</c:f>
+              <c:f>main!$E$6:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1066,6 +1081,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +1123,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1183,16 +1201,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$30</c:f>
+              <c:f>main!$G$6:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1264,6 +1285,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,10 +1327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1381,16 +1405,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$30</c:f>
+              <c:f>main!$H$6:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1453,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,10 +1802,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1850,16 +1880,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$30</c:f>
+              <c:f>main!$C$6:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1934,6 +1967,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,10 +2257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2299,16 +2335,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$30</c:f>
+              <c:f>main!$E$6:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2380,6 +2419,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,10 +2710,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2746,16 +2788,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$30</c:f>
+              <c:f>main!$G$6:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2827,6 +2872,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,10 +3190,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3220,16 +3268,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$30</c:f>
+              <c:f>main!$I$6:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3267,6 +3318,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3328,10 +3382,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3406,16 +3460,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$30</c:f>
+              <c:f>main!$J$6:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3489,6 +3546,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3824,10 +3884,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3902,16 +3962,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$30</c:f>
+              <c:f>main!$K$6:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3977,6 +4040,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,10 +4334,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$30</c:f>
+              <c:f>main!$A$6:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4346,16 +4412,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$30</c:f>
+              <c:f>main!$H$6:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4418,6 +4487,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9330,13 +9402,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K30" totalsRowShown="0">
-  <autoFilter ref="A5:K30" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K31" totalsRowShown="0">
+  <autoFilter ref="A5:K31" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9674,7 +9742,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9721,32 +9789,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B61)</f>
-        <v>74.475999999999985</v>
+        <f>AVERAGE(B6:B62)</f>
+        <v>74.542307692307674</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C61)</f>
-        <v>9.3360000000000021</v>
+        <f>AVERAGE(C6:C62)</f>
+        <v>9.1769230769230781</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D61)</f>
-        <v>8.1125000000000007</v>
+        <f>AVERAGE(D6:D62)</f>
+        <v>7.6964285714285712</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E61)</f>
-        <v>12.370833333333332</v>
+        <f>AVERAGE(E6:E62)</f>
+        <v>12.135999999999999</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F61)</f>
-        <v>9.6916666666666664</v>
+        <f>AVERAGE(F6:F62)</f>
+        <v>9.3384615384615373</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G61)</f>
-        <v>12.383333333333333</v>
+        <f>AVERAGE(G6:G62)</f>
+        <v>12.187999999999999</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H61)</f>
-        <v>8.1619047619047613</v>
+        <f>AVERAGE(H6:H62)</f>
+        <v>8.0590909090909086</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9754,31 +9822,31 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B68)</f>
+        <f>MAX(B6:B69)</f>
         <v>76.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C68)</f>
-        <v>5.4</v>
+        <f>MIN(C6:C69)</f>
+        <v>5.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D68)</f>
-        <v>5.8</v>
+        <f>MIN(D6:D69)</f>
+        <v>4.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E68)</f>
+        <f>MIN(E6:E69)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F68)</f>
-        <v>6.2</v>
+        <f>MIN(F6:F69)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G68)</f>
+        <f>MIN(G6:G69)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H68)</f>
+        <f>MIN(H6:H69)</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10545,11 +10613,48 @@
       <c r="C30">
         <v>5.9</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E30">
+        <v>6.5</v>
+      </c>
+      <c r="F30">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G30">
+        <v>7.5</v>
+      </c>
+      <c r="H30">
+        <v>5.9</v>
+      </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B31">
+        <v>76.2</v>
+      </c>
+      <c r="C31">
+        <v>5.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>10</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD909130-2108-44B9-BE36-9D3ED858E0F0}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4254522A-189E-4E4C-AE79-5F0EAA73DB0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -1084,6 +1084,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,6 +2426,9 @@
                 <c:pt idx="24">
                   <c:v>6.5</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3171,8 +3177,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -9402,6 +9408,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K31" totalsRowShown="0">
   <autoFilter ref="A5:K31" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -9742,7 +9752,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9789,31 +9799,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B62)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B62)</f>
         <v>74.542307692307674</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C62)</f>
+        <f t="shared" si="0"/>
         <v>9.1769230769230781</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D62)</f>
+        <f t="shared" si="0"/>
         <v>7.6964285714285712</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E62)</f>
-        <v>12.135999999999999</v>
+        <f t="shared" si="0"/>
+        <v>11.953846153846152</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F62)</f>
+        <f t="shared" si="0"/>
         <v>9.3384615384615373</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G62)</f>
+        <f t="shared" si="0"/>
         <v>12.187999999999999</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H62)</f>
+        <f t="shared" si="0"/>
         <v>8.0590909090909086</v>
       </c>
     </row>
@@ -9826,27 +9836,27 @@
         <v>76.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C69)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C69)</f>
         <v>5.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D69)</f>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E69)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F69)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G69)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H69)</f>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10650,6 +10660,9 @@
       </c>
       <c r="D31" s="2">
         <v>5.6</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
       </c>
       <c r="I31">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4254522A-189E-4E4C-AE79-5F0EAA73DB0A}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D2C6C0-0C7C-493D-85D7-64FDE7DD5A15}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Weight</t>
   </si>
@@ -1292,6 +1292,9 @@
                 <c:pt idx="24">
                   <c:v>7.5</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1486,6 +1489,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,6 +2887,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4496,6 +4505,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9408,10 +9420,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K31" totalsRowShown="0">
   <autoFilter ref="A5:K31" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -9752,7 +9760,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9816,15 +9824,15 @@
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>9.3384615384615373</v>
+        <v>9.1928571428571413</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>12.187999999999999</v>
+        <v>11.923076923076923</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>8.0590909090909086</v>
+        <v>8.0260869565217394</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -10664,11 +10672,25 @@
       <c r="E31">
         <v>7.4</v>
       </c>
+      <c r="F31">
+        <v>7.3</v>
+      </c>
+      <c r="G31">
+        <v>5.3</v>
+      </c>
+      <c r="H31">
+        <v>7.3</v>
+      </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="30:30" x14ac:dyDescent="0.3">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D2C6C0-0C7C-493D-85D7-64FDE7DD5A15}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4791BD40-D73F-4FD1-AAE9-D6955634340F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -247,10 +247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -328,16 +328,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$31</c:f>
+              <c:f>main!$B$6:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -415,6 +418,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,6 +605,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7211108344129716E-2"/>
+          <c:y val="0.15719682767711612"/>
+          <c:w val="0.90189257103831544"/>
+          <c:h val="0.69795987433844164"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Lunch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$18:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$F$18:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9E1-4CB4-8319-D292F3021994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2137095568"/>
+        <c:axId val="2137095088"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2137095568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137095088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2137095088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137095568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -675,10 +1067,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2027590872798544E-2"/>
-          <c:y val="9.907218736145687E-2"/>
+          <c:x val="6.7736989937087363E-2"/>
+          <c:y val="9.6396163858813333E-2"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.76546780884349053"/>
+          <c:h val="0.76814376152965225"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -712,10 +1104,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -793,16 +1185,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$31</c:f>
+              <c:f>main!$C$6:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -880,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,10 +1317,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1000,16 +1398,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$31</c:f>
+              <c:f>main!$E$6:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1087,6 +1488,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1207,16 +1611,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$31</c:f>
+              <c:f>main!$G$6:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1333,10 +1740,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1414,16 +1821,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$31</c:f>
+              <c:f>main!$H$6:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1723,6 +2133,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36799936333548711"/>
+          <c:y val="1.8906734221437061E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1811,10 +2229,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1892,16 +2310,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$31</c:f>
+              <c:f>main!$C$6:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1979,6 +2400,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,9 +2638,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7789168831709599E-2"/>
+          <c:x val="6.5133814048158323E-2"/>
           <c:y val="0.15898940991797661"/>
-          <c:w val="0.90297462817147855"/>
+          <c:w val="0.88772766147933169"/>
           <c:h val="0.71495958934087089"/>
         </c:manualLayout>
       </c:layout>
@@ -2266,10 +2690,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2347,16 +2771,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$31</c:f>
+              <c:f>main!$E$6:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2434,6 +2861,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,10 +3152,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2803,16 +3233,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$31</c:f>
+              <c:f>main!$G$6:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3205,10 +3638,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3286,16 +3719,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$31</c:f>
+              <c:f>main!$I$6:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3336,6 +3772,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3376,7 +3815,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -3384,7 +3823,7 @@
                   <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:schemeClr val="tx2">
                     <a:lumMod val="50000"/>
@@ -3397,10 +3836,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3478,16 +3917,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$31</c:f>
+              <c:f>main!$J$6:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3564,6 +4006,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3899,10 +4344,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3980,16 +4425,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$31</c:f>
+              <c:f>main!$K$6:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4057,6 +4505,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4349,10 +4800,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$31</c:f>
+              <c:f>main!$A$6:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4430,16 +4881,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$31</c:f>
+              <c:f>main!$H$6:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4692,7 +5146,436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6304056132634293E-2"/>
+          <c:y val="0.15807068665648721"/>
+          <c:w val="0.90321658670471683"/>
+          <c:h val="0.71954027778191176"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Breakfast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$18:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$D$18:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FC8-49B1-A015-7B4FEEE1BF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1319217616"/>
+        <c:axId val="1319221456"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1319217616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319221456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1319221456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319217616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5012,6 +5895,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5528,7 +6451,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6044,7 +6967,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6560,7 +7483,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7076,7 +7999,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7592,8 +8515,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7701,6 +8624,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7711,6 +8639,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7742,6 +8675,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8095,8 +9031,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8204,11 +9140,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8219,11 +9150,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8255,9 +9181,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8611,7 +9534,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9168,15 +11123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:rowOff>16584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>322729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9203,16 +11158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>14791</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117998</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418316</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9239,16 +11194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>412375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>98610</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408565</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128419</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9275,16 +11230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>374951</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>150832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9312,15 +11267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>59841</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169431</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9347,16 +11302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>138950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9383,16 +11338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>103095</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>416859</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9417,12 +11372,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431426</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF16A46B-307B-D506-5C5D-DFEBCF2BB06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>416410</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC900005-D475-85C8-C9B2-2E60406442EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K31" totalsRowShown="0">
-  <autoFilter ref="A5:K31" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K32" totalsRowShown="0">
+  <autoFilter ref="A5:K32" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
@@ -9759,8 +11786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9807,20 +11834,20 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B62)</f>
-        <v>74.542307692307674</v>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B63)</f>
+        <v>74.618518518518499</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" si="0"/>
-        <v>9.1769230769230781</v>
+        <v>9.0740740740740744</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="0"/>
-        <v>7.6964285714285712</v>
+        <v>7.71</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>11.953846153846152</v>
+        <v>11.714814814814813</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
@@ -9840,11 +11867,11 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>MAX(B6:B69)</f>
-        <v>76.3</v>
+        <f>MAX(B6:B70)</f>
+        <v>76.599999999999994</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C69)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C70)</f>
         <v>5.2</v>
       </c>
       <c r="D3">
@@ -10687,9 +12714,35 @@
       <c r="J31">
         <v>10</v>
       </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B32">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C32">
+        <v>6.4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="E32">
+        <v>5.5</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4791BD40-D73F-4FD1-AAE9-D6955634340F}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148FC3D7-42E6-47AC-B118-53F3340CD415}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="28680" yWindow="-6480" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -124,7 +124,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
     </dxf>
@@ -247,10 +250,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -331,16 +334,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$32</c:f>
+              <c:f>main!$B$6:$B$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -421,6 +427,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,7 +527,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -656,10 +665,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7211108344129716E-2"/>
-          <c:y val="0.15719682767711612"/>
-          <c:w val="0.90189257103831544"/>
-          <c:h val="0.69795987433844164"/>
+          <c:x val="6.6469816272965873E-2"/>
+          <c:y val="0.1585329969469732"/>
+          <c:w val="0.90297462817147855"/>
+          <c:h val="0.70099140836828866"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -670,11 +679,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$F$5</c:f>
+              <c:f>main!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Post Lunch</c:v>
+                  <c:v>Post Breakfast</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -682,7 +691,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -695,7 +704,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -708,10 +717,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$18:$A$32</c:f>
+              <c:f>main!$A$18:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45475</c:v>
                 </c:pt>
@@ -756,57 +765,66 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$18:$F$32</c:f>
+              <c:f>main!$D$18:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11.1</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.7</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3</c:v>
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,7 +832,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9E1-4CB4-8319-D292F3021994}"/>
+              <c16:uniqueId val="{00000000-0131-442B-8E89-76AE3ED60F37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,11 +845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137095568"/>
-        <c:axId val="2137095088"/>
+        <c:axId val="1922468256"/>
+        <c:axId val="1922465376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2137095568"/>
+        <c:axId val="1922468256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137095088"/>
+        <c:crossAx val="1922465376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -883,10 +901,10 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2137095088"/>
+        <c:axId val="1922465376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -935,7 +953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137095568"/>
+        <c:crossAx val="1922468256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,9 +1086,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.7736989937087363E-2"/>
-          <c:y val="9.6396163858813333E-2"/>
+          <c:y val="8.8368207184494452E-2"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.76814376152965225"/>
+          <c:h val="0.77617171820397113"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1104,10 +1122,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1188,16 +1206,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$32</c:f>
+              <c:f>main!$C$6:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1278,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,10 +1341,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1401,16 +1425,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$32</c:f>
+              <c:f>main!$E$6:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1491,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,10 +1560,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1614,16 +1644,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$32</c:f>
+              <c:f>main!$G$6:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1701,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,10 +1776,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1824,16 +1860,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$32</c:f>
+              <c:f>main!$H$6:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1902,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,10 +2271,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2313,16 +2355,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$32</c:f>
+              <c:f>main!$C$6:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2403,6 +2448,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,10 +2738,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2774,16 +2822,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$32</c:f>
+              <c:f>main!$E$6:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2864,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,9 +3155,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.13834445466465026"/>
+          <c:y val="0.14033389447934172"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.75646067364363345"/>
+          <c:h val="0.74365458816269303"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3152,10 +3206,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3236,16 +3290,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$32</c:f>
+              <c:f>main!$G$6:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3323,6 +3380,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,10 +3698,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3722,16 +3782,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$32</c:f>
+              <c:f>main!$I$6:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3775,6 +3838,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3836,10 +3902,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3920,16 +3986,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$32</c:f>
+              <c:f>main!$J$6:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4009,6 +4078,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4344,10 +4416,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4428,16 +4500,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$32</c:f>
+              <c:f>main!$K$6:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4509,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,9 +4824,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.14163437687197547"/>
+          <c:y val="0.1575590115889127"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.75133641654679184"/>
+          <c:h val="0.72552446841807883"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4800,10 +4878,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$32</c:f>
+              <c:f>main!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4884,16 +4962,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$32</c:f>
+              <c:f>main!$H$6:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4962,6 +5043,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5197,10 +5281,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6304056132634293E-2"/>
-          <c:y val="0.15807068665648721"/>
-          <c:w val="0.90321658670471683"/>
-          <c:h val="0.71954027778191176"/>
+          <c:x val="6.7211108344129716E-2"/>
+          <c:y val="0.15719682767711612"/>
+          <c:w val="0.90189257103831544"/>
+          <c:h val="0.69795987433844164"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5211,11 +5295,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$D$5</c:f>
+              <c:f>main!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Post Breakfast</c:v>
+                  <c:v>Post Lunch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5223,7 +5307,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5236,7 +5320,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -5303,54 +5387,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$18:$D$32</c:f>
+              <c:f>main!$F$18:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.8</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.1</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>7.9</c:v>
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5358,7 +5442,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FC8-49B1-A015-7B4FEEE1BF49}"/>
+              <c16:uniqueId val="{00000000-C9E1-4CB4-8319-D292F3021994}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5371,11 +5455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1319217616"/>
-        <c:axId val="1319221456"/>
+        <c:axId val="2137095568"/>
+        <c:axId val="2137095088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1319217616"/>
+        <c:axId val="2137095568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,7 +5502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319221456"/>
+        <c:crossAx val="2137095088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5427,10 +5511,10 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1319221456"/>
+        <c:axId val="2137095088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5479,7 +5563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319217616"/>
+        <c:crossAx val="2137095568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11202,8 +11286,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>408565</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>128419</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11232,13 +11316,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133912</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>150832</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11274,8 +11358,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>169431</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11340,13 +11424,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>130998</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11375,22 +11459,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>431426</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12439</xdr:rowOff>
+      <xdr:colOff>416410</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF16A46B-307B-D506-5C5D-DFEBCF2BB06F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC900005-D475-85C8-C9B2-2E60406442EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11411,22 +11495,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>416410</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75864</xdr:rowOff>
+      <xdr:colOff>439238</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>130661</xdr:rowOff>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC900005-D475-85C8-C9B2-2E60406442EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6360F5-96FA-B1C8-FDBA-AFB8B7F0F2B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11448,11 +11532,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K32" totalsRowShown="0">
-  <autoFilter ref="A5:K32" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K33" totalsRowShown="0">
+  <autoFilter ref="A5:K33" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight"/>
+    <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E5B64DB2-CAD1-4DC4-923F-5F20775B475A}" name="Morning (07:15)"/>
     <tableColumn id="9" xr3:uid="{8610C2D9-DA3D-495E-A7DA-1A087E914E11}" name="Post Breakfast"/>
     <tableColumn id="4" xr3:uid="{00F66A78-6A41-4945-84A6-A1E12629EBFE}" name="Lunch (12:50)"/>
@@ -11784,24 +11868,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11834,49 +11918,49 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B63)</f>
-        <v>74.618518518518499</v>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B64)</f>
+        <v>74.703571428571422</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" si="0"/>
-        <v>9.0740740740740744</v>
+        <v>8.9428571428571448</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="0"/>
-        <v>7.71</v>
+        <v>7.5218750000000005</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>11.714814814814813</v>
+        <v>11.546428571428569</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>9.1928571428571413</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>11.923076923076923</v>
+        <v>11.662962962962963</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>8.0260869565217394</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <f>MAX(B6:B70)</f>
-        <v>76.599999999999994</v>
+      <c r="B3" s="2">
+        <f>MAX(B6:B71)</f>
+        <v>77</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C70)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C71)</f>
         <v>5.2</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -11892,7 +11976,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -11934,7 +12018,7 @@
       <c r="A6" s="1">
         <v>45463</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>72.400000000000006</v>
       </c>
       <c r="C6">
@@ -11954,7 +12038,7 @@
       <c r="A7" s="1">
         <v>45464</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>71.2</v>
       </c>
       <c r="C7">
@@ -11974,7 +12058,7 @@
       <c r="A8" s="1">
         <v>45465</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>73.400000000000006</v>
       </c>
       <c r="C8">
@@ -11997,7 +12081,7 @@
       <c r="A9" s="1">
         <v>45466</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>72.900000000000006</v>
       </c>
       <c r="C9">
@@ -12023,7 +12107,7 @@
       <c r="A10" s="1">
         <v>45467</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>73.5</v>
       </c>
       <c r="C10">
@@ -12049,7 +12133,7 @@
       <c r="A11" s="1">
         <v>45468</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>73</v>
       </c>
       <c r="C11">
@@ -12075,7 +12159,7 @@
       <c r="A12" s="1">
         <v>45469</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>73.7</v>
       </c>
       <c r="C12">
@@ -12101,7 +12185,7 @@
       <c r="A13" s="1">
         <v>45470</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>74</v>
       </c>
       <c r="C13">
@@ -12127,7 +12211,7 @@
       <c r="A14" s="1">
         <v>45471</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>74.5</v>
       </c>
       <c r="C14">
@@ -12153,7 +12237,7 @@
       <c r="A15" s="1">
         <v>45472</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>75.3</v>
       </c>
       <c r="C15">
@@ -12179,7 +12263,7 @@
       <c r="A16" s="1">
         <v>45473</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>75.099999999999994</v>
       </c>
       <c r="C16">
@@ -12205,7 +12289,7 @@
       <c r="A17" s="1">
         <v>45474</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>74.3</v>
       </c>
       <c r="C17">
@@ -12231,7 +12315,7 @@
       <c r="A18" s="1">
         <v>45475</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>74.7</v>
       </c>
       <c r="C18">
@@ -12266,7 +12350,7 @@
       <c r="A19" s="1">
         <v>45476</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>74.099999999999994</v>
       </c>
       <c r="C19">
@@ -12301,7 +12385,7 @@
       <c r="A20" s="1">
         <v>45477</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>74.7</v>
       </c>
       <c r="C20">
@@ -12336,7 +12420,7 @@
       <c r="A21" s="1">
         <v>45478</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>74.7</v>
       </c>
       <c r="C21">
@@ -12371,7 +12455,7 @@
       <c r="A22" s="1">
         <v>45479</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>75.599999999999994</v>
       </c>
       <c r="C22">
@@ -12407,7 +12491,7 @@
       <c r="A23" s="1">
         <v>45480</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>75.599999999999994</v>
       </c>
       <c r="C23">
@@ -12442,7 +12526,7 @@
       <c r="A24" s="1">
         <v>45481</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>75</v>
       </c>
       <c r="C24">
@@ -12477,7 +12561,7 @@
       <c r="A25" s="1">
         <v>45482</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>75.5</v>
       </c>
       <c r="C25">
@@ -12512,7 +12596,7 @@
       <c r="A26" s="1">
         <v>45483</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>75.8</v>
       </c>
       <c r="C26">
@@ -12547,7 +12631,7 @@
       <c r="A27" s="1">
         <v>45484</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>75.5</v>
       </c>
       <c r="C27">
@@ -12582,7 +12666,7 @@
       <c r="A28" s="1">
         <v>45485</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>75.599999999999994</v>
       </c>
       <c r="C28">
@@ -12617,7 +12701,7 @@
       <c r="A29" s="1">
         <v>45486</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>75.5</v>
       </c>
       <c r="C29">
@@ -12652,7 +12736,7 @@
       <c r="A30" s="1">
         <v>45487</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>76.3</v>
       </c>
       <c r="C30">
@@ -12687,7 +12771,7 @@
       <c r="A31" s="1">
         <v>45488</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>76.2</v>
       </c>
       <c r="C31">
@@ -12722,7 +12806,7 @@
       <c r="A32" s="1">
         <v>45489</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>76.599999999999994</v>
       </c>
       <c r="C32">
@@ -12734,20 +12818,55 @@
       <c r="E32">
         <v>5.5</v>
       </c>
+      <c r="F32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H32">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
         <v>10</v>
       </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B33" s="2">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>5.4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD52" t="s">
+    <row r="49" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD49" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148FC3D7-42E6-47AC-B118-53F3340CD415}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF93448-2275-468D-9FD2-1F99F1F20828}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6480" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1738,6 +1738,9 @@
                 <c:pt idx="26">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1944,6 +1947,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,6 +3389,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5047,6 +5056,9 @@
                 <c:pt idx="26">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5126,6 +5138,7 @@
         <c:axId val="1875530239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11870,8 +11883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11935,15 +11948,15 @@
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>11.662962962962963</v>
+        <v>11.392857142857142</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>7.875</v>
+        <v>7.8039999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -11972,7 +11985,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -12852,6 +12865,15 @@
       </c>
       <c r="E33">
         <v>7</v>
+      </c>
+      <c r="F33">
+        <v>7.6</v>
+      </c>
+      <c r="G33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H33">
+        <v>6.1</v>
       </c>
       <c r="I33">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF93448-2275-468D-9FD2-1F99F1F20828}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10171EA-D638-45B0-9902-71FC4B314247}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Weight</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Post Lunch</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -250,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -337,16 +340,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$33</c:f>
+              <c:f>main!$B$6:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -430,6 +436,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,7 +536,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1122,10 +1131,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1209,16 +1218,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$33</c:f>
+              <c:f>main!$C$6:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1302,6 +1314,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,10 +1356,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1428,16 +1443,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$33</c:f>
+              <c:f>main!$E$6:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1560,10 +1578,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1647,16 +1665,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$33</c:f>
+              <c:f>main!$G$6:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1779,10 +1800,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1866,16 +1887,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$33</c:f>
+              <c:f>main!$H$6:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2277,10 +2301,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2364,16 +2388,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$33</c:f>
+              <c:f>main!$C$6:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2457,6 +2484,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,10 +2774,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2831,16 +2861,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$33</c:f>
+              <c:f>main!$E$6:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3212,10 +3245,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3299,16 +3332,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$33</c:f>
+              <c:f>main!$G$6:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3707,10 +3743,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3794,16 +3830,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$33</c:f>
+              <c:f>main!$I$6:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3850,6 +3889,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3911,10 +3953,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3998,16 +4040,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$33</c:f>
+              <c:f>main!$J$6:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4090,6 +4135,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4425,10 +4473,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4512,16 +4560,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$33</c:f>
+              <c:f>main!$K$6:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4596,6 +4647,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4887,10 +4941,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$33</c:f>
+              <c:f>main!$A$6:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4974,16 +5028,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$33</c:f>
+              <c:f>main!$H$6:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -11545,8 +11602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K33" totalsRowShown="0">
-  <autoFilter ref="A5:K33" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K34" totalsRowShown="0">
+  <autoFilter ref="A5:K34" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -11884,21 +11941,21 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11931,31 +11988,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B64)</f>
-        <v>74.703571428571422</v>
+        <f>AVERAGE(B6:B65)</f>
+        <v>74.793103448275858</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9428571428571448</v>
+        <f>AVERAGE(C6:C65)</f>
+        <v>8.7862068965517253</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.5218750000000005</v>
+        <f>AVERAGE(D6:D65)</f>
+        <v>7.3441176470588241</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E65)</f>
         <v>11.546428571428569</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F65)</f>
         <v>9.1</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6:G65)</f>
         <v>11.392857142857142</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H65)</f>
         <v>7.8039999999999994</v>
       </c>
     </row>
@@ -11964,31 +12021,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B71)</f>
-        <v>77</v>
+        <f>MAX(B6:B72)</f>
+        <v>77.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C71)</f>
-        <v>5.2</v>
+        <f>MIN(C6:C72)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>4.7</v>
+        <f>MIN(D6:D72)</f>
+        <v>4.5</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E72)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F72)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G72)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H72)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -12359,7 +12416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45476</v>
       </c>
@@ -12394,7 +12451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45477</v>
       </c>
@@ -12850,7 +12907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45490</v>
       </c>
@@ -12881,9 +12938,35 @@
       <c r="J33">
         <v>10</v>
       </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H36" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B34" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="C34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10171EA-D638-45B0-9902-71FC4B314247}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1DC4A9-2EFD-48A6-A8DC-3460E50479ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -1539,6 +1539,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,6 +2960,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11601,6 +11607,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K34" totalsRowShown="0">
   <autoFilter ref="A5:K34" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -11941,7 +11951,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11988,31 +11998,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B65)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B65)</f>
         <v>74.793103448275858</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C65)</f>
+        <f t="shared" si="0"/>
         <v>8.7862068965517253</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D65)</f>
+        <f t="shared" si="0"/>
         <v>7.3441176470588241</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E65)</f>
-        <v>11.546428571428569</v>
+        <f t="shared" si="0"/>
+        <v>11.358620689655172</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F65)</f>
+        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G65)</f>
+        <f t="shared" si="0"/>
         <v>11.392857142857142</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H65)</f>
+        <f t="shared" si="0"/>
         <v>7.8039999999999994</v>
       </c>
     </row>
@@ -12025,27 +12035,27 @@
         <v>77.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C72)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C72)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D72)</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E72)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F72)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G72)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H72)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -12954,6 +12964,9 @@
       </c>
       <c r="D34" s="2">
         <v>4.5</v>
+      </c>
+      <c r="E34">
+        <v>6.1</v>
       </c>
       <c r="I34">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1DC4A9-2EFD-48A6-A8DC-3460E50479ED}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F64361A2-0D67-4AA0-8BE0-09E86F01F1DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -343,16 +343,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$34</c:f>
+              <c:f>main!$B$6:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -439,6 +442,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,10 +1137,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1221,16 +1227,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$34</c:f>
+              <c:f>main!$C$6:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1317,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,10 +1368,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1446,16 +1458,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$34</c:f>
+              <c:f>main!$E$6:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1581,10 +1596,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1671,16 +1686,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$34</c:f>
+              <c:f>main!$G$6:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1764,6 +1782,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,10 +1824,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1893,16 +1914,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$34</c:f>
+              <c:f>main!$H$6:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1977,6 +2001,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,10 +2331,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2394,16 +2421,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$34</c:f>
+              <c:f>main!$C$6:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2490,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,10 +2810,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2867,16 +2900,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$34</c:f>
+              <c:f>main!$E$6:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3251,10 +3287,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3341,16 +3377,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$34</c:f>
+              <c:f>main!$G$6:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3434,6 +3473,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3749,10 +3791,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3839,16 +3881,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$34</c:f>
+              <c:f>main!$I$6:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3898,6 +3943,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3959,10 +4007,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4049,16 +4097,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$34</c:f>
+              <c:f>main!$J$6:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4145,6 +4196,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4311,7 +4365,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4479,10 +4533,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4569,16 +4623,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$34</c:f>
+              <c:f>main!$K$6:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4655,6 +4712,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -4947,10 +5007,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$34</c:f>
+              <c:f>main!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5037,16 +5097,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$34</c:f>
+              <c:f>main!$H$6:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5121,6 +5184,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,13 +11495,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>59841</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>134695</xdr:rowOff>
+      <xdr:rowOff>134694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11607,13 +11673,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K34" totalsRowShown="0">
-  <autoFilter ref="A5:K34" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K35" totalsRowShown="0">
+  <autoFilter ref="A5:K35" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -11950,8 +12012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11998,32 +12060,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B65)</f>
-        <v>74.793103448275858</v>
+        <f>AVERAGE(B6:B66)</f>
+        <v>74.86</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7862068965517253</v>
+        <f>AVERAGE(C6:C66)</f>
+        <v>8.663333333333334</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D66)</f>
         <v>7.3441176470588241</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E66)</f>
         <v>11.358620689655172</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1</v>
+        <f>AVERAGE(F6:F66)</f>
+        <v>9.0176470588235276</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>11.392857142857142</v>
+        <f>AVERAGE(G6:G66)</f>
+        <v>11.248275862068965</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8039999999999994</v>
+        <f>AVERAGE(H6:H66)</f>
+        <v>7.7999999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12031,31 +12093,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B72)</f>
+        <f>MAX(B6:B73)</f>
         <v>77.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C72)</f>
+        <f>MIN(C6:C73)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D73)</f>
         <v>4.5</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E73)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F73)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G73)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H73)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -12968,18 +13030,48 @@
       <c r="E34">
         <v>6.1</v>
       </c>
+      <c r="F34">
+        <v>7.7</v>
+      </c>
+      <c r="G34">
+        <v>7.2</v>
+      </c>
+      <c r="H34">
+        <v>7.7</v>
+      </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B35" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="C35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F64361A2-0D67-4AA0-8BE0-09E86F01F1DD}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49D7095-5173-4329-A0FA-D3C11F6A9B28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -346,16 +346,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$35</c:f>
+              <c:f>main!$B$6:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -445,6 +448,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,10 +1143,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1230,16 +1236,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$35</c:f>
+              <c:f>main!$C$6:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1329,6 +1338,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,10 +1380,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1461,16 +1473,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$35</c:f>
+              <c:f>main!$E$6:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1557,6 +1572,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,10 +1614,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1689,16 +1707,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$35</c:f>
+              <c:f>main!$G$6:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1785,6 +1806,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,10 +1848,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1917,16 +1941,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$35</c:f>
+              <c:f>main!$H$6:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2004,6 +2031,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,10 +2361,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2424,16 +2454,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$35</c:f>
+              <c:f>main!$C$6:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2523,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,10 +2846,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2903,16 +2939,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$35</c:f>
+              <c:f>main!$E$6:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2999,6 +3038,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,10 +3329,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3380,16 +3422,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$35</c:f>
+              <c:f>main!$G$6:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3476,6 +3521,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3791,10 +3839,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3884,16 +3932,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$35</c:f>
+              <c:f>main!$I$6:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3946,6 +3997,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4007,10 +4061,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4100,16 +4154,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$35</c:f>
+              <c:f>main!$J$6:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4198,6 +4255,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4533,10 +4593,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4626,16 +4686,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$35</c:f>
+              <c:f>main!$K$6:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4716,6 +4779,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5007,10 +5073,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$35</c:f>
+              <c:f>main!$A$6:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5100,16 +5166,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$35</c:f>
+              <c:f>main!$H$6:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5187,6 +5256,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11673,9 +11745,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K35" totalsRowShown="0">
-  <autoFilter ref="A5:K35" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K36" totalsRowShown="0">
+  <autoFilter ref="A5:K36" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12012,8 +12088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH47" sqref="AH47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12060,32 +12136,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B66)</f>
-        <v>74.86</v>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B67)</f>
+        <v>74.932258064516134</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C66)</f>
-        <v>8.663333333333334</v>
+        <f t="shared" si="0"/>
+        <v>8.5354838709677434</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D66)</f>
-        <v>7.3441176470588241</v>
+        <f t="shared" si="0"/>
+        <v>7.0131578947368434</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E66)</f>
-        <v>11.358620689655172</v>
+        <f t="shared" si="0"/>
+        <v>11.156666666666666</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F66)</f>
-        <v>9.0176470588235276</v>
+        <f t="shared" si="0"/>
+        <v>9.0555555555555536</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G66)</f>
-        <v>11.248275862068965</v>
+        <f t="shared" si="0"/>
+        <v>11.036666666666665</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H66)</f>
-        <v>7.7999999999999989</v>
+        <f t="shared" si="0"/>
+        <v>7.7518518518518515</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12093,31 +12169,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B73)</f>
+        <f>MAX(B6:B74)</f>
         <v>77.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C73)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C74)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D73)</f>
-        <v>4.5</v>
+        <f t="shared" si="1"/>
+        <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E73)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F73)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G73)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H73)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13059,19 +13135,56 @@
       <c r="C35">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E35">
+        <v>5.3</v>
+      </c>
+      <c r="F35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H35">
+        <v>6.5</v>
+      </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
         <v>8</v>
       </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B36" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C36">
+        <v>4.7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49D7095-5173-4329-A0FA-D3C11F6A9B28}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80BDD965-3920-4CAB-877C-52EDF54FFA94}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1576,6 +1576,9 @@
                 <c:pt idx="29">
                   <c:v>5.3</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1809,6 +1812,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,6 +3048,9 @@
                 <c:pt idx="29">
                   <c:v>5.3</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3524,6 +3533,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,9 +5508,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.7211108344129716E-2"/>
-          <c:y val="0.15719682767711612"/>
+          <c:y val="0.19417824593771857"/>
           <c:w val="0.90189257103831544"/>
-          <c:h val="0.69795987433844164"/>
+          <c:h val="0.66837480206187605"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -11745,10 +11757,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K36" totalsRowShown="0">
   <autoFilter ref="A5:K36" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -12088,8 +12096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12149,15 +12157,15 @@
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>11.156666666666666</v>
+        <v>10.92258064516129</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>9.0555555555555536</v>
+        <v>8.9421052631578934</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>11.036666666666665</v>
+        <v>10.835483870967741</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
@@ -12182,7 +12190,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
@@ -13172,6 +13180,15 @@
       </c>
       <c r="D36" s="2">
         <v>3.9</v>
+      </c>
+      <c r="E36">
+        <v>3.9</v>
+      </c>
+      <c r="F36">
+        <v>6.9</v>
+      </c>
+      <c r="G36">
+        <v>4.8</v>
       </c>
       <c r="I36">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80BDD965-3920-4CAB-877C-52EDF54FFA94}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9F5806-861F-4618-8F89-8C6FD4484308}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -2040,6 +2040,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5271,6 +5274,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12096,8 +12102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12169,7 +12175,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>7.7518518518518515</v>
+        <v>7.7392857142857139</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13189,6 +13195,9 @@
       </c>
       <c r="G36">
         <v>4.8</v>
+      </c>
+      <c r="H36">
+        <v>7.4</v>
       </c>
       <c r="I36">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="529" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9F5806-861F-4618-8F89-8C6FD4484308}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121BF54C-DB8E-4D2B-8609-0AE01D24D6BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="12"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -349,16 +349,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$36</c:f>
+              <c:f>main!$B$6:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -451,6 +457,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,10 +1155,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1239,16 +1251,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$36</c:f>
+              <c:f>main!$C$6:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1341,6 +1359,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,10 +1404,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1476,16 +1500,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$36</c:f>
+              <c:f>main!$E$6:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1578,6 +1608,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,10 +1650,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1713,16 +1746,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$36</c:f>
+              <c:f>main!$G$6:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1815,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,10 +1896,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1950,16 +1992,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$36</c:f>
+              <c:f>main!$H$6:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2370,10 +2418,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2466,16 +2514,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$36</c:f>
+              <c:f>main!$C$6:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2568,6 +2622,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,10 +2915,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2951,16 +3011,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$36</c:f>
+              <c:f>main!$E$6:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3053,6 +3119,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,10 +3410,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3437,16 +3506,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$36</c:f>
+              <c:f>main!$G$6:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3539,6 +3614,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,10 +3932,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3950,16 +4028,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$36</c:f>
+              <c:f>main!$I$6:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4015,6 +4099,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4076,10 +4163,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4172,16 +4259,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$36</c:f>
+              <c:f>main!$J$6:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4273,6 +4366,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4608,10 +4704,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4704,16 +4800,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$36</c:f>
+              <c:f>main!$K$6:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4797,6 +4899,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5088,10 +5193,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$36</c:f>
+              <c:f>main!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5184,16 +5289,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$36</c:f>
+              <c:f>main!$H$6:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -11764,8 +11875,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K36" totalsRowShown="0">
-  <autoFilter ref="A5:K36" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K38" totalsRowShown="0">
+  <autoFilter ref="A5:K38" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12102,8 +12213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12150,31 +12261,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B67)</f>
-        <v>74.932258064516134</v>
+        <f>AVERAGE(B6:B69)</f>
+        <v>75.118181818181824</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5354838709677434</v>
+        <f>AVERAGE(C6:C69)</f>
+        <v>8.3181818181818201</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0131578947368434</v>
+        <f>AVERAGE(D6:D69)</f>
+        <v>6.8785714285714308</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.92258064516129</v>
+        <f>AVERAGE(E6:E69)</f>
+        <v>10.7</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9421052631578934</v>
+        <f>AVERAGE(F6:F69)</f>
+        <v>9.0299999999999976</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.835483870967741</v>
+        <f>AVERAGE(G6:G69)</f>
+        <v>10.637499999999999</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H69)</f>
         <v>7.7392857142857139</v>
       </c>
     </row>
@@ -12183,31 +12294,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B74)</f>
-        <v>77.3</v>
+        <f>MAX(B6:B76)</f>
+        <v>78.2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C74)</f>
-        <v>4.4000000000000004</v>
+        <f>MIN(C6:C76)</f>
+        <v>4.3</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D76)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
+        <f>MIN(E6:E76)</f>
+        <v>3.8</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F76)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G76)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H76)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13205,12 +13316,58 @@
       <c r="J36">
         <v>8</v>
       </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B37" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="C37">
+        <v>4.3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E37">
+        <v>3.8</v>
+      </c>
+      <c r="F37">
+        <v>10.7</v>
+      </c>
+      <c r="G37">
+        <v>4.5</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B38" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="C38">
+        <v>5.6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121BF54C-DB8E-4D2B-8609-0AE01D24D6BC}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9477701C-655B-47DC-8A07-D68A77A23109}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -1611,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,6 +3125,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12213,8 +12219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12261,31 +12267,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B69)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B69)</f>
         <v>75.118181818181824</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C69)</f>
+        <f t="shared" si="0"/>
         <v>8.3181818181818201</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D69)</f>
+        <f t="shared" si="0"/>
         <v>6.8785714285714308</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E69)</f>
-        <v>10.7</v>
+        <f t="shared" si="0"/>
+        <v>10.551515151515151</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F69)</f>
-        <v>9.0299999999999976</v>
+        <f t="shared" si="0"/>
+        <v>8.9571428571428555</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G69)</f>
+        <f t="shared" si="0"/>
         <v>10.637499999999999</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H69)</f>
+        <f t="shared" si="0"/>
         <v>7.7392857142857139</v>
       </c>
     </row>
@@ -12298,27 +12304,27 @@
         <v>78.2</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C76)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C76)</f>
         <v>4.3</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D76)</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E76)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F76)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G76)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H76)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13361,6 +13367,12 @@
       </c>
       <c r="D38" s="2">
         <v>5.4</v>
+      </c>
+      <c r="E38">
+        <v>5.8</v>
+      </c>
+      <c r="F38">
+        <v>7.5</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9477701C-655B-47DC-8A07-D68A77A23109}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB3C792-8B49-40E2-A894-B9D241628597}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -2094,6 +2094,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,6 +5397,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11880,6 +11886,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K38" totalsRowShown="0">
   <autoFilter ref="A5:K38" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -12219,8 +12229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12292,7 +12302,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>7.7392857142857139</v>
+        <v>7.6620689655172409</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13347,6 +13357,9 @@
       </c>
       <c r="G37">
         <v>4.5</v>
+      </c>
+      <c r="H37">
+        <v>5.5</v>
       </c>
       <c r="I37">
         <v>10</v>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB3C792-8B49-40E2-A894-B9D241628597}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2375992-7E36-4546-B84A-BD3528EDD999}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -355,16 +355,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$38</c:f>
+              <c:f>main!$B$6:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -463,6 +466,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,10 +1161,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1257,16 +1263,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$38</c:f>
+              <c:f>main!$C$6:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1365,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,10 +1416,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1506,16 +1518,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$38</c:f>
+              <c:f>main!$E$6:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1653,10 +1668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1755,16 +1770,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$38</c:f>
+              <c:f>main!$G$6:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1860,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,10 +1920,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2001,16 +2022,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$38</c:f>
+              <c:f>main!$H$6:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2097,6 +2121,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,10 +2451,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2526,16 +2553,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$38</c:f>
+              <c:f>main!$C$6:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2634,6 +2664,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,10 +2954,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3023,16 +3056,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$38</c:f>
+              <c:f>main!$E$6:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3419,10 +3455,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3521,16 +3557,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$38</c:f>
+              <c:f>main!$G$6:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3626,6 +3665,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,10 +3983,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4043,16 +4085,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$38</c:f>
+              <c:f>main!$I$6:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4111,6 +4156,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4172,10 +4220,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4274,16 +4322,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$38</c:f>
+              <c:f>main!$J$6:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4378,6 +4429,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4713,10 +4767,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4815,16 +4869,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$38</c:f>
+              <c:f>main!$K$6:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4910,6 +4967,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5202,10 +5262,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$38</c:f>
+              <c:f>main!$A$6:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5304,16 +5364,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$38</c:f>
+              <c:f>main!$H$6:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5400,6 +5463,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11886,13 +11952,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K38" totalsRowShown="0">
-  <autoFilter ref="A5:K38" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K39" totalsRowShown="0">
+  <autoFilter ref="A5:K39" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12229,8 +12291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12277,32 +12339,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B69)</f>
-        <v>75.118181818181824</v>
+        <f>AVERAGE(B6:B70)</f>
+        <v>75.170588235294119</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3181818181818201</v>
+        <f>AVERAGE(C6:C70)</f>
+        <v>8.2147058823529431</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D6:D70)</f>
         <v>6.8785714285714308</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E70)</f>
         <v>10.551515151515151</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F70)</f>
         <v>8.9571428571428555</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.637499999999999</v>
+        <f>AVERAGE(G6:G70)</f>
+        <v>10.445454545454545</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6620689655172409</v>
+        <f>AVERAGE(H6:H70)</f>
+        <v>7.56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12310,31 +12372,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B76)</f>
+        <f>MAX(B6:B77)</f>
         <v>78.2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C76)</f>
+        <f>MIN(C6:C77)</f>
         <v>4.3</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D77)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E77)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F77)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G77)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H77)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13367,6 +13429,9 @@
       <c r="J37">
         <v>8</v>
       </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -13387,12 +13452,36 @@
       <c r="F38">
         <v>7.5</v>
       </c>
+      <c r="G38">
+        <v>4.3</v>
+      </c>
+      <c r="H38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B39" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C39">
+        <v>4.8</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2375992-7E36-4546-B84A-BD3528EDD999}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A64F68E-EFAB-4DC9-B042-29FF314C710C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1629,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11952,6 +11958,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K39" totalsRowShown="0">
   <autoFilter ref="A5:K39" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -12291,8 +12301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12339,31 +12349,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B70)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B70)</f>
         <v>75.170588235294119</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C70)</f>
+        <f t="shared" si="0"/>
         <v>8.2147058823529431</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D70)</f>
-        <v>6.8785714285714308</v>
+        <f t="shared" si="0"/>
+        <v>6.8704545454545469</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E70)</f>
-        <v>10.551515151515151</v>
+        <f t="shared" si="0"/>
+        <v>10.452941176470588</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F70)</f>
+        <f t="shared" si="0"/>
         <v>8.9571428571428555</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G70)</f>
+        <f t="shared" si="0"/>
         <v>10.445454545454545</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H70)</f>
+        <f t="shared" si="0"/>
         <v>7.56</v>
       </c>
     </row>
@@ -12376,27 +12386,27 @@
         <v>78.2</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C77)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C77)</f>
         <v>4.3</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D77)</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E77)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F77)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G77)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H77)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13475,7 +13485,12 @@
       <c r="C39">
         <v>4.8</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E39">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A64F68E-EFAB-4DC9-B042-29FF314C710C}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E5E19C-7208-46BF-B34D-04F729DC6736}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -358,16 +358,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$39</c:f>
+              <c:f>main!$B$6:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -469,6 +472,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,10 +1167,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1266,16 +1272,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$39</c:f>
+              <c:f>main!$C$6:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1377,6 +1386,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,10 +1428,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1521,16 +1533,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$39</c:f>
+              <c:f>main!$E$6:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1671,10 +1686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1776,16 +1791,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$39</c:f>
+              <c:f>main!$G$6:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1884,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,10 +1944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2028,16 +2049,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$39</c:f>
+              <c:f>main!$H$6:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2127,6 +2151,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,10 +2481,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2559,16 +2586,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$39</c:f>
+              <c:f>main!$C$6:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2670,6 +2700,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,10 +2990,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3062,16 +3095,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$39</c:f>
+              <c:f>main!$E$6:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3461,10 +3497,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3566,16 +3602,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$39</c:f>
+              <c:f>main!$G$6:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3674,6 +3713,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,10 +4031,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4094,16 +4136,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$39</c:f>
+              <c:f>main!$I$6:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4165,6 +4210,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4226,10 +4274,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4331,16 +4379,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$39</c:f>
+              <c:f>main!$J$6:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4438,6 +4489,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4773,10 +4827,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4878,16 +4932,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$39</c:f>
+              <c:f>main!$K$6:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4976,6 +5033,12 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5268,10 +5331,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$39</c:f>
+              <c:f>main!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5373,16 +5436,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$39</c:f>
+              <c:f>main!$H$6:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5472,6 +5538,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,13 +12027,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K39" totalsRowShown="0">
-  <autoFilter ref="A5:K39" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K40" totalsRowShown="0">
+  <autoFilter ref="A5:K40" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12301,8 +12366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12349,32 +12414,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B70)</f>
-        <v>75.170588235294119</v>
+        <f>AVERAGE(B6:B71)</f>
+        <v>75.2457142857143</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2147058823529431</v>
+        <f>AVERAGE(C6:C71)</f>
+        <v>8.1057142857142868</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8704545454545469</v>
+        <f>AVERAGE(D6:D71)</f>
+        <v>6.7630434782608715</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E71)</f>
         <v>10.452941176470588</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9571428571428555</v>
+        <f>AVERAGE(F6:F71)</f>
+        <v>8.8181818181818166</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>10.445454545454545</v>
+        <f>AVERAGE(G6:G71)</f>
+        <v>10.341176470588234</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.56</v>
+        <f>AVERAGE(H6:H71)</f>
+        <v>7.5096774193548379</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12382,31 +12447,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B77)</f>
+        <f>MAX(B6:B78)</f>
         <v>78.2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C77)</f>
+        <f>MIN(C6:C78)</f>
         <v>4.3</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D78)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E78)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F78)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G78)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H78)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13474,6 +13539,9 @@
       <c r="J38">
         <v>8</v>
       </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -13491,12 +13559,44 @@
       <c r="E39">
         <v>7.2</v>
       </c>
+      <c r="F39">
+        <v>5.9</v>
+      </c>
+      <c r="G39">
+        <v>6.9</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B40" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="C40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E5E19C-7208-46BF-B34D-04F729DC6736}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1764A098-200E-40F5-93D1-40C83349CCBD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -361,16 +361,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$40</c:f>
+              <c:f>main!$B$6:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -475,6 +478,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,10 +1173,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1275,16 +1281,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$40</c:f>
+              <c:f>main!$C$6:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1389,6 +1398,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,10 +1440,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1536,16 +1548,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$40</c:f>
+              <c:f>main!$E$6:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1646,6 +1661,9 @@
                   <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1686,10 +1704,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1794,16 +1812,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$40</c:f>
+              <c:f>main!$G$6:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1905,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,10 +1968,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2052,16 +2076,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$40</c:f>
+              <c:f>main!$H$6:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2154,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,10 +2511,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2589,16 +2619,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$40</c:f>
+              <c:f>main!$C$6:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2703,6 +2736,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,10 +3026,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3098,16 +3134,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$40</c:f>
+              <c:f>main!$E$6:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3208,6 +3247,9 @@
                   <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3497,10 +3539,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3605,16 +3647,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$40</c:f>
+              <c:f>main!$G$6:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3716,6 +3761,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,10 +4079,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4139,16 +4187,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$40</c:f>
+              <c:f>main!$I$6:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4213,6 +4264,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4274,10 +4328,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4382,16 +4436,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$40</c:f>
+              <c:f>main!$J$6:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4492,6 +4549,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4827,10 +4887,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4935,16 +4995,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$40</c:f>
+              <c:f>main!$K$6:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5039,6 +5102,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5331,10 +5397,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$40</c:f>
+              <c:f>main!$A$6:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5439,16 +5505,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$40</c:f>
+              <c:f>main!$H$6:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5541,6 +5610,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12028,8 +12100,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K40" totalsRowShown="0">
-  <autoFilter ref="A5:K40" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K41" totalsRowShown="0">
+  <autoFilter ref="A5:K41" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12367,7 +12439,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12414,32 +12486,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B71)</f>
-        <v>75.2457142857143</v>
+        <f>AVERAGE(B6:B72)</f>
+        <v>75.302777777777791</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C71)</f>
-        <v>8.1057142857142868</v>
+        <f>AVERAGE(C6:C72)</f>
+        <v>8.0277777777777786</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D71)</f>
+        <f>AVERAGE(D6:D72)</f>
         <v>6.7630434782608715</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E71)</f>
-        <v>10.452941176470588</v>
+        <f>AVERAGE(E6:E72)</f>
+        <v>10.36</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F71)</f>
-        <v>8.8181818181818166</v>
+        <f>AVERAGE(F6:F72)</f>
+        <v>8.8173913043478258</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G71)</f>
-        <v>10.341176470588234</v>
+        <f>AVERAGE(G6:G72)</f>
+        <v>10.154285714285713</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H71)</f>
-        <v>7.5096774193548379</v>
+        <f>AVERAGE(H6:H72)</f>
+        <v>7.4312499999999995</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12447,31 +12519,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B78)</f>
+        <f>MAX(B6:B79)</f>
         <v>78.2</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C78)</f>
+        <f>MIN(C6:C79)</f>
         <v>4.3</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D78)</f>
+        <f>MIN(D6:D79)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E78)</f>
+        <f>MIN(E6:E79)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F78)</f>
+        <f>MIN(F6:F79)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G78)</f>
-        <v>4.0999999999999996</v>
+        <f>MIN(G6:G79)</f>
+        <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H78)</f>
+        <f>MIN(H6:H79)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13591,12 +13663,45 @@
       <c r="D40" s="2">
         <v>4.4000000000000004</v>
       </c>
+      <c r="E40">
+        <v>7.2</v>
+      </c>
+      <c r="F40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G40">
+        <v>3.8</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B41" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="C41">
+        <v>5.3</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1764A098-200E-40F5-93D1-40C83349CCBD}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349E85A1-BC47-4D79-B919-24917D436AFF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -253,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -364,16 +364,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$41</c:f>
+              <c:f>main!$B$6:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -481,6 +484,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,10 +1179,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1284,16 +1290,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$41</c:f>
+              <c:f>main!$C$6:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1401,6 +1410,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,10 +1452,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1551,16 +1563,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$41</c:f>
+              <c:f>main!$E$6:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1665,6 +1680,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,10 +1722,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1815,16 +1833,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$41</c:f>
+              <c:f>main!$G$6:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1929,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,10 +1992,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2079,16 +2103,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$41</c:f>
+              <c:f>main!$H$6:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2184,6 +2211,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,10 +2541,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2622,16 +2652,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$41</c:f>
+              <c:f>main!$C$6:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2739,6 +2772,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,10 +3062,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3137,16 +3173,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$41</c:f>
+              <c:f>main!$E$6:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3251,6 +3290,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,10 +3581,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3650,16 +3692,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$41</c:f>
+              <c:f>main!$G$6:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3764,6 +3809,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,10 +4127,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4190,16 +4238,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$41</c:f>
+              <c:f>main!$I$6:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4267,6 +4318,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4328,10 +4385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4439,16 +4496,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$41</c:f>
+              <c:f>main!$J$6:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4552,6 +4612,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4700,8 +4766,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8013529438643883E-2"/>
-          <c:y val="0.63105343408093961"/>
+          <c:x val="0.5604549599399028"/>
+          <c:y val="0.1821350451658513"/>
           <c:w val="0.40019771600807208"/>
           <c:h val="9.2584320532504344E-2"/>
         </c:manualLayout>
@@ -4887,10 +4953,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4998,16 +5064,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$41</c:f>
+              <c:f>main!$K$6:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5105,6 +5174,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5397,10 +5469,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$41</c:f>
+              <c:f>main!$A$6:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5508,16 +5580,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$41</c:f>
+              <c:f>main!$H$6:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5613,6 +5688,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12100,8 +12178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K41" totalsRowShown="0">
-  <autoFilter ref="A5:K41" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K42" totalsRowShown="0">
+  <autoFilter ref="A5:K42" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -12439,7 +12517,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12486,32 +12564,32 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B72)</f>
-        <v>75.302777777777791</v>
+        <f>AVERAGE(B6:B73)</f>
+        <v>75.383783783783798</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C72)</f>
-        <v>8.0277777777777786</v>
+        <f>AVERAGE(C6:C73)</f>
+        <v>7.924324324324326</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D72)</f>
-        <v>6.7630434782608715</v>
+        <f>AVERAGE(D6:D73)</f>
+        <v>6.6820000000000013</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E72)</f>
-        <v>10.36</v>
+        <f>AVERAGE(E6:E73)</f>
+        <v>10.263888888888888</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F72)</f>
-        <v>8.8173913043478258</v>
+        <f>AVERAGE(F6:F73)</f>
+        <v>8.8083333333333318</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G72)</f>
-        <v>10.154285714285713</v>
+        <f>AVERAGE(G6:G73)</f>
+        <v>9.9888888888888872</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H72)</f>
-        <v>7.4312499999999995</v>
+        <f>AVERAGE(H6:H73)</f>
+        <v>7.3606060606060595</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12519,31 +12597,31 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B79)</f>
-        <v>78.2</v>
+        <f>MAX(B6:B80)</f>
+        <v>78.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C79)</f>
-        <v>4.3</v>
+        <f>MIN(C6:C80)</f>
+        <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D79)</f>
+        <f>MIN(D6:D80)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E79)</f>
+        <f>MIN(E6:E80)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F79)</f>
+        <f>MIN(F6:F80)</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G79)</f>
+        <f>MIN(G6:G80)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H79)</f>
+        <f>MIN(H6:H80)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13695,13 +13773,56 @@
       <c r="C41">
         <v>5.3</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>6.9</v>
+      </c>
+      <c r="F41">
+        <v>8.6</v>
+      </c>
+      <c r="G41">
+        <v>4.2</v>
+      </c>
+      <c r="H41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B42" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="C42">
+        <v>4.2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349E85A1-BC47-4D79-B919-24917D436AFF}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CBD42A-1BFB-4C11-B087-AA3946C19ABB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Weight</t>
   </si>
   <si>
     <t xml:space="preserve">Date </t>
-  </si>
-  <si>
-    <t>Sleep</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -253,10 +250,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -367,16 +364,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$42</c:f>
+              <c:f>main!$B$6:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -487,6 +487,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,401 +674,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.1585329969469732"/>
-          <c:w val="0.90297462817147855"/>
-          <c:h val="0.70099140836828866"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Post Breakfast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="7"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$18:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45490</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$D$18:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>4.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0131-442B-8E89-76AE3ED60F37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1922468256"/>
-        <c:axId val="1922465376"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1922468256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1922465376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1922465376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1922468256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1179,10 +787,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1293,16 +901,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$42</c:f>
+              <c:f>main!$C$6:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1413,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,10 +1066,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1566,16 +1180,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$42</c:f>
+              <c:f>main!$E$6:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1683,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,10 +1342,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1836,16 +1456,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$42</c:f>
+              <c:f>main!$G$6:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1953,6 +1576,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,10 +1618,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2106,16 +1732,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$42</c:f>
+              <c:f>main!$H$6:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2214,6 +1843,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,10 +2173,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2655,16 +2287,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$42</c:f>
+              <c:f>main!$C$6:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2775,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,10 +2700,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3176,16 +2814,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$42</c:f>
+              <c:f>main!$E$6:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3293,6 +2934,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,10 +3225,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3695,16 +3339,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$42</c:f>
+              <c:f>main!$G$6:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3812,6 +3459,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,10 +3777,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4241,16 +3891,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$42</c:f>
+              <c:f>main!$I$6:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4324,6 +3977,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4385,10 +4041,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4499,16 +4155,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$42</c:f>
+              <c:f>main!$J$6:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4618,6 +4277,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4896,524 +4558,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.8161854768153979E-2"/>
-          <c:y val="0.16496703147002773"/>
-          <c:w val="0.90128258967629049"/>
-          <c:h val="0.72027273830033955"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sleep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="7"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45473</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$K$6:$K$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C649-45F5-BEEA-F47A3F90B107}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1534605728"/>
-        <c:axId val="1534606208"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1534605728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="45465"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1534606208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1534606208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1534605728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
           <c:y val="0.1575590115889127"/>
           <c:w val="0.90297462817147855"/>
@@ -5469,10 +4613,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$42</c:f>
+              <c:f>main!$A$6:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5583,16 +4727,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$42</c:f>
+              <c:f>main!$H$6:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5691,6 +4838,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5876,7 +5026,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6265,47 +5415,402 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6469816272965873E-2"/>
+          <c:y val="0.1585329969469732"/>
+          <c:w val="0.90297462817147855"/>
+          <c:h val="0.70099140836828866"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Breakfast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$18:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$D$18:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0131-442B-8E89-76AE3ED60F37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1922468256"/>
+        <c:axId val="1922465376"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1922468256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922465376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1922465376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922468256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7181,7 +6686,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7697,7 +7202,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8213,7 +7718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8729,7 +8234,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9245,8 +8750,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9354,11 +8859,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9369,11 +8869,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9405,9 +8900,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9761,8 +9253,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9870,6 +9362,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9880,6 +9377,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9911,6 +9413,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10264,7 +9769,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10780,7 +10285,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11296,536 +10801,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123712</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426593</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>439269</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51869</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11852,14 +10841,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>16584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>125169</xdr:rowOff>
     </xdr:to>
@@ -11888,13 +10877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>117998</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>418316</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
@@ -11924,13 +10913,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119117</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>77769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>408565</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -11960,16 +10949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133912</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>9301</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11996,16 +10985,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>59841</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27184</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>134694</xdr:rowOff>
+      <xdr:rowOff>102036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>426784</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:rowOff>137671</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12032,50 +11021,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75CDEC-90B2-356A-898F-D5D665EFEAA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>171337</xdr:rowOff>
     </xdr:to>
@@ -12096,7 +11049,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12104,13 +11057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>416410</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>75864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12132,7 +11085,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12140,13 +11093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>439238</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>12791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>88991</xdr:rowOff>
@@ -12168,7 +11121,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12177,10 +11130,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K42" totalsRowShown="0">
-  <autoFilter ref="A5:K42" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:J43" totalsRowShown="0">
+  <autoFilter ref="A5:J43" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E5B64DB2-CAD1-4DC4-923F-5F20775B475A}" name="Morning (07:15)"/>
@@ -12191,7 +11148,6 @@
     <tableColumn id="6" xr3:uid="{9CFCB6D2-CB0D-4850-AD19-CA964ED4C0DE}" name="BedTime (21:45)"/>
     <tableColumn id="10" xr3:uid="{73CACED3-F448-42A7-BC85-39BC86714F29}" name="Insulin AM"/>
     <tableColumn id="7" xr3:uid="{89C85138-4E24-4F0B-9432-AF619E396C99}" name="Insulin PM"/>
-    <tableColumn id="8" xr3:uid="{1974B4D8-CC5A-4F11-B841-77A3295C1C99}" name="Sleep"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12516,8 +11472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12536,96 +11492,96 @@
     <col min="30" max="30" width="1.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <f>AVERAGE(B6:B74)</f>
+        <v>75.45263157894739</v>
+      </c>
+      <c r="C2" s="2">
+        <f>AVERAGE(C6:C74)</f>
+        <v>7.8394736842105273</v>
+      </c>
+      <c r="D2" s="2">
+        <f>AVERAGE(D6:D74)</f>
+        <v>6.6820000000000013</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(E6:E74)</f>
+        <v>10.099999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(F6:F74)</f>
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(G6:G74)</f>
+        <v>9.8621621621621607</v>
+      </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(H6:H74)</f>
+        <v>7.3617647058823525</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <f>AVERAGE(B6:B73)</f>
-        <v>75.383783783783798</v>
-      </c>
-      <c r="C2" s="2">
-        <f>AVERAGE(C6:C73)</f>
-        <v>7.924324324324326</v>
-      </c>
-      <c r="D2" s="2">
-        <f>AVERAGE(D6:D73)</f>
-        <v>6.6820000000000013</v>
-      </c>
-      <c r="E2" s="2">
-        <f>AVERAGE(E6:E73)</f>
-        <v>10.263888888888888</v>
-      </c>
-      <c r="F2" s="2">
-        <f>AVERAGE(F6:F73)</f>
-        <v>8.8083333333333318</v>
-      </c>
-      <c r="G2" s="2">
-        <f>AVERAGE(G6:G73)</f>
-        <v>9.9888888888888872</v>
-      </c>
-      <c r="H2" s="2">
-        <f>AVERAGE(H6:H73)</f>
-        <v>7.3606060606060595</v>
+      <c r="B3" s="2">
+        <f>MAX(B6:B81)</f>
+        <v>78.3</v>
+      </c>
+      <c r="C3">
+        <f>MIN(C6:C81)</f>
+        <v>4.2</v>
+      </c>
+      <c r="D3">
+        <f>MIN(D6:D81)</f>
+        <v>3.9</v>
+      </c>
+      <c r="E3">
+        <f>MIN(E6:E81)</f>
+        <v>3.8</v>
+      </c>
+      <c r="F3">
+        <f>MIN(F6:F81)</f>
+        <v>4.8</v>
+      </c>
+      <c r="G3">
+        <f>MIN(G6:G81)</f>
+        <v>3.8</v>
+      </c>
+      <c r="H3">
+        <f>MIN(H6:H81)</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <f>MAX(B6:B80)</f>
-        <v>78.3</v>
-      </c>
-      <c r="C3">
-        <f>MIN(C6:C80)</f>
-        <v>4.2</v>
-      </c>
-      <c r="D3">
-        <f>MIN(D6:D80)</f>
-        <v>3.9</v>
-      </c>
-      <c r="E3">
-        <f>MIN(E6:E80)</f>
-        <v>3.8</v>
-      </c>
-      <c r="F3">
-        <f>MIN(F6:F80)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G3">
-        <f>MIN(G6:G80)</f>
-        <v>3.8</v>
-      </c>
-      <c r="H3">
-        <f>MIN(H6:H80)</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -12633,34 +11589,31 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45463</v>
       </c>
@@ -12680,7 +11633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45464</v>
       </c>
@@ -12700,7 +11653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45465</v>
       </c>
@@ -12719,11 +11672,8 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45466</v>
       </c>
@@ -12745,11 +11695,8 @@
       <c r="J9">
         <v>12</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45467</v>
       </c>
@@ -12771,11 +11718,8 @@
       <c r="J10">
         <v>12</v>
       </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45468</v>
       </c>
@@ -12797,11 +11741,8 @@
       <c r="J11">
         <v>12</v>
       </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45469</v>
       </c>
@@ -12823,11 +11764,8 @@
       <c r="J12">
         <v>12</v>
       </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45470</v>
       </c>
@@ -12849,11 +11787,8 @@
       <c r="J13">
         <v>12</v>
       </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45471</v>
       </c>
@@ -12875,11 +11810,8 @@
       <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45472</v>
       </c>
@@ -12901,11 +11833,8 @@
       <c r="J15">
         <v>12</v>
       </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45473</v>
       </c>
@@ -12927,11 +11856,8 @@
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16">
-        <v>8</v>
-      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45474</v>
       </c>
@@ -12953,11 +11879,8 @@
       <c r="J17">
         <v>12</v>
       </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45475</v>
       </c>
@@ -12988,11 +11911,8 @@
       <c r="J18">
         <v>12</v>
       </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45476</v>
       </c>
@@ -13023,11 +11943,8 @@
       <c r="J19">
         <v>12</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45477</v>
       </c>
@@ -13058,11 +11975,8 @@
       <c r="J20">
         <v>12</v>
       </c>
-      <c r="K20">
-        <v>8</v>
-      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45478</v>
       </c>
@@ -13093,11 +12007,8 @@
       <c r="J21">
         <v>12</v>
       </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45479</v>
       </c>
@@ -13129,11 +12040,8 @@
       <c r="J22">
         <v>12</v>
       </c>
-      <c r="K22">
-        <v>8</v>
-      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45480</v>
       </c>
@@ -13164,11 +12072,8 @@
       <c r="J23">
         <v>12</v>
       </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45481</v>
       </c>
@@ -13199,11 +12104,8 @@
       <c r="J24">
         <v>10</v>
       </c>
-      <c r="K24">
-        <v>9</v>
-      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45482</v>
       </c>
@@ -13234,11 +12136,8 @@
       <c r="J25">
         <v>10</v>
       </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45483</v>
       </c>
@@ -13269,11 +12168,8 @@
       <c r="J26">
         <v>10</v>
       </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45484</v>
       </c>
@@ -13304,11 +12200,8 @@
       <c r="J27">
         <v>10</v>
       </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45485</v>
       </c>
@@ -13339,11 +12232,8 @@
       <c r="J28">
         <v>10</v>
       </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45486</v>
       </c>
@@ -13374,11 +12264,8 @@
       <c r="J29">
         <v>10</v>
       </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45487</v>
       </c>
@@ -13409,11 +12296,8 @@
       <c r="J30">
         <v>10</v>
       </c>
-      <c r="K30">
-        <v>7</v>
-      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45488</v>
       </c>
@@ -13444,11 +12328,8 @@
       <c r="J31">
         <v>10</v>
       </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45489</v>
       </c>
@@ -13479,11 +12360,8 @@
       <c r="J32">
         <v>10</v>
       </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45490</v>
       </c>
@@ -13514,11 +12392,8 @@
       <c r="J33">
         <v>10</v>
       </c>
-      <c r="K33">
-        <v>9</v>
-      </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45491</v>
       </c>
@@ -13549,11 +12424,8 @@
       <c r="J34">
         <v>10</v>
       </c>
-      <c r="K34">
-        <v>9</v>
-      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45492</v>
       </c>
@@ -13584,11 +12456,8 @@
       <c r="J35">
         <v>8</v>
       </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45493</v>
       </c>
@@ -13619,11 +12488,8 @@
       <c r="J36">
         <v>8</v>
       </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45494</v>
       </c>
@@ -13654,11 +12520,8 @@
       <c r="J37">
         <v>8</v>
       </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45495</v>
       </c>
@@ -13689,11 +12552,8 @@
       <c r="J38">
         <v>8</v>
       </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45496</v>
       </c>
@@ -13724,11 +12584,8 @@
       <c r="J39">
         <v>8</v>
       </c>
-      <c r="K39">
-        <v>9</v>
-      </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45497</v>
       </c>
@@ -13759,11 +12616,8 @@
       <c r="J40">
         <v>8</v>
       </c>
-      <c r="K40">
-        <v>9</v>
-      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45498</v>
       </c>
@@ -13794,11 +12648,8 @@
       <c r="J41">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>9</v>
-      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45499</v>
       </c>
@@ -13811,6 +12662,18 @@
       <c r="D42" s="2">
         <v>5.5</v>
       </c>
+      <c r="E42">
+        <v>4.2</v>
+      </c>
+      <c r="F42">
+        <v>4.8</v>
+      </c>
+      <c r="G42">
+        <v>5.3</v>
+      </c>
+      <c r="H42">
+        <v>7.4</v>
+      </c>
       <c r="I42">
         <v>10</v>
       </c>
@@ -13818,17 +12681,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B43" s="2">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>4.7</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CBD42A-1BFB-4C11-B087-AA3946C19ABB}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C3C0A7-E9F7-4A0E-9EB1-F3960FB0F382}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -1303,6 +1303,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2937,6 +2940,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11473,7 +11479,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11520,31 +11526,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B74)</f>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B74)</f>
         <v>75.45263157894739</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C74)</f>
+        <f t="shared" si="0"/>
         <v>7.8394736842105273</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D74)</f>
-        <v>6.6820000000000013</v>
+        <f t="shared" si="0"/>
+        <v>6.6788461538461554</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E74)</f>
-        <v>10.099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>9.9578947368421034</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F74)</f>
-        <v>8.6479999999999997</v>
+        <f t="shared" si="0"/>
+        <v>8.5615384615384613</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G74)</f>
+        <f t="shared" si="0"/>
         <v>9.8621621621621607</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H74)</f>
+        <f t="shared" si="0"/>
         <v>7.3617647058823525</v>
       </c>
     </row>
@@ -11557,27 +11563,27 @@
         <v>78.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C81)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C81)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D81)</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E81)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F81)</f>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G81)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H81)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -12691,7 +12697,15 @@
       <c r="C43">
         <v>4.7</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E43">
+        <v>4.7</v>
+      </c>
+      <c r="F43">
+        <v>6.4</v>
+      </c>
       <c r="I43">
         <v>10</v>
       </c>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C3C0A7-E9F7-4A0E-9EB1-F3960FB0F382}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B824D60-5F8A-44E9-AB9C-E2CE28F643F9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -250,10 +250,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -367,16 +367,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$43</c:f>
+              <c:f>main!$B$6:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -490,6 +493,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,10 +793,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -904,16 +910,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$43</c:f>
+              <c:f>main!$C$6:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1027,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,10 +1078,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1183,16 +1195,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$43</c:f>
+              <c:f>main!$E$6:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1345,10 +1360,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1462,16 +1477,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$43</c:f>
+              <c:f>main!$G$6:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1582,6 +1600,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,10 +1642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1738,16 +1759,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$43</c:f>
+              <c:f>main!$H$6:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1849,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,10 +2203,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2293,16 +2320,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$43</c:f>
+              <c:f>main!$C$6:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2416,6 +2446,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,10 +2736,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2820,16 +2853,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$43</c:f>
+              <c:f>main!$E$6:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3231,10 +3267,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3348,16 +3384,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$43</c:f>
+              <c:f>main!$G$6:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3468,6 +3507,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,10 +3825,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3900,16 +3942,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$43</c:f>
+              <c:f>main!$I$6:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4047,10 +4092,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4164,16 +4209,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$43</c:f>
+              <c:f>main!$J$6:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4619,10 +4667,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$43</c:f>
+              <c:f>main!$A$6:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4736,16 +4784,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$43</c:f>
+              <c:f>main!$H$6:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4847,6 +4898,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11141,8 +11195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:J43" totalsRowShown="0">
-  <autoFilter ref="A5:J43" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:J44" totalsRowShown="0">
+  <autoFilter ref="A5:J44" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
@@ -11478,8 +11532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11526,32 +11580,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B74)</f>
-        <v>75.45263157894739</v>
+        <f>AVERAGE(B6:B75)</f>
+        <v>75.533333333333346</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8394736842105273</v>
+        <f>AVERAGE(C6:C75)</f>
+        <v>7.7769230769230768</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6788461538461554</v>
+        <f>AVERAGE(D6:D75)</f>
+        <v>6.598148148148149</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E6:E75)</f>
         <v>9.9578947368421034</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F75)</f>
         <v>8.5615384615384613</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8621621621621607</v>
+        <f>AVERAGE(G6:G75)</f>
+        <v>9.7710526315789465</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3617647058823525</v>
+        <f>AVERAGE(H6:H75)</f>
+        <v>7.3057142857142852</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -11559,31 +11613,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B81)</f>
-        <v>78.3</v>
+        <f>MAX(B6:B82)</f>
+        <v>78.599999999999994</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C81)</f>
+        <f>MIN(C6:C82)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D82)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E82)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F82)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G82)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H82)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -12706,6 +12760,12 @@
       <c r="F43">
         <v>6.4</v>
       </c>
+      <c r="G43">
+        <v>6.4</v>
+      </c>
+      <c r="H43">
+        <v>5.4</v>
+      </c>
       <c r="I43">
         <v>10</v>
       </c>
@@ -12713,11 +12773,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B44" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C44">
+        <v>5.4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B824D60-5F8A-44E9-AB9C-E2CE28F643F9}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A274D32-9505-4987-9A11-9906DCB4DC83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Weight</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Daily Insulin</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -250,10 +256,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -370,16 +376,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$44</c:f>
+              <c:f>main!$B$6:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -496,6 +505,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,10 +805,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -913,16 +925,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$44</c:f>
+              <c:f>main!$C$6:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1039,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,10 +1096,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1198,16 +1216,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$44</c:f>
+              <c:f>main!$E$6:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1321,6 +1342,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,10 +1384,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1480,16 +1504,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$44</c:f>
+              <c:f>main!$G$6:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1603,6 +1630,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,10 +1672,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1762,16 +1792,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$44</c:f>
+              <c:f>main!$H$6:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1876,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,10 +2239,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2323,16 +2359,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$44</c:f>
+              <c:f>main!$C$6:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2449,6 +2488,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,10 +2778,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2856,16 +2898,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$44</c:f>
+              <c:f>main!$E$6:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2979,6 +3024,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,10 +3315,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3387,16 +3435,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$44</c:f>
+              <c:f>main!$G$6:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3510,6 +3561,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3709,873 +3763,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Insuiln AM/PM</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6933029157768886E-2"/>
-          <c:y val="0.15345964025110234"/>
-          <c:w val="0.90288133458109276"/>
-          <c:h val="0.74145201866761945"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insulin AM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45473</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$I$6:$I$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B28-444C-BEAF-72EDB94AD64D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insulin PM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45473</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45493</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45494</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45500</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$J$6:$J$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4B28-444C-BEAF-72EDB94AD64D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1554411152"/>
-        <c:axId val="1554416912"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1554411152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1554416912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1554416912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1554411152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.5604549599399028"/>
-          <c:y val="0.1821350451658513"/>
-          <c:w val="0.40019771600807208"/>
-          <c:h val="9.2584320532504344E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4667,10 +3854,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$44</c:f>
+              <c:f>main!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4787,16 +3974,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$44</c:f>
+              <c:f>main!$H$6:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4901,6 +4091,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,7 +4279,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5475,7 +4668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5826,6 +5019,1230 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Insulin Dosages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5260588717388555E-2"/>
+          <c:y val="9.7001031699882515E-2"/>
+          <c:w val="0.90117641264562198"/>
+          <c:h val="0.71780154710594535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insulin AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$I$6:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31E1-4090-853C-1CC6872F225E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insulin PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$J$6:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31E1-4090-853C-1CC6872F225E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Daily Insulin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$K$6:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31E1-4090-853C-1CC6872F225E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="346045039"/>
+        <c:axId val="346045519"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="346045039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346045519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="346045519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Insulin Dosage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346045039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8811,7 +9228,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8919,6 +9336,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8929,6 +9351,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8960,6 +9387,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11045,42 +11475,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>27184</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>426784</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>137671</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEC9DFF-4659-25E6-0E06-9242E0B7CFF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>412376</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -11109,7 +11503,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11145,7 +11539,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11181,6 +11575,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>421340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD2ABF-B4D3-C1C5-281A-A12368917FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
@@ -11195,11 +11625,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:J44" totalsRowShown="0">
-  <autoFilter ref="A5:J44" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K45" totalsRowShown="0">
+  <autoFilter ref="A5:K45" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{E5B64DB2-CAD1-4DC4-923F-5F20775B475A}" name="Morning (07:15)"/>
     <tableColumn id="9" xr3:uid="{8610C2D9-DA3D-495E-A7DA-1A087E914E11}" name="Post Breakfast"/>
     <tableColumn id="4" xr3:uid="{00F66A78-6A41-4945-84A6-A1E12629EBFE}" name="Lunch (12:50)"/>
@@ -11208,6 +11638,9 @@
     <tableColumn id="6" xr3:uid="{9CFCB6D2-CB0D-4850-AD19-CA964ED4C0DE}" name="BedTime (21:45)"/>
     <tableColumn id="10" xr3:uid="{73CACED3-F448-42A7-BC85-39BC86714F29}" name="Insulin AM"/>
     <tableColumn id="7" xr3:uid="{89C85138-4E24-4F0B-9432-AF619E396C99}" name="Insulin PM"/>
+    <tableColumn id="8" xr3:uid="{2F9D318F-A568-4EAB-A181-CF4EA9B228EC}" name="Daily Insulin" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11532,27 +11965,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11575,73 +12008,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B75)</f>
-        <v>75.533333333333346</v>
+        <f>AVERAGE(B6:B76)</f>
+        <v>75.60250000000002</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C75)</f>
-        <v>7.7769230769230768</v>
+        <f>AVERAGE(C6:C76)</f>
+        <v>7.7200000000000006</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D75)</f>
-        <v>6.598148148148149</v>
+        <f>AVERAGE(D6:D76)</f>
+        <v>6.5982142857142865</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E75)</f>
-        <v>9.9578947368421034</v>
+        <f>AVERAGE(E6:E76)</f>
+        <v>9.8538461538461508</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F75)</f>
-        <v>8.5615384615384613</v>
+        <f>AVERAGE(F6:F76)</f>
+        <v>8.5407407407407412</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G75)</f>
-        <v>9.7710526315789465</v>
+        <f>AVERAGE(G6:G76)</f>
+        <v>9.6666666666666661</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H75)</f>
-        <v>7.3057142857142852</v>
+        <f>AVERAGE(H6:H76)</f>
+        <v>7.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B82)</f>
+        <f>MAX(B6:B83)</f>
         <v>78.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C82)</f>
+        <f>MIN(C6:C83)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D82)</f>
+        <f>MIN(D6:D83)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E82)</f>
+        <f>MIN(E6:E83)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F82)</f>
+        <f>MIN(F6:F83)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G82)</f>
+        <f>MIN(G6:G83)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H82)</f>
+        <f>MIN(H6:H83)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -11672,8 +12105,11 @@
       <c r="J5" t="s">
         <v>9</v>
       </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45463</v>
       </c>
@@ -11692,8 +12128,12 @@
       <c r="J6">
         <v>10</v>
       </c>
+      <c r="K6">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45464</v>
       </c>
@@ -11712,8 +12152,12 @@
       <c r="J7">
         <v>10</v>
       </c>
+      <c r="K7">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45465</v>
       </c>
@@ -11732,8 +12176,12 @@
       <c r="J8">
         <v>10</v>
       </c>
+      <c r="K8">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45466</v>
       </c>
@@ -11755,8 +12203,12 @@
       <c r="J9">
         <v>12</v>
       </c>
+      <c r="K9">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45467</v>
       </c>
@@ -11778,8 +12230,12 @@
       <c r="J10">
         <v>12</v>
       </c>
+      <c r="K10">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45468</v>
       </c>
@@ -11801,8 +12257,12 @@
       <c r="J11">
         <v>12</v>
       </c>
+      <c r="K11">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45469</v>
       </c>
@@ -11824,8 +12284,12 @@
       <c r="J12">
         <v>12</v>
       </c>
+      <c r="K12">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45470</v>
       </c>
@@ -11847,8 +12311,12 @@
       <c r="J13">
         <v>12</v>
       </c>
+      <c r="K13">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45471</v>
       </c>
@@ -11870,8 +12338,12 @@
       <c r="J14">
         <v>12</v>
       </c>
+      <c r="K14">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45472</v>
       </c>
@@ -11893,8 +12365,12 @@
       <c r="J15">
         <v>12</v>
       </c>
+      <c r="K15">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45473</v>
       </c>
@@ -11916,8 +12392,12 @@
       <c r="J16">
         <v>12</v>
       </c>
+      <c r="K16">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45474</v>
       </c>
@@ -11939,8 +12419,12 @@
       <c r="J17">
         <v>12</v>
       </c>
+      <c r="K17">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45475</v>
       </c>
@@ -11971,8 +12455,12 @@
       <c r="J18">
         <v>12</v>
       </c>
+      <c r="K18">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45476</v>
       </c>
@@ -12003,8 +12491,12 @@
       <c r="J19">
         <v>12</v>
       </c>
+      <c r="K19">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45477</v>
       </c>
@@ -12035,8 +12527,12 @@
       <c r="J20">
         <v>12</v>
       </c>
+      <c r="K20">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45478</v>
       </c>
@@ -12067,8 +12563,12 @@
       <c r="J21">
         <v>12</v>
       </c>
+      <c r="K21">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45479</v>
       </c>
@@ -12100,8 +12600,12 @@
       <c r="J22">
         <v>12</v>
       </c>
+      <c r="K22">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45480</v>
       </c>
@@ -12132,8 +12636,12 @@
       <c r="J23">
         <v>12</v>
       </c>
+      <c r="K23">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45481</v>
       </c>
@@ -12164,8 +12672,12 @@
       <c r="J24">
         <v>10</v>
       </c>
+      <c r="K24">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45482</v>
       </c>
@@ -12196,8 +12708,12 @@
       <c r="J25">
         <v>10</v>
       </c>
+      <c r="K25">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45483</v>
       </c>
@@ -12228,8 +12744,12 @@
       <c r="J26">
         <v>10</v>
       </c>
+      <c r="K26">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45484</v>
       </c>
@@ -12260,8 +12780,12 @@
       <c r="J27">
         <v>10</v>
       </c>
+      <c r="K27">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45485</v>
       </c>
@@ -12292,8 +12816,12 @@
       <c r="J28">
         <v>10</v>
       </c>
+      <c r="K28">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45486</v>
       </c>
@@ -12324,8 +12852,12 @@
       <c r="J29">
         <v>10</v>
       </c>
+      <c r="K29">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45487</v>
       </c>
@@ -12356,8 +12888,12 @@
       <c r="J30">
         <v>10</v>
       </c>
+      <c r="K30">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45488</v>
       </c>
@@ -12388,8 +12924,12 @@
       <c r="J31">
         <v>10</v>
       </c>
+      <c r="K31">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45489</v>
       </c>
@@ -12420,8 +12960,12 @@
       <c r="J32">
         <v>10</v>
       </c>
+      <c r="K32">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45490</v>
       </c>
@@ -12452,8 +12996,12 @@
       <c r="J33">
         <v>10</v>
       </c>
+      <c r="K33">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45491</v>
       </c>
@@ -12484,8 +13032,12 @@
       <c r="J34">
         <v>10</v>
       </c>
+      <c r="K34">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45492</v>
       </c>
@@ -12516,8 +13068,12 @@
       <c r="J35">
         <v>8</v>
       </c>
+      <c r="K35">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45493</v>
       </c>
@@ -12548,8 +13104,12 @@
       <c r="J36">
         <v>8</v>
       </c>
+      <c r="K36">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45494</v>
       </c>
@@ -12580,8 +13140,12 @@
       <c r="J37">
         <v>8</v>
       </c>
+      <c r="K37">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45495</v>
       </c>
@@ -12612,8 +13176,12 @@
       <c r="J38">
         <v>8</v>
       </c>
+      <c r="K38">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45496</v>
       </c>
@@ -12644,8 +13212,12 @@
       <c r="J39">
         <v>8</v>
       </c>
+      <c r="K39">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45497</v>
       </c>
@@ -12676,8 +13248,12 @@
       <c r="J40">
         <v>8</v>
       </c>
+      <c r="K40">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45498</v>
       </c>
@@ -12708,8 +13284,12 @@
       <c r="J41">
         <v>8</v>
       </c>
+      <c r="K41">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45499</v>
       </c>
@@ -12740,8 +13320,12 @@
       <c r="J42">
         <v>8</v>
       </c>
+      <c r="K42">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45500</v>
       </c>
@@ -12772,8 +13356,12 @@
       <c r="J43">
         <v>8</v>
       </c>
+      <c r="K43">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45501</v>
       </c>
@@ -12786,12 +13374,58 @@
       <c r="D44" s="2">
         <v>4.5</v>
       </c>
+      <c r="E44">
+        <v>5.9</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>5.7</v>
+      </c>
+      <c r="H44">
+        <v>5.3</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B45" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="C45">
+        <v>5.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="668" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A274D32-9505-4987-9A11-9906DCB4DC83}"/>
+  <xr:revisionPtr revIDLastSave="702" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4479D9-E651-4FEC-8F5A-284FB9AF3325}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -256,10 +256,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -379,16 +379,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$45</c:f>
+              <c:f>main!$B$6:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -508,6 +511,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,10 +811,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -928,16 +934,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$45</c:f>
+              <c:f>main!$C$6:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1057,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,10 +1108,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1219,16 +1231,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$45</c:f>
+              <c:f>main!$E$6:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1345,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,10 +1402,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1507,16 +1525,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$45</c:f>
+              <c:f>main!$G$6:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1633,6 +1654,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,10 +1696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1795,16 +1819,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$45</c:f>
+              <c:f>main!$H$6:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1912,6 +1939,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,10 +2269,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2362,16 +2392,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$45</c:f>
+              <c:f>main!$C$6:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2491,6 +2524,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,10 +2814,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2901,16 +2937,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$45</c:f>
+              <c:f>main!$E$6:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3027,6 +3066,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,10 +3357,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3438,16 +3480,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$45</c:f>
+              <c:f>main!$G$6:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3564,6 +3609,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,10 +3902,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3977,16 +4025,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$45</c:f>
+              <c:f>main!$H$6:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4094,6 +4145,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4174,7 +4228,7 @@
         <c:axId val="1875530239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4294,790 +4348,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.7211108344129716E-2"/>
-          <c:y val="0.19417824593771857"/>
-          <c:w val="0.90189257103831544"/>
-          <c:h val="0.66837480206187605"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Post Lunch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="7"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$18:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$F$18:$F$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9E1-4CB4-8319-D292F3021994}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2137095568"/>
-        <c:axId val="2137095088"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="2137095568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2137095088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="2137095088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2137095568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.1585329969469732"/>
-          <c:w val="0.90297462817147855"/>
-          <c:h val="0.70099140836828866"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Post Breakfast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="7"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>main!$A$18:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45487</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45490</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>main!$D$18:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>4.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0131-442B-8E89-76AE3ED60F37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1922468256"/>
-        <c:axId val="1922465376"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1922468256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1922465376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1922465376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1922468256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -5199,10 +4469,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5322,16 +4592,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$45</c:f>
+              <c:f>main!$I$6:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5414,6 +4687,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5472,10 +4748,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5595,16 +4871,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$45</c:f>
+              <c:f>main!$J$6:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5723,6 +5002,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5763,10 +5045,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$45</c:f>
+              <c:f>main!$A$6:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5886,16 +5168,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$45</c:f>
+              <c:f>main!$K$6:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6014,6 +5299,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6243,6 +5531,1002 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7226095139413952E-2"/>
+          <c:y val="0.18946049693074984"/>
+          <c:w val="0.90187069495280014"/>
+          <c:h val="0.63596802081524806"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Lunch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$F$6:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="12">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FA7-4465-AC6A-8E2F6632AA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="678062367"/>
+        <c:axId val="678062847"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="678062367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45475"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678062847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="678062847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678062367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1558897893815707E-2"/>
+          <c:y val="0.16258942222643802"/>
+          <c:w val="0.88175198552694745"/>
+          <c:h val="0.58397144942849477"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Breakfast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>main!$A$6:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45480</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45487</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>main!$D$6:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="12">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA27-4038-8439-8FB36A0D5D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="251435471"/>
+        <c:axId val="251437391"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="251435471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45475"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251437391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="251437391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251435471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -11404,13 +11688,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>77769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>408565</xdr:colOff>
+      <xdr:colOff>406661</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -11511,23 +11795,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>416410</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>75864</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>366911</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC900005-D475-85C8-C9B2-2E60406442EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD2ABF-B4D3-C1C5-281A-A12368917FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11548,22 +11832,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>439238</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12791</xdr:rowOff>
+      <xdr:colOff>418827</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88991</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6360F5-96FA-B1C8-FDBA-AFB8B7F0F2B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D9330D-644E-58CF-9CDA-7BAAD52D7C8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11583,23 +11867,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449037</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>40824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD2ABF-B4D3-C1C5-281A-A12368917FDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8434A87C-0F83-B5F0-083B-A71C72766341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11625,8 +11909,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K45" totalsRowShown="0">
-  <autoFilter ref="A5:K45" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K46" totalsRowShown="0">
+  <autoFilter ref="A5:K46" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -11965,13 +12249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -12013,32 +12297,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B76)</f>
-        <v>75.60250000000002</v>
+        <f>AVERAGE(B6:B77)</f>
+        <v>75.665853658536605</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C76)</f>
-        <v>7.7200000000000006</v>
+        <f>AVERAGE(C6:C77)</f>
+        <v>7.6756097560975611</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D76)</f>
+        <f>AVERAGE(D6:D77)</f>
         <v>6.5982142857142865</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E76)</f>
-        <v>9.8538461538461508</v>
+        <f>AVERAGE(E6:E77)</f>
+        <v>9.759999999999998</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F76)</f>
-        <v>8.5407407407407412</v>
+        <f>AVERAGE(F6:F77)</f>
+        <v>8.5178571428571423</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G76)</f>
-        <v>9.6666666666666661</v>
+        <f>AVERAGE(G6:G77)</f>
+        <v>9.5824999999999996</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H76)</f>
-        <v>7.25</v>
+        <f>AVERAGE(H6:H77)</f>
+        <v>7.1783783783783788</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12046,31 +12330,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B83)</f>
+        <f>MAX(B6:B84)</f>
         <v>78.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C83)</f>
+        <f>MIN(C6:C84)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D83)</f>
+        <f>MIN(D6:D84)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E83)</f>
+        <f>MIN(E6:E84)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F83)</f>
+        <f>MIN(F6:F84)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G83)</f>
+        <f>MIN(G6:G84)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H83)</f>
+        <f>MIN(H6:H84)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13410,6 +13694,18 @@
       <c r="D45" s="2">
         <v>6.6</v>
       </c>
+      <c r="E45">
+        <v>6.1</v>
+      </c>
+      <c r="F45">
+        <v>7.9</v>
+      </c>
+      <c r="G45">
+        <v>6.3</v>
+      </c>
+      <c r="H45">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="I45">
         <v>10</v>
       </c>
@@ -13421,15 +13717,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B46" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="C46">
+        <v>5.9</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD49" t="s">
         <v>2</v>
       </c>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="702" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4479D9-E651-4FEC-8F5A-284FB9AF3325}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CA5C54-A17C-41AA-B337-2131BA122672}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -119,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -382,16 +383,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$46</c:f>
+              <c:f>main!$B$6:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -514,6 +518,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,10 +818,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -937,16 +944,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$46</c:f>
+              <c:f>main!$C$6:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1069,6 +1079,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,10 +1121,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1234,16 +1247,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$46</c:f>
+              <c:f>main!$E$6:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1362,6 +1378,12 @@
                   <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1402,10 +1424,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1528,16 +1550,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$46</c:f>
+              <c:f>main!$G$6:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1657,6 +1682,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,10 +1724,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1822,16 +1850,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$46</c:f>
+              <c:f>main!$H$6:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1942,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,10 +2303,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2395,16 +2429,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$46</c:f>
+              <c:f>main!$C$6:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2527,6 +2564,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,10 +2854,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2940,16 +2980,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$46</c:f>
+              <c:f>main!$E$6:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3068,6 +3111,12 @@
                   <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3357,10 +3406,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3483,16 +3532,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$46</c:f>
+              <c:f>main!$G$6:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3612,6 +3664,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3902,10 +3957,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4028,16 +4083,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$46</c:f>
+              <c:f>main!$H$6:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4148,6 +4206,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4469,10 +4530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4595,16 +4656,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$46</c:f>
+              <c:f>main!$I$6:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4690,6 +4754,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4748,10 +4815,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4874,16 +4941,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$46</c:f>
+              <c:f>main!$J$6:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5005,6 +5075,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5045,10 +5118,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5171,16 +5244,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$46</c:f>
+              <c:f>main!$K$6:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5302,6 +5378,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -5678,10 +5757,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5804,16 +5883,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$46</c:f>
+              <c:f>main!$F$6:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -5897,6 +5979,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,10 +6255,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$46</c:f>
+              <c:f>main!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6296,16 +6381,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$46</c:f>
+              <c:f>main!$D$6:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -6389,6 +6477,12 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="0.0">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11904,13 +11998,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K46" totalsRowShown="0">
-  <autoFilter ref="A5:K46" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K47" totalsRowShown="0">
+  <autoFilter ref="A5:K47" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12247,10 +12337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12297,32 +12387,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B77)</f>
-        <v>75.665853658536605</v>
+        <f>AVERAGE(B6:B78)</f>
+        <v>75.730952380952402</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C77)</f>
-        <v>7.6756097560975611</v>
+        <f>AVERAGE(C6:C78)</f>
+        <v>7.64047619047619</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D77)</f>
-        <v>6.5982142857142865</v>
+        <f>AVERAGE(D6:D78)</f>
+        <v>6.5550000000000015</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E77)</f>
-        <v>9.759999999999998</v>
+        <f>AVERAGE(E6:E78)</f>
+        <v>9.6261904761904749</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F77)</f>
-        <v>8.5178571428571423</v>
+        <f>AVERAGE(F6:F78)</f>
+        <v>8.4448275862068964</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G77)</f>
-        <v>9.5824999999999996</v>
+        <f>AVERAGE(G6:G78)</f>
+        <v>9.4682926829268279</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H77)</f>
-        <v>7.1783783783783788</v>
+        <f>AVERAGE(H6:H78)</f>
+        <v>7.1605263157894745</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12330,31 +12420,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B84)</f>
+        <f>MAX(B6:B85)</f>
         <v>78.599999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C84)</f>
+        <f>MIN(C6:C85)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D84)</f>
+        <f>MIN(D6:D85)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E84)</f>
+        <f>MIN(E6:E85)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F84)</f>
+        <f>MIN(F6:F85)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G84)</f>
+        <f>MIN(G6:G85)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H84)</f>
+        <f>MIN(H6:H85)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13727,7 +13817,21 @@
       <c r="C46">
         <v>5.9</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E46">
+        <v>7.8</v>
+      </c>
+      <c r="F46">
+        <v>6.4</v>
+      </c>
+      <c r="G46">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H46">
+        <v>6.5</v>
+      </c>
       <c r="I46">
         <v>10</v>
       </c>
@@ -13739,14 +13843,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B47" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C47">
+        <v>6.2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E47">
+        <v>6.1</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="AD49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD49" t="s">
+      <c r="H50" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="713" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CA5C54-A17C-41AA-B337-2131BA122672}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6B2E56-F01B-4720-A7EC-2834C52985B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -386,16 +386,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$47</c:f>
+              <c:f>main!$B$6:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -521,6 +524,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,10 +824,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -947,16 +953,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$47</c:f>
+              <c:f>main!$C$6:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1082,6 +1091,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,10 +1133,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1250,16 +1262,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$47</c:f>
+              <c:f>main!$E$6:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1424,10 +1439,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1553,16 +1568,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$47</c:f>
+              <c:f>main!$G$6:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1685,6 +1703,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,10 +1745,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1853,16 +1874,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$47</c:f>
+              <c:f>main!$H$6:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -1976,6 +2000,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,10 +2330,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2432,16 +2459,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$47</c:f>
+              <c:f>main!$C$6:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2567,6 +2597,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,10 +2887,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2983,16 +3016,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$47</c:f>
+              <c:f>main!$E$6:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3406,10 +3442,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3535,16 +3571,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$47</c:f>
+              <c:f>main!$G$6:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3667,6 +3706,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,10 +3999,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4086,16 +4128,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$47</c:f>
+              <c:f>main!$H$6:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4209,6 +4254,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,10 +4578,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4659,16 +4707,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$47</c:f>
+              <c:f>main!$I$6:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4757,6 +4808,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4815,10 +4869,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4944,16 +4998,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$47</c:f>
+              <c:f>main!$J$6:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5078,6 +5135,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5118,10 +5178,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5247,16 +5307,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$47</c:f>
+              <c:f>main!$K$6:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5381,6 +5444,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -5757,10 +5823,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5886,16 +5952,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$47</c:f>
+              <c:f>main!$F$6:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -5982,6 +6051,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,12 +6325,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$47</c:f>
+              <c:f>main!$A$6:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6384,16 +6471,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$47</c:f>
+              <c:f>main!$D$6:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -6483,6 +6573,9 @@
                 </c:pt>
                 <c:pt idx="41" formatCode="0.0">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0">
+                  <c:v>6.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11998,9 +12091,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K47" totalsRowShown="0">
-  <autoFilter ref="A5:K47" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K48" totalsRowShown="0">
+  <autoFilter ref="A5:K48" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12337,10 +12434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12387,32 +12484,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B78)</f>
-        <v>75.730952380952402</v>
+        <f>AVERAGE(B6:B79)</f>
+        <v>75.806976744186059</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C78)</f>
-        <v>7.64047619047619</v>
+        <f>AVERAGE(C6:C79)</f>
+        <v>7.6209302325581394</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D78)</f>
-        <v>6.5550000000000015</v>
+        <f>AVERAGE(D6:D79)</f>
+        <v>6.5596774193548395</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E78)</f>
+        <f>AVERAGE(E6:E79)</f>
         <v>9.6261904761904749</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F78)</f>
-        <v>8.4448275862068964</v>
+        <f>AVERAGE(F6:F79)</f>
+        <v>8.3800000000000008</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G78)</f>
-        <v>9.4682926829268279</v>
+        <f>AVERAGE(G6:G79)</f>
+        <v>9.3571428571428559</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H78)</f>
-        <v>7.1605263157894745</v>
+        <f>AVERAGE(H6:H79)</f>
+        <v>7.097435897435898</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12420,31 +12517,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B85)</f>
-        <v>78.599999999999994</v>
+        <f>MAX(B6:B86)</f>
+        <v>79</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C85)</f>
+        <f>MIN(C6:C86)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D85)</f>
+        <f>MIN(D6:D86)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E85)</f>
+        <f>MIN(E6:E86)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F85)</f>
+        <f>MIN(F6:F86)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G85)</f>
+        <f>MIN(G6:G86)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H85)</f>
+        <f>MIN(H6:H86)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13859,13 +13956,46 @@
       <c r="E47">
         <v>6.1</v>
       </c>
+      <c r="F47">
+        <v>6.5</v>
+      </c>
+      <c r="G47">
+        <v>4.8</v>
+      </c>
+      <c r="H47">
+        <v>4.7</v>
+      </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B48" s="2">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>6.8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -13875,11 +14005,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H51" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6B2E56-F01B-4720-A7EC-2834C52985B6}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A054DCB6-7F0E-4276-BE9C-5F1ADE5FC49D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -389,16 +389,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$48</c:f>
+              <c:f>main!$B$6:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -527,6 +530,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,10 +830,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -956,16 +962,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$48</c:f>
+              <c:f>main!$C$6:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1094,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,10 +1145,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1265,16 +1277,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$48</c:f>
+              <c:f>main!$E$6:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1400,6 +1415,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,10 +1457,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1571,16 +1589,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$48</c:f>
+              <c:f>main!$G$6:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1706,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,10 +1769,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1877,16 +1901,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$48</c:f>
+              <c:f>main!$H$6:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2003,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,10 +2360,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2462,16 +2492,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$48</c:f>
+              <c:f>main!$C$6:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2600,6 +2633,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,10 +2923,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3019,16 +3055,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$48</c:f>
+              <c:f>main!$E$6:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3154,6 +3193,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3442,10 +3484,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3574,16 +3616,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$48</c:f>
+              <c:f>main!$G$6:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3709,6 +3754,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3999,10 +4047,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4131,16 +4179,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$48</c:f>
+              <c:f>main!$H$6:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4257,6 +4308,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,10 +4632,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4710,16 +4764,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$48</c:f>
+              <c:f>main!$I$6:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4811,6 +4868,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4869,10 +4929,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5001,16 +5061,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$48</c:f>
+              <c:f>main!$J$6:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5138,6 +5201,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5178,10 +5244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5310,16 +5376,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$48</c:f>
+              <c:f>main!$K$6:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5447,6 +5516,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -5823,10 +5895,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5955,16 +6027,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$48</c:f>
+              <c:f>main!$F$6:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6054,6 +6129,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,10 +6420,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$48</c:f>
+              <c:f>main!$A$6:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6474,16 +6552,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$48</c:f>
+              <c:f>main!$D$6:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -12091,13 +12172,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K48" totalsRowShown="0">
-  <autoFilter ref="A5:K48" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K49" totalsRowShown="0">
+  <autoFilter ref="A5:K49" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12434,10 +12511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12484,32 +12561,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B79)</f>
-        <v>75.806976744186059</v>
+        <f>AVERAGE(B6:B80)</f>
+        <v>75.875000000000014</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C79)</f>
-        <v>7.6209302325581394</v>
+        <f>AVERAGE(C6:C80)</f>
+        <v>7.5727272727272723</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D79)</f>
+        <f>AVERAGE(D6:D80)</f>
         <v>6.5596774193548395</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E79)</f>
-        <v>9.6261904761904749</v>
+        <f>AVERAGE(E6:E80)</f>
+        <v>9.5651162790697661</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F79)</f>
-        <v>8.3800000000000008</v>
+        <f>AVERAGE(F6:F80)</f>
+        <v>8.4096774193548391</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G79)</f>
-        <v>9.3571428571428559</v>
+        <f>AVERAGE(G6:G80)</f>
+        <v>9.2534883720930221</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H79)</f>
-        <v>7.097435897435898</v>
+        <f>AVERAGE(H6:H80)</f>
+        <v>7.0900000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12517,31 +12594,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B86)</f>
+        <f>MAX(B6:B87)</f>
         <v>79</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C86)</f>
+        <f>MIN(C6:C87)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D86)</f>
+        <f>MIN(D6:D87)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E86)</f>
+        <f>MIN(E6:E87)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F86)</f>
+        <f>MIN(F6:F87)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G86)</f>
+        <f>MIN(G6:G87)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H86)</f>
+        <f>MIN(H6:H87)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -13989,27 +14066,59 @@
       <c r="D48" s="2">
         <v>6.7</v>
       </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H48">
+        <v>6.8</v>
+      </c>
       <c r="I48">
         <v>10</v>
       </c>
       <c r="J48">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B49" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="C49">
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
       <c r="AD49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A054DCB6-7F0E-4276-BE9C-5F1ADE5FC49D}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC4E8D4-061C-4AB6-B5C9-FED7FF2AE44A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -392,16 +392,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$49</c:f>
+              <c:f>main!$B$6:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -533,6 +539,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,10 +842,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -965,16 +977,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$49</c:f>
+              <c:f>main!$C$6:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1106,6 +1124,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,10 +1169,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1280,16 +1304,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$49</c:f>
+              <c:f>main!$E$6:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1418,6 +1448,15 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,10 +1496,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1592,16 +1631,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$49</c:f>
+              <c:f>main!$G$6:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1730,6 +1775,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,10 +1820,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1904,16 +1955,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$49</c:f>
+              <c:f>main!$H$6:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2033,6 +2090,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,10 +2423,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2495,16 +2558,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$49</c:f>
+              <c:f>main!$C$6:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2636,6 +2705,12 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,10 +2998,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3058,16 +3133,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$49</c:f>
+              <c:f>main!$E$6:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3196,6 +3277,15 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,10 +3574,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3619,16 +3709,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$49</c:f>
+              <c:f>main!$G$6:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3757,6 +3853,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4047,10 +4149,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4182,16 +4284,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$49</c:f>
+              <c:f>main!$H$6:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4311,6 +4419,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4632,10 +4746,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4767,16 +4881,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$49</c:f>
+              <c:f>main!$I$6:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4871,6 +4991,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4929,10 +5055,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5064,16 +5190,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$49</c:f>
+              <c:f>main!$J$6:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5204,6 +5336,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5244,10 +5382,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5379,16 +5517,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$49</c:f>
+              <c:f>main!$K$6:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5519,6 +5663,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -5895,10 +6045,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6030,16 +6180,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$49</c:f>
+              <c:f>main!$F$6:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6132,6 +6288,15 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,10 +6585,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$49</c:f>
+              <c:f>main!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6555,16 +6720,22 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$49</c:f>
+              <c:f>main!$D$6:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -6657,6 +6828,15 @@
                 </c:pt>
                 <c:pt idx="42" formatCode="0.0">
                   <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12172,9 +12352,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K49" totalsRowShown="0">
-  <autoFilter ref="A5:K49" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K51" totalsRowShown="0">
+  <autoFilter ref="A5:K51" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12511,10 +12695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12561,32 +12745,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B80)</f>
-        <v>75.875000000000014</v>
+        <f>AVERAGE(B6:B82)</f>
+        <v>76.054347826086982</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C80)</f>
-        <v>7.5727272727272723</v>
+        <f>AVERAGE(C6:C82)</f>
+        <v>7.4413043478260859</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D80)</f>
-        <v>6.5596774193548395</v>
+        <f>AVERAGE(D6:D82)</f>
+        <v>6.4573529411764721</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E80)</f>
-        <v>9.5651162790697661</v>
+        <f>AVERAGE(E6:E82)</f>
+        <v>9.3391304347826072</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F80)</f>
-        <v>8.4096774193548391</v>
+        <f>AVERAGE(F6:F82)</f>
+        <v>8.25</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G80)</f>
-        <v>9.2534883720930221</v>
+        <f>AVERAGE(G6:G82)</f>
+        <v>9.1088888888888864</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H80)</f>
-        <v>7.0900000000000007</v>
+        <f>AVERAGE(H6:H82)</f>
+        <v>6.9857142857142867</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12594,32 +12778,32 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B87)</f>
-        <v>79</v>
+        <f>MAX(B6:B89)</f>
+        <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C87)</f>
+        <f>MIN(C6:C89)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D87)</f>
+        <f>MIN(D6:D89)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E87)</f>
+        <f>MIN(E6:E89)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F87)</f>
+        <f>MIN(F6:F89)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G87)</f>
+        <f>MIN(G6:G89)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H87)</f>
-        <v>4.4000000000000004</v>
+        <f>MIN(H6:H89)</f>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -14099,14 +14283,28 @@
       <c r="C49">
         <v>5.5</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E49">
+        <v>6.2</v>
+      </c>
+      <c r="F49">
+        <v>7.1</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I49">
         <v>10</v>
       </c>
       <c r="J49">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -14114,11 +14312,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B50" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D50" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E50">
+        <v>6.2</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>5.7</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B51" s="2">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C51">
+        <v>4.7</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>5.9</v>
+      </c>
+      <c r="F51">
+        <v>7.7</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H54" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC4E8D4-061C-4AB6-B5C9-FED7FF2AE44A}"/>
+  <xr:revisionPtr revIDLastSave="763" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8434FD-B546-4915-B37A-F9025C93CD0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -398,16 +398,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$51</c:f>
+              <c:f>main!$B$6:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -842,10 +845,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -983,16 +986,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$51</c:f>
+              <c:f>main!$C$6:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1130,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,10 +1178,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1310,16 +1319,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$51</c:f>
+              <c:f>main!$E$6:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1457,6 +1469,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,10 +1511,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1637,16 +1652,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$51</c:f>
+              <c:f>main!$G$6:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1781,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,10 +1841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1961,16 +1982,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$51</c:f>
+              <c:f>main!$H$6:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2096,6 +2120,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,10 +2450,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2564,16 +2591,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$51</c:f>
+              <c:f>main!$C$6:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2711,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,10 +3031,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3139,16 +3172,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$51</c:f>
+              <c:f>main!$E$6:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3286,6 +3322,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,10 +3613,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3715,16 +3754,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$51</c:f>
+              <c:f>main!$G$6:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3859,6 +3901,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,10 +4194,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4290,16 +4335,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$51</c:f>
+              <c:f>main!$H$6:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4425,6 +4473,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,10 +4797,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4887,16 +4938,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$51</c:f>
+              <c:f>main!$I$6:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4997,6 +5051,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5055,10 +5112,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5196,16 +5253,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$51</c:f>
+              <c:f>main!$J$6:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5342,6 +5402,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5382,10 +5445,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5523,16 +5586,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$51</c:f>
+              <c:f>main!$K$6:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5669,6 +5735,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6045,10 +6114,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6186,16 +6255,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$51</c:f>
+              <c:f>main!$F$6:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6585,10 +6657,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$51</c:f>
+              <c:f>main!$A$6:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6726,16 +6798,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$51</c:f>
+              <c:f>main!$D$6:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -6837,6 +6912,9 @@
                 </c:pt>
                 <c:pt idx="45" formatCode="0.0">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12352,13 +12430,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K51" totalsRowShown="0">
-  <autoFilter ref="A5:K51" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K52" totalsRowShown="0">
+  <autoFilter ref="A5:K52" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12695,10 +12769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12745,32 +12819,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B82)</f>
+        <f>AVERAGE(B6:B83)</f>
         <v>76.054347826086982</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C82)</f>
-        <v>7.4413043478260859</v>
+        <f>AVERAGE(C6:C83)</f>
+        <v>7.3914893617021269</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D82)</f>
-        <v>6.4573529411764721</v>
+        <f>AVERAGE(D6:D83)</f>
+        <v>6.3928571428571432</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E82)</f>
-        <v>9.3391304347826072</v>
+        <f>AVERAGE(E6:E83)</f>
+        <v>9.31914893617021</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F82)</f>
+        <f>AVERAGE(F6:F83)</f>
         <v>8.25</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G82)</f>
-        <v>9.1088888888888864</v>
+        <f>AVERAGE(G6:G83)</f>
+        <v>9.0108695652173907</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H82)</f>
-        <v>6.9857142857142867</v>
+        <f>AVERAGE(H6:H83)</f>
+        <v>6.9534883720930249</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12778,31 +12852,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B89)</f>
+        <f>MAX(B6:B90)</f>
         <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C89)</f>
+        <f>MIN(C6:C90)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D89)</f>
+        <f>MIN(D6:D90)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E89)</f>
+        <f>MIN(E6:E90)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F89)</f>
+        <f>MIN(F6:F90)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G89)</f>
+        <f>MIN(G6:G90)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H89)</f>
+        <f>MIN(H6:H90)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14343,7 +14417,7 @@
       <c r="J50">
         <v>8</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -14367,22 +14441,53 @@
       <c r="F51">
         <v>7.7</v>
       </c>
+      <c r="G51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H51">
+        <v>5.6</v>
+      </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
         <v>8</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E52">
+        <v>8.4</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8434FD-B546-4915-B37A-F9025C93CD0F}"/>
+  <xr:revisionPtr revIDLastSave="767" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC215711-2D2B-4224-A3DC-D70D6FD062EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -119,11 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,6 +546,9 @@
                   <c:v>79.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>80.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -4103,6 +4105,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36210724318273091"/>
+          <c:y val="1.256239156282086E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4140,9 +4150,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6469816272965873E-2"/>
-          <c:y val="0.1575590115889127"/>
+          <c:y val="0.11987192295594062"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.72552446841807883"/>
+          <c:h val="0.78205536552602795"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12430,6 +12440,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K52" totalsRowShown="0">
   <autoFilter ref="A5:K52" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
@@ -12771,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12819,31 +12833,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B83)</f>
-        <v>76.054347826086982</v>
+        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B83)</f>
+        <v>76.140425531914914</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C83)</f>
+        <f t="shared" si="0"/>
         <v>7.3914893617021269</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D83)</f>
+        <f t="shared" si="0"/>
         <v>6.3928571428571432</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E83)</f>
+        <f t="shared" si="0"/>
         <v>9.31914893617021</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F83)</f>
+        <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G83)</f>
+        <f t="shared" si="0"/>
         <v>9.0108695652173907</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H83)</f>
+        <f t="shared" si="0"/>
         <v>6.9534883720930249</v>
       </c>
     </row>
@@ -12856,27 +12870,27 @@
         <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C90)</f>
+        <f t="shared" ref="C3:H3" si="1">MIN(C6:C90)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D90)</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E90)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F90)</f>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G90)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H90)</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14462,7 +14476,9 @@
       <c r="A52" s="1">
         <v>45509</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2">
+        <v>80.099999999999994</v>
+      </c>
       <c r="C52">
         <v>5.0999999999999996</v>
       </c>
@@ -14478,7 +14494,7 @@
       <c r="J52">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="767" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC215711-2D2B-4224-A3DC-D70D6FD062EF}"/>
+  <xr:revisionPtr revIDLastSave="779" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6105975-1704-497C-A09C-4C5219DCB07D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -119,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -400,16 +401,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$52</c:f>
+              <c:f>main!$B$6:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -550,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,10 +854,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -991,16 +998,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$52</c:f>
+              <c:f>main!$C$6:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1141,6 +1151,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,10 +1193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1324,16 +1337,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$52</c:f>
+              <c:f>main!$E$6:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1474,6 +1490,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,10 +1532,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1657,16 +1676,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$52</c:f>
+              <c:f>main!$G$6:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1804,6 +1826,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,10 +1871,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1987,16 +2015,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$52</c:f>
+              <c:f>main!$H$6:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2125,6 +2156,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,10 +2489,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2596,16 +2633,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$52</c:f>
+              <c:f>main!$C$6:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2746,6 +2786,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,10 +3076,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3177,16 +3220,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$52</c:f>
+              <c:f>main!$E$6:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3327,6 +3373,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,10 +3664,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3759,16 +3808,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$52</c:f>
+              <c:f>main!$G$6:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3906,6 +3958,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,10 +4262,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4348,16 +4406,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$52</c:f>
+              <c:f>main!$H$6:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4486,6 +4547,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,10 +4874,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4951,16 +5018,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$52</c:f>
+              <c:f>main!$I$6:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5064,6 +5134,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5122,10 +5195,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5266,16 +5339,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$52</c:f>
+              <c:f>main!$J$6:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5415,6 +5491,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5455,10 +5534,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5599,16 +5678,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$52</c:f>
+              <c:f>main!$K$6:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5748,6 +5830,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6124,10 +6209,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6268,16 +6353,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$52</c:f>
+              <c:f>main!$F$6:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6379,6 +6467,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6667,10 +6761,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$52</c:f>
+              <c:f>main!$A$6:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6811,16 +6905,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$52</c:f>
+              <c:f>main!$D$6:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -6925,6 +7022,9 @@
                 </c:pt>
                 <c:pt idx="46" formatCode="0.0">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12440,13 +12540,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K52" totalsRowShown="0">
-  <autoFilter ref="A5:K52" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0">
+  <autoFilter ref="A5:K53" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12783,10 +12879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12833,32 +12929,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:H2" si="0">AVERAGE(B6:B83)</f>
-        <v>76.140425531914914</v>
+        <f>AVERAGE(B6:B84)</f>
+        <v>76.208333333333357</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3914893617021269</v>
+        <f>AVERAGE(C6:C84)</f>
+        <v>7.354166666666667</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3928571428571432</v>
+        <f>AVERAGE(D6:D84)</f>
+        <v>6.3569444444444452</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.31914893617021</v>
+        <f>AVERAGE(E6:E84)</f>
+        <v>9.2541666666666647</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>8.25</v>
+        <f>AVERAGE(F6:F84)</f>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>9.0108695652173907</v>
+        <f>AVERAGE(G6:G84)</f>
+        <v>8.8479166666666647</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9534883720930249</v>
+        <f>AVERAGE(H6:H84)</f>
+        <v>6.8755555555555565</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12866,31 +12962,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B90)</f>
+        <f>MAX(B6:B91)</f>
         <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="1">MIN(C6:C90)</f>
+        <f>MIN(C6:C91)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f>MIN(D6:D91)</f>
         <v>3.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>MIN(E6:E91)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>MIN(F6:F91)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>MIN(G6:G91)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f>MIN(H6:H91)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14488,6 +14584,15 @@
       <c r="E52">
         <v>8.4</v>
       </c>
+      <c r="F52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G52">
+        <v>5.9</v>
+      </c>
+      <c r="H52">
+        <v>5.7</v>
+      </c>
       <c r="I52">
         <v>10</v>
       </c>
@@ -14499,11 +14604,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B53" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="C53">
+        <v>5.6</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E53">
+        <v>6.2</v>
+      </c>
+      <c r="F53">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G53">
+        <v>4.3</v>
+      </c>
+      <c r="H53">
+        <v>4.7</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="779" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6105975-1704-497C-A09C-4C5219DCB07D}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5E8446-13B2-4D75-91C1-C20B131EEE54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -404,16 +404,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$53</c:f>
+              <c:f>main!$B$6:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -557,6 +563,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,10 +866,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1001,16 +1013,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$53</c:f>
+              <c:f>main!$C$6:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1154,6 +1172,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,10 +1217,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1340,16 +1364,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$53</c:f>
+              <c:f>main!$E$6:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1493,6 +1523,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,10 +1568,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1679,16 +1715,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$53</c:f>
+              <c:f>main!$G$6:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1832,6 +1874,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,10 +1916,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2018,16 +2063,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$53</c:f>
+              <c:f>main!$H$6:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2162,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,10 +2543,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2636,16 +2690,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$53</c:f>
+              <c:f>main!$C$6:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2789,6 +2849,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,10 +3142,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3223,16 +3289,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$53</c:f>
+              <c:f>main!$E$6:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3376,6 +3448,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,7 +3693,7 @@
           <c:x val="6.6469816272965873E-2"/>
           <c:y val="0.14033389447934172"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.74365458816269303"/>
+          <c:h val="0.60261403360535426"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3664,10 +3742,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3811,16 +3889,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$53</c:f>
+              <c:f>main!$G$6:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -3964,6 +4048,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,10 +4349,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4409,16 +4496,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$53</c:f>
+              <c:f>main!$H$6:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4553,6 +4646,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,10 +4970,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5021,16 +5117,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$53</c:f>
+              <c:f>main!$I$6:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5137,6 +5239,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5195,10 +5303,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5342,16 +5450,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$53</c:f>
+              <c:f>main!$J$6:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5494,6 +5608,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5534,10 +5654,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5681,16 +5801,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$53</c:f>
+              <c:f>main!$K$6:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5833,6 +5959,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6209,10 +6341,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6356,16 +6488,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$53</c:f>
+              <c:f>main!$F$6:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6473,6 +6611,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,10 +6902,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$53</c:f>
+              <c:f>main!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6908,16 +7049,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$53</c:f>
+              <c:f>main!$D$6:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7025,6 +7172,12 @@
                 </c:pt>
                 <c:pt idx="47" formatCode="0.0">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12540,9 +12693,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K53" totalsRowShown="0">
-  <autoFilter ref="A5:K53" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K55" totalsRowShown="0">
+  <autoFilter ref="A5:K55" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -12879,10 +13036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12929,32 +13086,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B84)</f>
-        <v>76.208333333333357</v>
+        <f>AVERAGE(B6:B86)</f>
+        <v>76.348000000000013</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C84)</f>
-        <v>7.354166666666667</v>
+        <f>AVERAGE(C6:C86)</f>
+        <v>7.2479999999999993</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D84)</f>
-        <v>6.3569444444444452</v>
+        <f>AVERAGE(D6:D86)</f>
+        <v>6.2881578947368437</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E84)</f>
-        <v>9.2541666666666647</v>
+        <f>AVERAGE(E6:E86)</f>
+        <v>9.1599999999999984</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F84)</f>
+        <f>AVERAGE(F6:F86)</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G84)</f>
-        <v>8.8479166666666647</v>
+        <f>AVERAGE(G6:G86)</f>
+        <v>8.7448979591836729</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H84)</f>
-        <v>6.8755555555555565</v>
+        <f>AVERAGE(H6:H86)</f>
+        <v>6.8717391304347828</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12962,31 +13119,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B91)</f>
+        <f>MAX(B6:B93)</f>
         <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C91)</f>
+        <f>MIN(C6:C93)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D91)</f>
-        <v>3.9</v>
+        <f>MIN(D6:D93)</f>
+        <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E91)</f>
+        <f>MIN(E6:E93)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F91)</f>
+        <f>MIN(F6:F93)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G91)</f>
+        <f>MIN(G6:G93)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H91)</f>
+        <f>MIN(H6:H93)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14635,16 +14792,79 @@
       <c r="J53">
         <v>8</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B54" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D54">
+        <v>3.8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F54">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G54">
+        <v>3.8</v>
+      </c>
+      <c r="H54">
+        <v>6.7</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B55" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="C55">
+        <v>5.2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E55">
+        <v>7.5</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H58" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="794" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE5E8446-13B2-4D75-91C1-C20B131EEE54}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D823E2D6-91E0-45CF-8A44-1D001C7BFA8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -410,16 +410,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$55</c:f>
+              <c:f>main!$B$6:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -569,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,10 +872,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1019,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$55</c:f>
+              <c:f>main!$C$6:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1178,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,10 +1229,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1370,16 +1382,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$55</c:f>
+              <c:f>main!$E$6:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1568,10 +1583,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1721,16 +1736,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$55</c:f>
+              <c:f>main!$G$6:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1877,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,10 +1937,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2069,16 +2090,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$55</c:f>
+              <c:f>main!$H$6:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2216,6 +2240,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,10 +2570,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2696,16 +2723,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$55</c:f>
+              <c:f>main!$C$6:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2855,6 +2885,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,10 +3175,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3295,16 +3328,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$55</c:f>
+              <c:f>main!$E$6:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3742,10 +3778,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3895,16 +3931,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$55</c:f>
+              <c:f>main!$G$6:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4051,6 +4090,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4349,10 +4391,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4502,16 +4544,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$55</c:f>
+              <c:f>main!$H$6:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4649,6 +4694,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,10 +5018,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5123,16 +5171,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$55</c:f>
+              <c:f>main!$I$6:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5245,6 +5296,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5303,10 +5357,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5456,16 +5510,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$55</c:f>
+              <c:f>main!$J$6:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5614,6 +5671,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5654,10 +5714,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5807,16 +5867,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$55</c:f>
+              <c:f>main!$K$6:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5965,6 +6028,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6341,10 +6407,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6494,16 +6560,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$55</c:f>
+              <c:f>main!$F$6:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6614,6 +6683,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,10 +6974,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$55</c:f>
+              <c:f>main!$A$6:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7055,16 +7127,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$55</c:f>
+              <c:f>main!$D$6:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7178,6 +7253,9 @@
                 </c:pt>
                 <c:pt idx="49" formatCode="0.0">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0">
+                  <c:v>7.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12693,13 +12771,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K55" totalsRowShown="0">
-  <autoFilter ref="A5:K55" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K56" totalsRowShown="0">
+  <autoFilter ref="A5:K56" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13036,10 +13110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13086,32 +13160,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B86)</f>
-        <v>76.348000000000013</v>
+        <f>AVERAGE(B6:B87)</f>
+        <v>76.415686274509824</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C86)</f>
-        <v>7.2479999999999993</v>
+        <f>AVERAGE(C6:C87)</f>
+        <v>7.2352941176470589</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D86)</f>
-        <v>6.2881578947368437</v>
+        <f>AVERAGE(D6:D87)</f>
+        <v>6.3141025641025657</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E86)</f>
+        <f>AVERAGE(E6:E87)</f>
         <v>9.1599999999999984</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F86)</f>
-        <v>8.1999999999999993</v>
+        <f>AVERAGE(F6:F87)</f>
+        <v>8.1578947368421044</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G86)</f>
-        <v>8.7448979591836729</v>
+        <f>AVERAGE(G6:G87)</f>
+        <v>8.6859999999999999</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H86)</f>
-        <v>6.8717391304347828</v>
+        <f>AVERAGE(H6:H87)</f>
+        <v>6.8319148936170215</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13119,31 +13193,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B93)</f>
+        <f>MAX(B6:B94)</f>
         <v>80.099999999999994</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C93)</f>
+        <f>MIN(C6:C94)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D93)</f>
+        <f>MIN(D6:D94)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E93)</f>
+        <f>MIN(E6:E94)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F93)</f>
+        <f>MIN(F6:F94)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G93)</f>
+        <f>MIN(G6:G94)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H93)</f>
+        <f>MIN(H6:H94)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14828,7 +14902,7 @@
       <c r="J54">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -14849,22 +14923,55 @@
       <c r="E55">
         <v>7.5</v>
       </c>
+      <c r="F55">
+        <v>6.6</v>
+      </c>
+      <c r="G55">
+        <v>5.8</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
       <c r="I55">
         <v>10</v>
       </c>
       <c r="J55">
         <v>8</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B56" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="C56">
+        <v>6.6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D823E2D6-91E0-45CF-8A44-1D001C7BFA8B}"/>
+  <xr:revisionPtr revIDLastSave="820" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF0E5F8-802C-41FC-820B-BDB2C494819C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -413,16 +413,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$56</c:f>
+              <c:f>main!$B$6:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -575,6 +581,12 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,10 +884,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1028,16 +1040,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$56</c:f>
+              <c:f>main!$C$6:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1190,6 +1208,12 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,10 +1253,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1385,16 +1409,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$56</c:f>
+              <c:f>main!$E$6:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1544,6 +1574,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,10 +1619,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1739,16 +1775,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$56</c:f>
+              <c:f>main!$G$6:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1898,6 +1940,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,10 +1985,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2093,16 +2141,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$56</c:f>
+              <c:f>main!$H$6:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2243,6 +2297,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,10 +2630,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2726,16 +2786,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$56</c:f>
+              <c:f>main!$C$6:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2888,6 +2954,12 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,10 +3247,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3331,16 +3403,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$56</c:f>
+              <c:f>main!$E$6:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3490,6 +3568,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3778,10 +3862,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3934,16 +4018,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$56</c:f>
+              <c:f>main!$G$6:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4093,6 +4183,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,10 +4487,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4547,16 +4643,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$56</c:f>
+              <c:f>main!$H$6:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4697,6 +4799,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5018,10 +5126,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5174,16 +5282,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$56</c:f>
+              <c:f>main!$I$6:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5299,6 +5413,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5357,10 +5477,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5513,16 +5633,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$56</c:f>
+              <c:f>main!$J$6:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5674,6 +5800,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5714,10 +5846,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5870,16 +6002,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$56</c:f>
+              <c:f>main!$K$6:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6031,6 +6169,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6407,10 +6551,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6563,16 +6707,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$56</c:f>
+              <c:f>main!$F$6:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6685,6 +6835,12 @@
                   <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -6974,10 +7130,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$56</c:f>
+              <c:f>main!$A$6:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7130,16 +7286,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$56</c:f>
+              <c:f>main!$D$6:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7256,6 +7418,12 @@
                 </c:pt>
                 <c:pt idx="50" formatCode="0.0">
                   <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12771,9 +12939,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K56" totalsRowShown="0">
-  <autoFilter ref="A5:K56" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K58" totalsRowShown="0">
+  <autoFilter ref="A5:K58" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13110,10 +13282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13160,32 +13332,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B87)</f>
-        <v>76.415686274509824</v>
+        <f>AVERAGE(B6:B89)</f>
+        <v>76.581132075471714</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C87)</f>
-        <v>7.2352941176470589</v>
+        <f>AVERAGE(C6:C89)</f>
+        <v>7.1811320754716972</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D87)</f>
-        <v>6.3141025641025657</v>
+        <f>AVERAGE(D6:D89)</f>
+        <v>6.2402439024390253</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E87)</f>
-        <v>9.1599999999999984</v>
+        <f>AVERAGE(E6:E89)</f>
+        <v>9.0673076923076898</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F87)</f>
-        <v>8.1578947368421044</v>
+        <f>AVERAGE(F6:F89)</f>
+        <v>8.1100000000000012</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G87)</f>
-        <v>8.6859999999999999</v>
+        <f>AVERAGE(G6:G89)</f>
+        <v>8.6365384615384606</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H87)</f>
-        <v>6.8319148936170215</v>
+        <f>AVERAGE(H6:H89)</f>
+        <v>6.8448979591836743</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13193,31 +13365,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B94)</f>
-        <v>80.099999999999994</v>
+        <f>MAX(B6:B96)</f>
+        <v>80.900000000000006</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C94)</f>
+        <f>MIN(C6:C96)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D94)</f>
+        <f>MIN(D6:D96)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E94)</f>
+        <f>MIN(E6:E96)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F94)</f>
+        <f>MIN(F6:F96)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G94)</f>
+        <f>MIN(G6:G96)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H94)</f>
+        <f>MIN(H6:H96)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -14956,22 +15128,94 @@
       <c r="D56" s="2">
         <v>7.3</v>
       </c>
+      <c r="E56">
+        <v>6.1</v>
+      </c>
+      <c r="F56">
+        <v>7.8</v>
+      </c>
+      <c r="G56">
+        <v>8.5</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56">
         <v>8</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B57" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="C57">
+        <v>5.7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E57">
+        <v>7.4</v>
+      </c>
+      <c r="F57">
+        <v>6.6</v>
+      </c>
+      <c r="G57">
+        <v>6.3</v>
+      </c>
+      <c r="H57">
+        <v>6.3</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45515</v>
+      </c>
+      <c r="B58" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C58">
+        <v>5.9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H61" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF0E5F8-802C-41FC-820B-BDB2C494819C}"/>
+  <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C357EF-066E-49CD-B3C0-37CB89A9F510}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -419,16 +419,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$58</c:f>
+              <c:f>main!$B$6:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -586,6 +592,12 @@
                   <c:v>80.7</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>80.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -884,10 +896,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1046,16 +1058,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$58</c:f>
+              <c:f>main!$C$6:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1214,6 +1232,12 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,10 +1277,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1415,16 +1439,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$58</c:f>
+              <c:f>main!$E$6:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1580,6 +1610,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,10 +1655,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1781,16 +1817,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$58</c:f>
+              <c:f>main!$G$6:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1946,6 +1988,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,10 +2033,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2147,16 +2195,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$58</c:f>
+              <c:f>main!$H$6:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2302,6 +2356,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2630,10 +2690,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2792,16 +2852,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$58</c:f>
+              <c:f>main!$C$6:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -2960,6 +3026,12 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,10 +3319,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3409,16 +3481,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$58</c:f>
+              <c:f>main!$E$6:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3574,6 +3652,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,10 +3946,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4024,16 +4108,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$58</c:f>
+              <c:f>main!$G$6:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4189,6 +4279,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,10 +4583,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4649,16 +4745,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$58</c:f>
+              <c:f>main!$H$6:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4804,6 +4906,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5126,10 +5234,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5288,16 +5396,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$58</c:f>
+              <c:f>main!$I$6:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5419,6 +5533,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5477,10 +5597,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5639,16 +5759,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$58</c:f>
+              <c:f>main!$J$6:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5806,6 +5932,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5846,10 +5978,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6008,16 +6140,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$58</c:f>
+              <c:f>main!$K$6:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6175,6 +6313,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6551,10 +6695,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6713,16 +6857,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$58</c:f>
+              <c:f>main!$F$6:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6842,6 +6992,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7130,10 +7286,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$58</c:f>
+              <c:f>main!$A$6:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7292,16 +7448,22 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45515</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$58</c:f>
+              <c:f>main!$D$6:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7424,6 +7586,12 @@
                 </c:pt>
                 <c:pt idx="52" formatCode="0.0">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0">
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12944,8 +13112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K58" totalsRowShown="0">
-  <autoFilter ref="A5:K58" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K60" totalsRowShown="0">
+  <autoFilter ref="A5:K60" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13282,10 +13450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13332,32 +13500,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B89)</f>
-        <v>76.581132075471714</v>
+        <f>AVERAGE(B6:B91)</f>
+        <v>76.729090909090914</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C89)</f>
-        <v>7.1811320754716972</v>
+        <f>AVERAGE(C6:C91)</f>
+        <v>7.1145454545454534</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D89)</f>
-        <v>6.2402439024390253</v>
+        <f>AVERAGE(D6:D91)</f>
+        <v>6.2383720930232576</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E89)</f>
-        <v>9.0673076923076898</v>
+        <f>AVERAGE(E6:E91)</f>
+        <v>8.9055555555555532</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F89)</f>
-        <v>8.1100000000000012</v>
+        <f>AVERAGE(F6:F91)</f>
+        <v>8.0690476190476197</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G89)</f>
-        <v>8.6365384615384606</v>
+        <f>AVERAGE(G6:G91)</f>
+        <v>8.5333333333333332</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H89)</f>
-        <v>6.8448979591836743</v>
+        <f>AVERAGE(H6:H91)</f>
+        <v>6.8000000000000016</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13365,31 +13533,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B96)</f>
+        <f>MAX(B6:B98)</f>
         <v>80.900000000000006</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C96)</f>
+        <f>MIN(C6:C98)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D96)</f>
+        <f>MIN(D6:D98)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E96)</f>
+        <f>MIN(E6:E98)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F96)</f>
+        <f>MIN(F6:F98)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G96)</f>
+        <f>MIN(G6:G98)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H96)</f>
+        <f>MIN(H6:H98)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -15182,7 +15350,7 @@
       <c r="J57">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -15200,22 +15368,94 @@
       <c r="D58" s="2">
         <v>5.2</v>
       </c>
+      <c r="E58">
+        <v>4.8</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>5.7</v>
+      </c>
+      <c r="H58">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="I58">
         <v>10</v>
       </c>
       <c r="J58">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B59" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C59">
+        <v>4.7</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F59">
+        <v>5.5</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>6.3</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B60" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H63" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C357EF-066E-49CD-B3C0-37CB89A9F510}"/>
+  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E9B9E7-627E-4D6D-B82A-651CD4974500}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -425,16 +425,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$60</c:f>
+              <c:f>main!$B$6:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -599,6 +602,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,10 +902,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1064,16 +1070,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$60</c:f>
+              <c:f>main!$C$6:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1238,6 +1247,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,10 +1289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1445,16 +1457,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$60</c:f>
+              <c:f>main!$E$6:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1616,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,10 +1673,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1823,16 +1841,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$60</c:f>
+              <c:f>main!$G$6:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -1994,6 +2015,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,10 +2057,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2201,16 +2225,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$60</c:f>
+              <c:f>main!$H$6:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2363,6 +2390,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,10 +2720,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2858,16 +2888,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$60</c:f>
+              <c:f>main!$C$6:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3032,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,10 +3355,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3487,16 +3523,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$60</c:f>
+              <c:f>main!$E$6:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3658,6 +3697,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,10 +3988,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4114,16 +4156,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$60</c:f>
+              <c:f>main!$G$6:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4285,6 +4330,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,10 +4631,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4751,16 +4799,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$60</c:f>
+              <c:f>main!$H$6:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4913,6 +4964,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,10 +5288,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5402,16 +5456,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$60</c:f>
+              <c:f>main!$I$6:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5539,6 +5596,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5597,10 +5657,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5765,16 +5825,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$60</c:f>
+              <c:f>main!$J$6:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5938,6 +6001,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5978,10 +6044,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6146,16 +6212,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$60</c:f>
+              <c:f>main!$K$6:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6319,6 +6388,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6695,10 +6767,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6863,16 +6935,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$60</c:f>
+              <c:f>main!$F$6:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -6998,6 +7073,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7286,10 +7364,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$60</c:f>
+              <c:f>main!$A$6:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7454,16 +7532,19 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$60</c:f>
+              <c:f>main!$D$6:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7592,6 +7673,9 @@
                 </c:pt>
                 <c:pt idx="54" formatCode="0.0">
                   <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13112,8 +13196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K60" totalsRowShown="0">
-  <autoFilter ref="A5:K60" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K61" totalsRowShown="0">
+  <autoFilter ref="A5:K61" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13450,10 +13534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13500,32 +13584,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B91)</f>
-        <v>76.729090909090914</v>
+        <f>AVERAGE(B6:B92)</f>
+        <v>76.785714285714292</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C91)</f>
-        <v>7.1145454545454534</v>
+        <f>AVERAGE(C6:C92)</f>
+        <v>7.0874999999999995</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D91)</f>
-        <v>6.2383720930232576</v>
+        <f>AVERAGE(D6:D92)</f>
+        <v>6.2284090909090928</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E91)</f>
-        <v>8.9055555555555532</v>
+        <f>AVERAGE(E6:E92)</f>
+        <v>8.84181818181818</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F91)</f>
-        <v>8.0690476190476197</v>
+        <f>AVERAGE(F6:F92)</f>
+        <v>8.0534883720930228</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G91)</f>
-        <v>8.5333333333333332</v>
+        <f>AVERAGE(G6:G92)</f>
+        <v>8.5363636363636353</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H91)</f>
-        <v>6.8000000000000016</v>
+        <f>AVERAGE(H6:H92)</f>
+        <v>6.7500000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13533,31 +13617,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B98)</f>
+        <f>MAX(B6:B99)</f>
         <v>80.900000000000006</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C98)</f>
+        <f>MIN(C6:C99)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D98)</f>
+        <f>MIN(D6:D99)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E98)</f>
+        <f>MIN(E6:E99)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F98)</f>
+        <f>MIN(F6:F99)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G98)</f>
+        <f>MIN(G6:G99)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H98)</f>
+        <f>MIN(H6:H99)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -15422,7 +15506,7 @@
       <c r="J59">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -15440,22 +15524,58 @@
       <c r="D60" s="2">
         <v>7.8</v>
       </c>
+      <c r="E60">
+        <v>5.4</v>
+      </c>
+      <c r="F60">
+        <v>7.4</v>
+      </c>
+      <c r="G60">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H60">
+        <v>4.2</v>
+      </c>
       <c r="I60">
         <v>10</v>
       </c>
       <c r="J60">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B61" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C61">
+        <v>5.6</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E9B9E7-627E-4D6D-B82A-651CD4974500}"/>
+  <xr:revisionPtr revIDLastSave="863" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA74F8A5-40FA-4185-B3EE-B3B51F8845D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -428,16 +428,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$61</c:f>
+              <c:f>main!$B$6:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -604,6 +610,12 @@
                   <c:v>80.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>79.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -902,10 +914,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1073,16 +1085,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$61</c:f>
+              <c:f>main!$C$6:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1250,6 +1268,12 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,10 +1313,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1460,16 +1484,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$61</c:f>
+              <c:f>main!$E$6:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1634,6 +1664,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,10 +1709,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1844,16 +1880,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$61</c:f>
+              <c:f>main!$G$6:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2018,6 +2060,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,10 +2105,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2228,16 +2276,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$61</c:f>
+              <c:f>main!$H$6:$H$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2393,6 +2447,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,10 +2780,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2891,16 +2951,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$61</c:f>
+              <c:f>main!$C$6:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3068,6 +3134,12 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,10 +3427,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3526,16 +3598,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$61</c:f>
+              <c:f>main!$E$6:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3700,6 +3778,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,10 +4072,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4159,16 +4243,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$61</c:f>
+              <c:f>main!$G$6:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4333,6 +4423,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4631,10 +4727,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4802,16 +4898,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$61</c:f>
+              <c:f>main!$H$6:$H$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -4967,6 +5069,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,10 +5396,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5459,16 +5567,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$61</c:f>
+              <c:f>main!$I$6:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5599,6 +5713,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5657,10 +5777,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5828,16 +5948,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$61</c:f>
+              <c:f>main!$J$6:$J$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6004,6 +6130,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -6044,10 +6176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6215,16 +6347,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$61</c:f>
+              <c:f>main!$K$6:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6391,6 +6529,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6767,10 +6911,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6938,16 +7082,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$61</c:f>
+              <c:f>main!$F$6:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -7076,6 +7226,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7364,10 +7520,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$61</c:f>
+              <c:f>main!$A$6:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7535,16 +7691,22 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$61</c:f>
+              <c:f>main!$D$6:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7676,6 +7838,12 @@
                 </c:pt>
                 <c:pt idx="55" formatCode="0.0">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13196,8 +13364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K61" totalsRowShown="0">
-  <autoFilter ref="A5:K61" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K63" totalsRowShown="0">
+  <autoFilter ref="A5:K63" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13534,10 +13702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13584,32 +13752,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B92)</f>
-        <v>76.785714285714292</v>
+        <f>AVERAGE(B6:B94)</f>
+        <v>76.884482758620678</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C92)</f>
-        <v>7.0874999999999995</v>
+        <f>AVERAGE(C6:C94)</f>
+        <v>7.025862068965516</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D92)</f>
-        <v>6.2284090909090928</v>
+        <f>AVERAGE(D6:D94)</f>
+        <v>6.198913043478262</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E92)</f>
-        <v>8.84181818181818</v>
+        <f>AVERAGE(E6:E94)</f>
+        <v>8.7719298245614024</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F92)</f>
-        <v>8.0534883720930228</v>
+        <f>AVERAGE(F6:F94)</f>
+        <v>7.9466666666666672</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G92)</f>
-        <v>8.5363636363636353</v>
+        <f>AVERAGE(G6:G94)</f>
+        <v>8.4684210526315784</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H92)</f>
-        <v>6.7500000000000009</v>
+        <f>AVERAGE(H6:H94)</f>
+        <v>6.8166666666666682</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13617,31 +13785,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B99)</f>
+        <f>MAX(B6:B101)</f>
         <v>80.900000000000006</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C99)</f>
+        <f>MIN(C6:C101)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D99)</f>
+        <f>MIN(D6:D101)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E99)</f>
+        <f>MIN(E6:E101)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F99)</f>
+        <f>MIN(F6:F101)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G99)</f>
+        <f>MIN(G6:G101)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H99)</f>
+        <f>MIN(H6:H101)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -15560,22 +15728,94 @@
       <c r="D61" s="2">
         <v>5.8</v>
       </c>
+      <c r="E61">
+        <v>5.9</v>
+      </c>
+      <c r="F61">
+        <v>5.5</v>
+      </c>
+      <c r="G61">
+        <v>5.3</v>
+      </c>
+      <c r="H61">
+        <v>10.5</v>
+      </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61">
         <v>8</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B62" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="C62">
+        <v>5.7</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E62">
+        <v>7.8</v>
+      </c>
+      <c r="F62">
+        <v>5.8</v>
+      </c>
+      <c r="G62">
+        <v>7.9</v>
+      </c>
+      <c r="H62">
+        <v>6.6</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B63" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C63">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H66" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="863" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA74F8A5-40FA-4185-B3EE-B3B51F8845D4}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9FD90D-4D64-470C-BE61-94E35BC1972C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -434,16 +434,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$63</c:f>
+              <c:f>main!$B$6:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -617,6 +635,24 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,10 +950,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1091,16 +1127,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$63</c:f>
+              <c:f>main!$C$6:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1274,6 +1328,24 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,10 +1385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1490,16 +1562,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$63</c:f>
+              <c:f>main!$E$6:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1670,6 +1760,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,10 +1817,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1886,16 +1994,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$63</c:f>
+              <c:f>main!$G$6:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2066,6 +2192,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,10 +2249,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2282,16 +2426,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$63</c:f>
+              <c:f>main!$H$6:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2453,6 +2615,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,10 +2960,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2957,16 +3137,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$63</c:f>
+              <c:f>main!$C$6:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3140,6 +3338,24 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,10 +3643,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3604,16 +3820,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$63</c:f>
+              <c:f>main!$E$6:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -3784,6 +4018,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4072,10 +4324,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4249,16 +4501,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$63</c:f>
+              <c:f>main!$G$6:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4429,6 +4699,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,10 +5015,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4904,16 +5192,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$63</c:f>
+              <c:f>main!$H$6:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5075,6 +5381,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,10 +5720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5573,16 +5897,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$63</c:f>
+              <c:f>main!$I$6:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5719,6 +6061,24 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5777,10 +6137,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5954,16 +6314,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$63</c:f>
+              <c:f>main!$J$6:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6136,6 +6514,24 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -6176,10 +6572,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6353,16 +6749,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$63</c:f>
+              <c:f>main!$K$6:$K$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6535,6 +6949,24 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -6911,10 +7343,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7088,16 +7520,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$63</c:f>
+              <c:f>main!$F$6:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -7232,6 +7682,24 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7520,10 +7988,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$63</c:f>
+              <c:f>main!$A$6:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7697,16 +8165,34 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45522</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$63</c:f>
+              <c:f>main!$D$6:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -7844,6 +8330,24 @@
                 </c:pt>
                 <c:pt idx="57" formatCode="0.0">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13364,8 +13868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K63" totalsRowShown="0">
-  <autoFilter ref="A5:K63" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K69" totalsRowShown="0">
+  <autoFilter ref="A5:K69" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -13702,10 +14206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD66"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13752,32 +14256,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B94)</f>
-        <v>76.884482758620678</v>
+        <f>AVERAGE(B6:B100)</f>
+        <v>77.234374999999986</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C94)</f>
-        <v>7.025862068965516</v>
+        <f>AVERAGE(C6:C100)</f>
+        <v>6.8218749999999986</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D94)</f>
-        <v>6.198913043478262</v>
+        <f>AVERAGE(D6:D100)</f>
+        <v>6.1086538461538469</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E94)</f>
-        <v>8.7719298245614024</v>
+        <f>AVERAGE(E6:E100)</f>
+        <v>8.4793650793650759</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F94)</f>
-        <v>7.9466666666666672</v>
+        <f>AVERAGE(F6:F100)</f>
+        <v>7.7901960784313724</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G94)</f>
-        <v>8.4684210526315784</v>
+        <f>AVERAGE(G6:G100)</f>
+        <v>8.3698412698412668</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H94)</f>
-        <v>6.8166666666666682</v>
+        <f>AVERAGE(H6:H100)</f>
+        <v>6.7916666666666679</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13785,31 +14289,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B101)</f>
-        <v>80.900000000000006</v>
+        <f>MAX(B6:B107)</f>
+        <v>81.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C101)</f>
+        <f>MIN(C6:C107)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D101)</f>
+        <f>MIN(D6:D107)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E101)</f>
+        <f>MIN(E6:E107)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F101)</f>
+        <f>MIN(F6:F107)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G101)</f>
+        <f>MIN(G6:G107)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H101)</f>
+        <f>MIN(H6:H107)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -15782,7 +16286,7 @@
       <c r="J62">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -15800,22 +16304,238 @@
       <c r="D63" s="2">
         <v>5.4</v>
       </c>
+      <c r="E63">
+        <v>5.8</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>7.5</v>
+      </c>
+      <c r="H63">
+        <v>7.9</v>
+      </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63">
         <v>8</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B64" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="C64">
+        <v>5.7</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E64">
+        <v>4.8</v>
+      </c>
+      <c r="F64">
+        <v>5.6</v>
+      </c>
+      <c r="G64">
+        <v>8.4</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>8</v>
+      </c>
+      <c r="K64" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B65" s="2">
+        <v>81</v>
+      </c>
+      <c r="C65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E65">
+        <v>6.3</v>
+      </c>
+      <c r="F65">
+        <v>5.7</v>
+      </c>
+      <c r="G65">
+        <v>9.9</v>
+      </c>
+      <c r="H65">
+        <v>6.3</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B66" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="C66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E66">
+        <v>5.3</v>
+      </c>
+      <c r="F66">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G66">
+        <v>5.3</v>
+      </c>
+      <c r="H66">
+        <v>6.9</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B67" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="C67">
+        <v>4.2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E67">
+        <v>7.1</v>
+      </c>
+      <c r="F67">
+        <v>8.5</v>
+      </c>
+      <c r="G67">
+        <v>6.2</v>
+      </c>
+      <c r="H67">
+        <v>6.5</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B68" s="2">
+        <v>80.3</v>
+      </c>
+      <c r="C68">
+        <v>4.3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>7.3</v>
+      </c>
+      <c r="H68">
+        <v>6.8</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B69" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C69">
+        <v>5.4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H72" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9FD90D-4D64-470C-BE61-94E35BC1972C}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDF97E6-25B1-45B0-AB2A-98C2C50D8A2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -452,16 +452,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$69</c:f>
+              <c:f>main!$B$6:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -653,6 +659,12 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>80.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,10 +962,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1145,16 +1157,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$69</c:f>
+              <c:f>main!$C$6:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1346,6 +1364,12 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,10 +1409,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1580,16 +1604,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$69</c:f>
+              <c:f>main!$E$6:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1778,6 +1808,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,10 +1856,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2012,16 +2051,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$69</c:f>
+              <c:f>main!$G$6:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2210,6 +2255,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,10 +2303,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2444,16 +2498,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$69</c:f>
+              <c:f>main!$H$6:$H$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2633,6 +2693,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,10 +3026,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3155,16 +3221,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$69</c:f>
+              <c:f>main!$C$6:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3356,6 +3428,12 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,10 +3721,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3838,16 +3916,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$69</c:f>
+              <c:f>main!$E$6:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -4036,6 +4120,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4324,10 +4417,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4519,16 +4612,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$69</c:f>
+              <c:f>main!$G$6:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4717,6 +4816,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,10 +5123,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5210,16 +5318,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$69</c:f>
+              <c:f>main!$H$6:$H$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5399,6 +5513,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,10 +5840,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5915,16 +6035,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$69</c:f>
+              <c:f>main!$I$6:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6079,6 +6205,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -6137,10 +6269,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6332,16 +6464,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$69</c:f>
+              <c:f>main!$J$6:$J$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6532,6 +6670,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -6572,10 +6716,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6767,16 +6911,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$69</c:f>
+              <c:f>main!$K$6:$K$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6967,6 +7117,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -7343,10 +7499,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7538,16 +7694,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$69</c:f>
+              <c:f>main!$F$6:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -7700,6 +7862,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7988,10 +8159,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$69</c:f>
+              <c:f>main!$A$6:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -8183,16 +8354,22 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$69</c:f>
+              <c:f>main!$D$6:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -8348,6 +8525,12 @@
                 </c:pt>
                 <c:pt idx="63" formatCode="0.0">
                   <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.0">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13868,8 +14051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K69" totalsRowShown="0">
-  <autoFilter ref="A5:K69" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K71" totalsRowShown="0">
+  <autoFilter ref="A5:K71" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -14206,10 +14389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14256,32 +14439,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B100)</f>
-        <v>77.234374999999986</v>
+        <f>AVERAGE(B6:B102)</f>
+        <v>77.34393939393938</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C100)</f>
-        <v>6.8218749999999986</v>
+        <f>AVERAGE(C6:C102)</f>
+        <v>6.7515151515151501</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D100)</f>
-        <v>6.1086538461538469</v>
+        <f>AVERAGE(D6:D102)</f>
+        <v>6.0435185185185185</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E100)</f>
-        <v>8.4793650793650759</v>
+        <f>AVERAGE(E6:E102)</f>
+        <v>8.389393939393937</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F100)</f>
-        <v>7.7901960784313724</v>
+        <f>AVERAGE(F6:F102)</f>
+        <v>7.7018518518518526</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G100)</f>
-        <v>8.3698412698412668</v>
+        <f>AVERAGE(G6:G102)</f>
+        <v>8.2439393939393906</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H100)</f>
-        <v>6.7916666666666679</v>
+        <f>AVERAGE(H6:H102)</f>
+        <v>6.7387096774193553</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -14289,32 +14472,32 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B107)</f>
+        <f>MAX(B6:B109)</f>
         <v>81.3</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C107)</f>
+        <f>MIN(C6:C109)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D107)</f>
+        <f>MIN(D6:D109)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E107)</f>
+        <f>MIN(E6:E109)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F107)</f>
+        <f>MIN(F6:F109)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G107)</f>
+        <f>MIN(G6:G109)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H107)</f>
-        <v>4.0999999999999996</v>
+        <f>MIN(H6:H109)</f>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -16358,7 +16541,7 @@
       <c r="J64">
         <v>8</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16394,7 +16577,7 @@
       <c r="J65">
         <v>8</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16430,7 +16613,7 @@
       <c r="J66">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16466,7 +16649,7 @@
       <c r="J67">
         <v>8</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16502,7 +16685,7 @@
       <c r="J68">
         <v>8</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16520,22 +16703,103 @@
       <c r="D69" s="2">
         <v>5.7</v>
       </c>
+      <c r="E69">
+        <v>6.7</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>4.3</v>
+      </c>
+      <c r="H69">
+        <v>3.9</v>
+      </c>
       <c r="I69">
         <v>10</v>
       </c>
       <c r="J69">
         <v>8</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B70" s="2">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>4.8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E70">
+        <v>5.8</v>
+      </c>
+      <c r="F70">
+        <v>5.8</v>
+      </c>
+      <c r="G70">
+        <v>6.1</v>
+      </c>
+      <c r="H70">
+        <v>6.4</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B71" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="C71">
+        <v>4.2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>5.8</v>
+      </c>
+      <c r="G71">
+        <v>6.4</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H74" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EDF97E6-25B1-45B0-AB2A-98C2C50D8A2F}"/>
+  <xr:revisionPtr revIDLastSave="998" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE86E642-C79B-4D8C-B1F6-718D7E7E484F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -458,16 +458,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$71</c:f>
+              <c:f>main!$B$6:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -665,6 +692,33 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>80.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +1016,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1163,16 +1217,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$71</c:f>
+              <c:f>main!$C$6:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1370,6 +1451,33 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,10 +1517,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1610,16 +1718,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$71</c:f>
+              <c:f>main!$E$6:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1817,6 +1952,30 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,10 +2015,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2057,16 +2216,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$71</c:f>
+              <c:f>main!$G$6:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2264,6 +2450,30 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,10 +2513,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2504,16 +2714,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$71</c:f>
+              <c:f>main!$H$6:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2699,6 +2936,33 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,10 +3290,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3227,16 +3491,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$71</c:f>
+              <c:f>main!$C$6:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3434,6 +3725,33 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,10 +4039,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3922,16 +4240,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$71</c:f>
+              <c:f>main!$E$6:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -4129,6 +4474,30 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,10 +4786,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4618,16 +4987,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$71</c:f>
+              <c:f>main!$G$6:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -4825,6 +5221,30 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,10 +5543,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5324,16 +5744,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$71</c:f>
+              <c:f>main!$H$6:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5519,6 +5966,33 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5840,10 +6314,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6041,16 +6515,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$71</c:f>
+              <c:f>main!$I$6:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6211,6 +6712,33 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -6269,10 +6797,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6470,16 +6998,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$71</c:f>
+              <c:f>main!$J$6:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6676,6 +7231,33 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -6716,10 +7298,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6917,16 +7499,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$71</c:f>
+              <c:f>main!$K$6:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7123,6 +7732,33 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -7499,10 +8135,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7700,16 +8336,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$71</c:f>
+              <c:f>main!$F$6:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -7871,6 +8534,30 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8159,10 +8846,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$71</c:f>
+              <c:f>main!$A$6:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -8360,16 +9047,43 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45535</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$71</c:f>
+              <c:f>main!$D$6:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -8531,6 +9245,33 @@
                 </c:pt>
                 <c:pt idx="65" formatCode="0.0">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.0">
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14051,8 +14792,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K71" totalsRowShown="0">
-  <autoFilter ref="A5:K71" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K80" totalsRowShown="0">
+  <autoFilter ref="A5:K80" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -14389,10 +15130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14439,32 +15180,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B102)</f>
-        <v>77.34393939393938</v>
+        <f>AVERAGE(B6:B111)</f>
+        <v>77.817333333333323</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C102)</f>
-        <v>6.7515151515151501</v>
+        <f>AVERAGE(C6:C111)</f>
+        <v>6.6453333333333306</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D102)</f>
-        <v>6.0435185185185185</v>
+        <f>AVERAGE(D6:D111)</f>
+        <v>6.0007936507936508</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E102)</f>
-        <v>8.389393939393937</v>
+        <f>AVERAGE(E6:E111)</f>
+        <v>8.2256756756756708</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F102)</f>
-        <v>7.7018518518518526</v>
+        <f>AVERAGE(F6:F111)</f>
+        <v>7.5016129032258076</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G102)</f>
-        <v>8.2439393939393906</v>
+        <f>AVERAGE(G6:G111)</f>
+        <v>8.2229729729729701</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H102)</f>
-        <v>6.7387096774193553</v>
+        <f>AVERAGE(H6:H111)</f>
+        <v>6.6816901408450713</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -14472,32 +15213,32 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B109)</f>
-        <v>81.3</v>
+        <f>MAX(B6:B118)</f>
+        <v>82</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C109)</f>
+        <f>MIN(C6:C118)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D109)</f>
+        <f>MIN(D6:D118)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E109)</f>
+        <f>MIN(E6:E118)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F109)</f>
+        <f>MIN(F6:F118)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G109)</f>
+        <f>MIN(G6:G118)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H109)</f>
-        <v>3.9</v>
+        <f>MIN(H6:H118)</f>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -16757,7 +17498,7 @@
       <c r="J70">
         <v>8</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -16784,22 +17525,337 @@
       <c r="G71">
         <v>6.4</v>
       </c>
+      <c r="H71">
+        <v>7.7</v>
+      </c>
       <c r="I71">
         <v>10</v>
       </c>
       <c r="J71">
         <v>8</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B72" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F72">
+        <v>5.3</v>
+      </c>
+      <c r="G72">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H72">
+        <v>7.7</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B73" s="2">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>6.2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>6.5</v>
+      </c>
+      <c r="G73">
+        <v>5.9</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+      <c r="A74" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B74" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C74">
+        <v>5.8</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E74">
+        <v>6.3</v>
+      </c>
+      <c r="F74">
+        <v>6.1</v>
+      </c>
+      <c r="G74">
+        <v>7.2</v>
+      </c>
+      <c r="H74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B75" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C75">
+        <v>5.5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>11.3</v>
+      </c>
+      <c r="H75">
+        <v>10.8</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
+      <c r="K75" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B76" s="2">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>5.7</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>6.5</v>
+      </c>
+      <c r="G76">
+        <v>10.6</v>
+      </c>
+      <c r="H76">
+        <v>3.8</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B77" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C77">
+        <v>5.9</v>
+      </c>
+      <c r="D77" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E77">
+        <v>5.8</v>
+      </c>
+      <c r="F77">
+        <v>5.4</v>
+      </c>
+      <c r="G77">
+        <v>11.3</v>
+      </c>
+      <c r="H77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
+      <c r="K77" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B78" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="C78">
+        <v>6.4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E78">
+        <v>9.9</v>
+      </c>
+      <c r="F78">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>5.3</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+      <c r="K78" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B79" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="C79">
+        <v>5.9</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F79">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G79">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H79">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B80" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="C80">
+        <v>6.4</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>8</v>
+      </c>
+      <c r="K80" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>13</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H83" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE86E642-C79B-4D8C-B1F6-718D7E7E484F}"/>
+  <xr:revisionPtr revIDLastSave="1047" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D8B013-DD15-49A7-B93F-79FA6EC5E9E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -485,16 +485,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$80</c:f>
+              <c:f>main!$B$6:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -719,6 +737,24 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,9 +1016,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.7736989937087363E-2"/>
-          <c:y val="8.8368207184494452E-2"/>
+          <c:y val="7.2880655584035267E-2"/>
           <c:w val="0.90297462817147855"/>
-          <c:h val="0.77617171820397113"/>
+          <c:h val="0.7400340360941946"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1016,10 +1052,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1244,16 +1280,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$80</c:f>
+              <c:f>main!$C$6:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1478,6 +1532,24 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,10 +1589,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1745,16 +1817,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$80</c:f>
+              <c:f>main!$E$6:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1976,6 +2066,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,10 +2123,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2243,16 +2351,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$80</c:f>
+              <c:f>main!$G$6:$G$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2474,6 +2600,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,10 +2657,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2741,16 +2885,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$80</c:f>
+              <c:f>main!$H$6:$H$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -2963,6 +3125,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,10 +3470,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3518,16 +3698,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$80</c:f>
+              <c:f>main!$C$6:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3752,6 +3950,24 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4039,10 +4255,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4267,16 +4483,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$80</c:f>
+              <c:f>main!$E$6:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -4498,6 +4732,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,10 +5038,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5014,16 +5266,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$80</c:f>
+              <c:f>main!$G$6:$G$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -5245,6 +5515,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,10 +5831,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5771,16 +6059,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$80</c:f>
+              <c:f>main!$H$6:$H$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -5993,6 +6299,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6314,10 +6638,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6542,16 +6866,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$80</c:f>
+              <c:f>main!$I$6:$I$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6739,6 +7081,24 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -6797,10 +7157,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7025,16 +7385,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$80</c:f>
+              <c:f>main!$J$6:$J$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7258,6 +7636,24 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -7298,10 +7694,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7526,16 +7922,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$80</c:f>
+              <c:f>main!$K$6:$K$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7759,6 +8173,24 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -8135,10 +8567,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -8363,16 +8795,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$80</c:f>
+              <c:f>main!$F$6:$F$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -8558,6 +9008,24 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8846,10 +9314,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$80</c:f>
+              <c:f>main!$A$6:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -9074,16 +9542,34 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$80</c:f>
+              <c:f>main!$D$6:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -9272,6 +9758,24 @@
                 </c:pt>
                 <c:pt idx="74" formatCode="0.0">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.0">
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14787,13 +15291,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K80" totalsRowShown="0">
-  <autoFilter ref="A5:K80" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K86" totalsRowShown="0">
+  <autoFilter ref="A5:K86" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -15130,10 +15630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:AD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15180,32 +15680,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B111)</f>
-        <v>77.817333333333323</v>
+        <f>AVERAGE(B6:B117)</f>
+        <v>78.104938271604922</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C111)</f>
-        <v>6.6453333333333306</v>
+        <f>AVERAGE(C6:C117)</f>
+        <v>6.5728395061728362</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D111)</f>
-        <v>6.0007936507936508</v>
+        <f>AVERAGE(D6:D117)</f>
+        <v>5.9818840579710137</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E111)</f>
-        <v>8.2256756756756708</v>
+        <f>AVERAGE(E6:E117)</f>
+        <v>8.0724999999999945</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F111)</f>
-        <v>7.5016129032258076</v>
+        <f>AVERAGE(F6:F117)</f>
+        <v>7.397058823529413</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G111)</f>
-        <v>8.2229729729729701</v>
+        <f>AVERAGE(G6:G117)</f>
+        <v>8.0274999999999963</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H111)</f>
-        <v>6.6816901408450713</v>
+        <f>AVERAGE(H6:H117)</f>
+        <v>6.6324675324675333</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15213,31 +15713,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B118)</f>
-        <v>82</v>
+        <f>MAX(B6:B124)</f>
+        <v>82.7</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C118)</f>
+        <f>MIN(C6:C124)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D118)</f>
+        <f>MIN(D6:D124)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E118)</f>
+        <f>MIN(E6:E124)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F118)</f>
+        <f>MIN(F6:F124)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G118)</f>
+        <f>MIN(G6:G124)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H118)</f>
+        <f>MIN(H6:H124)</f>
         <v>3.8</v>
       </c>
     </row>
@@ -17570,7 +18070,7 @@
       <c r="J72">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17606,7 +18106,7 @@
       <c r="J73">
         <v>8</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17642,7 +18142,7 @@
       <c r="J74">
         <v>8</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17678,7 +18178,7 @@
       <c r="J75">
         <v>8</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17714,7 +18214,7 @@
       <c r="J76">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17750,7 +18250,7 @@
       <c r="J77">
         <v>8</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17786,7 +18286,7 @@
       <c r="J78">
         <v>8</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17822,7 +18322,7 @@
       <c r="J79">
         <v>8</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -17840,22 +18340,238 @@
       <c r="D80" s="2">
         <v>4.8</v>
       </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>7.2</v>
+      </c>
+      <c r="G80">
+        <v>5.8</v>
+      </c>
+      <c r="H80">
+        <v>7.8</v>
+      </c>
       <c r="I80">
         <v>10</v>
       </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B81" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="C81">
+        <v>6.5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E81">
+        <v>8.9</v>
+      </c>
+      <c r="F81">
+        <v>5.8</v>
+      </c>
+      <c r="G81">
+        <v>5.4</v>
+      </c>
+      <c r="H81">
+        <v>6.8</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
         <v>8</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K81" s="3">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="C82">
+        <v>5.3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="E82">
+        <v>4.8</v>
+      </c>
+      <c r="F82">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G82">
+        <v>6.7</v>
+      </c>
+      <c r="H82">
+        <v>6.2</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B83" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="C83">
+        <v>5.3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>5.9</v>
+      </c>
+      <c r="G83">
+        <v>3.8</v>
+      </c>
+      <c r="H83">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B84" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="C84">
+        <v>4.3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E84">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F84">
+        <v>5.5</v>
+      </c>
+      <c r="G84">
+        <v>6.2</v>
+      </c>
+      <c r="H84">
+        <v>5.5</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B85" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="C85">
+        <v>6.1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E85">
+        <v>6.3</v>
+      </c>
+      <c r="F85">
+        <v>5.3</v>
+      </c>
+      <c r="G85">
+        <v>5.8</v>
+      </c>
+      <c r="H85">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B86" s="2">
+        <v>81</v>
+      </c>
+      <c r="C86">
+        <v>6.5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>8</v>
+      </c>
+      <c r="K86" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H89" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1047" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D8B013-DD15-49A7-B93F-79FA6EC5E9E1}"/>
+  <xr:revisionPtr revIDLastSave="1088" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0DACD9-98A1-41BC-AB4D-CF8C33DA68A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -503,16 +503,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$86</c:f>
+              <c:f>main!$B$6:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -755,6 +767,18 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>81.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,10 +1076,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1298,16 +1322,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$86</c:f>
+              <c:f>main!$C$6:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1550,6 +1586,18 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,10 +1637,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1835,16 +1883,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$86</c:f>
+              <c:f>main!$E$6:$E$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2084,6 +2144,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,10 +2198,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2369,16 +2444,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$86</c:f>
+              <c:f>main!$G$6:$G$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2618,6 +2705,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,10 +2759,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2903,16 +3005,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$86</c:f>
+              <c:f>main!$H$6:$H$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -3143,6 +3257,18 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,10 +3596,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3716,16 +3842,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$86</c:f>
+              <c:f>main!$C$6:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -3968,6 +4106,18 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4255,10 +4405,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4501,16 +4651,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$86</c:f>
+              <c:f>main!$E$6:$E$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -4750,6 +4912,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,10 +5215,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5284,16 +5461,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$86</c:f>
+              <c:f>main!$G$6:$G$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -5533,6 +5722,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,10 +6035,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6077,16 +6281,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$86</c:f>
+              <c:f>main!$H$6:$H$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -6317,6 +6533,18 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6638,10 +6866,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6884,16 +7112,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$86</c:f>
+              <c:f>main!$I$6:$I$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -7099,6 +7339,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -7157,10 +7409,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7403,16 +7655,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$86</c:f>
+              <c:f>main!$J$6:$J$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7655,6 +7919,18 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7694,10 +7970,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7940,16 +8216,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$86</c:f>
+              <c:f>main!$K$6:$K$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8192,6 +8480,18 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8567,10 +8867,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -8813,16 +9113,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$86</c:f>
+              <c:f>main!$F$6:$F$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -9026,6 +9338,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9314,10 +9641,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$86</c:f>
+              <c:f>main!$A$6:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -9560,16 +9887,28 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45543</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$86</c:f>
+              <c:f>main!$D$6:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -9776,6 +10115,18 @@
                 </c:pt>
                 <c:pt idx="80" formatCode="0.0">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.0">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15292,8 +15643,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K86" totalsRowShown="0">
-  <autoFilter ref="A5:K86" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K90" totalsRowShown="0">
+  <autoFilter ref="A5:K90" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -15630,10 +15981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD89"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15680,32 +16031,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B117)</f>
-        <v>78.104938271604922</v>
+        <f>AVERAGE(B6:B121)</f>
+        <v>78.259999999999991</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C117)</f>
-        <v>6.5728395061728362</v>
+        <f>AVERAGE(C6:C121)</f>
+        <v>6.5258823529411734</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D117)</f>
-        <v>5.9818840579710137</v>
+        <f>AVERAGE(D6:D121)</f>
+        <v>5.932191780821916</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E117)</f>
-        <v>8.0724999999999945</v>
+        <f>AVERAGE(E6:E121)</f>
+        <v>7.9964705882352893</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F117)</f>
-        <v>7.397058823529413</v>
+        <f>AVERAGE(F6:F121)</f>
+        <v>7.36164383561644</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G117)</f>
-        <v>8.0274999999999963</v>
+        <f>AVERAGE(G6:G121)</f>
+        <v>7.8964705882352906</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H117)</f>
-        <v>6.6324675324675333</v>
+        <f>AVERAGE(H6:H121)</f>
+        <v>6.6234567901234565</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15713,31 +16064,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B124)</f>
+        <f>MAX(B6:B128)</f>
         <v>82.7</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C124)</f>
+        <f>MIN(C6:C128)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D124)</f>
+        <f>MIN(D6:D128)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E124)</f>
+        <f>MIN(E6:E128)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F124)</f>
+        <f>MIN(F6:F128)</f>
         <v>4.8</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G124)</f>
+        <f>MIN(G6:G128)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H124)</f>
+        <f>MIN(H6:H128)</f>
         <v>3.8</v>
       </c>
     </row>
@@ -18394,7 +18745,7 @@
       <c r="J81">
         <v>8</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -18430,7 +18781,7 @@
       <c r="J82">
         <v>8</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -18466,7 +18817,7 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>10</v>
       </c>
@@ -18502,7 +18853,7 @@
       <c r="J84">
         <v>8</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
@@ -18538,7 +18889,7 @@
       <c r="J85">
         <v>4</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>4</v>
       </c>
@@ -18556,22 +18907,175 @@
       <c r="D86" s="2">
         <v>5.2</v>
       </c>
+      <c r="E86">
+        <v>7.3</v>
+      </c>
+      <c r="F86">
+        <v>5.8</v>
+      </c>
+      <c r="G86">
+        <v>4.5</v>
+      </c>
+      <c r="H86">
+        <v>7.1</v>
+      </c>
       <c r="I86">
         <v>10</v>
       </c>
       <c r="J86">
         <v>8</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>18</v>
       </c>
     </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B87" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="C87">
+        <v>4.8</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E87">
+        <v>5.2</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>5.4</v>
+      </c>
+      <c r="H87">
+        <v>5.8</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B88" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="C88">
+        <v>5.9</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E88">
+        <v>5.5</v>
+      </c>
+      <c r="F88">
+        <v>5.6</v>
+      </c>
+      <c r="G88">
+        <v>5.6</v>
+      </c>
+      <c r="H88">
+        <v>5.9</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>14</v>
+      </c>
+    </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="A89" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B89" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="C89">
+        <v>5.7</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E89">
+        <v>8.9</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>6.4</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B90" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="C90">
+        <v>5.9</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>7.1</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>13</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H93" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DiabetesTracker.xlsx
+++ b/DiabetesTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/evertc02_heiway_net/Documents/Documents/streamlit-and-analytics/my_flask_app/DiabetesTracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1088" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0DACD9-98A1-41BC-AB4D-CF8C33DA68A8}"/>
+  <xr:revisionPtr revIDLastSave="1175" documentId="13_ncr:1_{9E831668-67EE-495A-A50A-64C123260486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{011024FA-4555-4093-A2F5-917DAFBF3F1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5319E4B5-F908-47AC-8797-7A3F1E090568}"/>
   </bookViews>
@@ -257,10 +257,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -515,16 +515,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$6:$B$90</c:f>
+              <c:f>main!$B$6:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>72.400000000000006</c:v>
                 </c:pt>
@@ -779,6 +812,39 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>80.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,10 +1142,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1334,16 +1400,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$90</c:f>
+              <c:f>main!$C$6:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -1598,6 +1697,39 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,10 +1769,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -1895,16 +2027,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$90</c:f>
+              <c:f>main!$E$6:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -2159,6 +2324,36 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,10 +2393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -2456,16 +2651,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$90</c:f>
+              <c:f>main!$G$6:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -2720,6 +2948,36 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,10 +3017,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3017,16 +3275,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$90</c:f>
+              <c:f>main!$H$6:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -3269,6 +3560,39 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,10 +3920,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -3854,16 +4178,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$C$6:$C$90</c:f>
+              <c:f>main!$C$6:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>14.6</c:v>
                 </c:pt>
@@ -4118,6 +4475,39 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,10 +4795,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -4663,16 +5053,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$6:$E$90</c:f>
+              <c:f>main!$E$6:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -4927,6 +5350,36 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,10 +5668,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -5473,16 +5926,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$G$6:$G$90</c:f>
+              <c:f>main!$G$6:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>16.5</c:v>
                 </c:pt>
@@ -5737,6 +6223,36 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,10 +6551,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -6293,16 +6809,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$6:$H$90</c:f>
+              <c:f>main!$H$6:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="3">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -6545,6 +7094,39 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6866,10 +7448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7124,16 +7706,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$I$6:$I$90</c:f>
+              <c:f>main!$I$6:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
@@ -7351,6 +7966,39 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -7409,10 +8057,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -7667,16 +8315,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$J$6:$J$90</c:f>
+              <c:f>main!$J$6:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7931,6 +8612,39 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,10 +8684,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -8228,16 +8942,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$K$6:$K$90</c:f>
+              <c:f>main!$K$6:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8492,6 +9239,39 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8867,10 +9647,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -9125,16 +9905,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$F$6:$F$90</c:f>
+              <c:f>main!$F$6:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="12">
                   <c:v>11.1</c:v>
                 </c:pt>
@@ -9353,6 +10166,36 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9641,10 +10484,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>main!$A$6:$A$90</c:f>
+              <c:f>main!$A$6:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>45463</c:v>
                 </c:pt>
@@ -9899,16 +10742,49 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45549</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45550</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$6:$D$90</c:f>
+              <c:f>main!$D$6:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="12">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -10127,6 +11003,39 @@
                 </c:pt>
                 <c:pt idx="84" formatCode="0.0">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.0">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15643,8 +16552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K90" totalsRowShown="0">
-  <autoFilter ref="A5:K90" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}" name="Table2" displayName="Table2" ref="A5:K101" totalsRowShown="0">
+  <autoFilter ref="A5:K101" xr:uid="{98229571-E852-4D72-AD88-420739E80AA6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F3B13052-68BF-4C97-BCA9-A385B988D19D}" name="Date " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75CE39A0-3FAC-4324-B899-84EFA5722702}" name="Weight" dataDxfId="1"/>
@@ -15981,10 +16890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1A06E-97E0-492A-AFA3-9B50FA5CE61B}">
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16031,32 +16940,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(B6:B121)</f>
-        <v>78.259999999999991</v>
+        <f>AVERAGE(B6:B132)</f>
+        <v>78.622916666666654</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(C6:C121)</f>
-        <v>6.5258823529411734</v>
+        <f>AVERAGE(C6:C132)</f>
+        <v>6.4572916666666664</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(D6:D121)</f>
-        <v>5.932191780821916</v>
+        <f>AVERAGE(D6:D132)</f>
+        <v>5.9815476190476184</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE(E6:E121)</f>
-        <v>7.9964705882352893</v>
+        <f>AVERAGE(E6:E132)</f>
+        <v>7.808421052631572</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE(F6:F121)</f>
-        <v>7.36164383561644</v>
+        <f>AVERAGE(F6:F132)</f>
+        <v>7.2674698795180754</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(G6:G121)</f>
-        <v>7.8964705882352906</v>
+        <f>AVERAGE(G6:G132)</f>
+        <v>7.65473684210526</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(H6:H121)</f>
-        <v>6.6234567901234565</v>
+        <f>AVERAGE(H6:H132)</f>
+        <v>6.6826086956521724</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -16064,31 +16973,31 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>MAX(B6:B128)</f>
+        <f>MAX(B6:B139)</f>
         <v>82.7</v>
       </c>
       <c r="C3">
-        <f>MIN(C6:C128)</f>
+        <f>MIN(C6:C139)</f>
         <v>4.2</v>
       </c>
       <c r="D3">
-        <f>MIN(D6:D128)</f>
+        <f>MIN(D6:D139)</f>
         <v>3.8</v>
       </c>
       <c r="E3">
-        <f>MIN(E6:E128)</f>
+        <f>MIN(E6:E139)</f>
         <v>3.8</v>
       </c>
       <c r="F3">
-        <f>MIN(F6:F128)</f>
-        <v>4.8</v>
+        <f>MIN(F6:F139)</f>
+        <v>4.3</v>
       </c>
       <c r="G3">
-        <f>MIN(G6:G128)</f>
+        <f>MIN(G6:G139)</f>
         <v>3.8</v>
       </c>
       <c r="H3">
-        <f>MIN(H6:H128)</f>
+        <f>MIN(H6:H139)</f>
         <v>3.8</v>
       </c>
     </row>
@@ -18961,7 +19870,7 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>10</v>
       </c>
@@ -18997,7 +19906,7 @@
       <c r="J88">
         <v>4</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>14</v>
       </c>
@@ -19033,7 +19942,7 @@
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>10</v>
       </c>
@@ -19060,22 +19969,409 @@
       <c r="G90">
         <v>7.1</v>
       </c>
+      <c r="H90">
+        <v>6.5</v>
+      </c>
       <c r="I90">
         <v>10</v>
       </c>
       <c r="J90">
         <v>6</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90">
         <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
         <v>16</v>
       </c>
     </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B91" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="C91">
+        <v>6.7</v>
+      </c>
+      <c r="D91" s="2">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>5.4</v>
+      </c>
+      <c r="F91">
+        <v>6.1</v>
+      </c>
+      <c r="G91">
+        <v>5.2</v>
+      </c>
+      <c r="H91">
+        <v>5.4</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B92" s="2">
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <v>6.2</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E92">
+        <v>6.8</v>
+      </c>
+      <c r="F92">
+        <v>5.7</v>
+      </c>
+      <c r="G92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H92">
+        <v>7.6</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+      <c r="A93" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B93" s="2">
+        <v>81.8</v>
+      </c>
+      <c r="C93">
+        <v>6.7</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E93">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F93">
+        <v>6.1</v>
+      </c>
+      <c r="G93">
+        <v>6.1</v>
+      </c>
+      <c r="H93">
+        <v>7.1</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="K93" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B94" s="2">
+        <v>82</v>
+      </c>
+      <c r="C94">
+        <v>6.1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E94">
+        <v>5.6</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H94">
+        <v>9.9</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B95" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="C95">
+        <v>5.2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E95">
+        <v>4.8</v>
+      </c>
+      <c r="F95">
+        <v>9.6</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>7.8</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B96" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="C96">
+        <v>5.9</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>6.8</v>
+      </c>
+      <c r="F96">
+        <v>7.2</v>
+      </c>
+      <c r="G96">
+        <v>6.6</v>
+      </c>
+      <c r="H96">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B97" s="2">
+        <v>81</v>
+      </c>
+      <c r="C97">
+        <v>6.7</v>
+      </c>
+      <c r="D97" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E97">
+        <v>8.9</v>
+      </c>
+      <c r="F97">
+        <v>6.1</v>
+      </c>
+      <c r="G97">
+        <v>6.1</v>
+      </c>
+      <c r="H97">
+        <v>6.3</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B98" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C98">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E98">
+        <v>6.3</v>
+      </c>
+      <c r="F98">
+        <v>4.3</v>
+      </c>
+      <c r="G98">
+        <v>5.9</v>
+      </c>
+      <c r="H98">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+      <c r="K98" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B99" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="C99">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E99">
+        <v>7.3</v>
+      </c>
+      <c r="F99">
+        <v>6.5</v>
+      </c>
+      <c r="G99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>8</v>
+      </c>
+      <c r="K99" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B100" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C100">
+        <v>5.2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="E100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F100">
+        <v>6.2</v>
+      </c>
+      <c r="G100">
+        <v>6.9</v>
+      </c>
+      <c r="H100">
+        <v>6.9</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+      <c r="K100" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B101" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="C101">
+        <v>6.3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
+        <f>SUM(Table2[[#This Row],[Insulin AM]:[Insulin PM]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>13</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H104" t="s">
         <v>2</v>
       </c>
     </row>
